--- a/5.GestionDotaciones/ConsolidadoGestionDotaciones2019.xlsx
+++ b/5.GestionDotaciones/ConsolidadoGestionDotaciones2019.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E432D-05CF-4693-AD4C-CD60A5BC33A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EE7ABC-3AE6-4CA2-B4D0-71FA9B6DDD1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteGestionDotacionesOtros" sheetId="2" r:id="rId1"/>
-    <sheet name="COSTOS" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="ZOMAC" sheetId="4" r:id="rId2"/>
+    <sheet name="COSTOS" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReporteGestionDotacionesOtros!$A$36:$L$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReporteGestionDotacionesOtros!$A$36:$L$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="246">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -783,6 +784,105 @@
   </si>
   <si>
     <t>Consolidado Reporte de gestión de dotaciones 2019</t>
+  </si>
+  <si>
+    <t>Vida Nueva</t>
+  </si>
+  <si>
+    <t>La Inmaculada</t>
+  </si>
+  <si>
+    <t>Cúcuta</t>
+  </si>
+  <si>
+    <t>Cormoranes</t>
+  </si>
+  <si>
+    <t>Atlántico</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>Las Gardenias</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Betulia</t>
+  </si>
+  <si>
+    <t>Mi Bohio</t>
+  </si>
+  <si>
+    <t>Campo de la Cruz</t>
+  </si>
+  <si>
+    <t>Técnica Comercial La Inmaculada</t>
+  </si>
+  <si>
+    <t>Fondo de adaptación</t>
+  </si>
+  <si>
+    <t>TrazabilidadDotacion_CampoCruzAtlantico.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Regional  ICBF no manifiesta  gestión con Entes territoriales para la adquisición de la Dotación. Desde el Equipo de Dotación se están gestionado los Listados mínimos de dotación requeridos.
+Ver adjunto: TrazabilidadDotacion_CampoCruzAtlantico.pdf
+</t>
+  </si>
+  <si>
+    <t>Bohórquez</t>
+  </si>
+  <si>
+    <t>Campo De La Cruz</t>
+  </si>
+  <si>
+    <t>Puerto Libertador</t>
+  </si>
+  <si>
+    <t>Pablo VI</t>
+  </si>
+  <si>
+    <t>TrazabilidadDotacionPabloVI_Cordoba.pdf y MínimosDotacionPabloVI_Cordoba.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Regional  ICBF no manifiesta  gestión con Entes territoriales para la adquisición de la Dotación.
+Desde el Equipo de Dotación se envió a la Regional el Listado de mínimos de dotación requeridos para confirmar disponibilidad de recursos con el Ente Territorial.
+Ver adjuntos: TrazabilidadDotacionPabloVI_Cordoba.pdf y MínimosDotacionPabloVI_Cordoba.pdf
+</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>San Bernardo del Viento</t>
+  </si>
+  <si>
+    <t>CDI San Bernardo del Viento</t>
+  </si>
+  <si>
+    <t>TrazabilidadDotacionSanBernardo_Cordoba.pdf</t>
+  </si>
+  <si>
+    <t>En acta de reunión con la Alcaldía de San Bernardo de Viento (9 mayo 2018), quedó como compromiso por parte de la Alcaldía remitir propuesta sobre la compra dotación inicial de acuerdo a los recursos disponibles para la puesta en operación del CDI. No se ha obtenido respuesta de la alcaldía.
+Ver adjunto: TrazabilidadDotacionSanBernardo_Cordoba.pdf
+En el marco del Convenio 007  de 2016 se ha presentado la  necesidad de dotacipon de esta infraestructura. Se espera la Prorroga al Convenio para recibir los recursos del Fondo Abu Dhabi para la compra de las dotaciones.</t>
+  </si>
+  <si>
+    <t>El Banco</t>
+  </si>
+  <si>
+    <t>IE Anaxímedes Torres- antiguo Julián Mejía Alvarado</t>
+  </si>
+  <si>
+    <t>TrazabilidadDotacion_ElBancoMagdalena.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Regional  ICBF no manifiesta  gestión con Entes territoriales para la adquisición de la Dotación. Desde el Equipo de Dotación se están gestionado los Listados mínimos de dotación requeridos.
+Ver adjunto: TrazabilidadDotacion_ElBancoMagdalena.pdf
+</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1096,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1152,6 +1252,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1476,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,7 +2671,7 @@
       </c>
       <c r="L32" s="45"/>
     </row>
-    <row r="33" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>61</v>
       </c>
@@ -2583,7 +2705,7 @@
       </c>
       <c r="L33" s="45"/>
     </row>
-    <row r="34" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>62</v>
       </c>
@@ -2619,7 +2741,7 @@
       </c>
       <c r="L34" s="49"/>
     </row>
-    <row r="35" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>63</v>
       </c>
@@ -2655,7 +2777,7 @@
       </c>
       <c r="L35" s="49"/>
     </row>
-    <row r="36" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>64</v>
       </c>
@@ -2687,7 +2809,7 @@
       </c>
       <c r="L36" s="49"/>
     </row>
-    <row r="37" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="B37" s="51" t="s">
         <v>200</v>
       </c>
@@ -2719,7 +2841,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="B38" s="51" t="s">
         <v>201</v>
       </c>
@@ -2751,7 +2873,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="B39" s="51" t="s">
         <v>201</v>
       </c>
@@ -2779,7 +2901,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="B40" s="51" t="s">
         <v>202</v>
       </c>
@@ -2811,7 +2933,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B41" s="51" t="s">
         <v>202</v>
       </c>
@@ -2841,7 +2963,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>18</v>
       </c>
@@ -2874,7 +2996,7 @@
       </c>
       <c r="K42" s="52"/>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>21</v>
       </c>
@@ -2907,8 +3029,347 @@
       </c>
       <c r="K43" s="52"/>
     </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="51"/>
+      <c r="C44" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="F44" s="54"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="58"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="51"/>
+      <c r="C45" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="F45" s="54"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="58"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="51"/>
+      <c r="C46" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" s="54"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="58"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="51"/>
+      <c r="C47" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" s="54"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="58"/>
+    </row>
+    <row r="48" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="63"/>
+    </row>
+    <row r="49" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="63"/>
+    </row>
+    <row r="50" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" s="57"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="K50" s="59"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="63"/>
+    </row>
+    <row r="51" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="G51" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="H51" s="57">
+        <v>60</v>
+      </c>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="K51" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="L51" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="M51" s="63"/>
+    </row>
+    <row r="52" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C52" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="G52" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="H52" s="57">
+        <v>60</v>
+      </c>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="K52" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="L52" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="M52" s="63"/>
+    </row>
+    <row r="53" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="H53" s="57">
+        <v>60</v>
+      </c>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="K53" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="L53" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="M53" s="63"/>
+    </row>
+    <row r="54" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="G54" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="H54" s="57">
+        <v>60</v>
+      </c>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="K54" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="L54" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="M54" s="63"/>
+    </row>
+    <row r="55" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="G55" s="60"/>
+      <c r="H55" s="57">
+        <v>95</v>
+      </c>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="K55" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="L55" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="M55" s="63"/>
+    </row>
+    <row r="56" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="G56" s="60"/>
+      <c r="H56" s="57">
+        <v>60</v>
+      </c>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="K56" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="L56" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="M56" s="63"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A36:L43" xr:uid="{C52F15DC-E179-4942-A83E-89807467739A}"/>
+  <autoFilter ref="A36:L47" xr:uid="{C52F15DC-E179-4942-A83E-89807467739A}"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="93" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2916,6 +3377,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ABA7C3-3D80-41DC-A1C6-E110C697B812}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>

--- a/5.GestionDotaciones/ConsolidadoGestionDotaciones2019.xlsx
+++ b/5.GestionDotaciones/ConsolidadoGestionDotaciones2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EE7ABC-3AE6-4CA2-B4D0-71FA9B6DDD1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2FD39B-4530-423C-8387-A0C8B81387AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="628">
   <si>
     <t>SERVICIO</t>
   </si>
@@ -819,20 +819,12 @@
     <t>Campo de la Cruz</t>
   </si>
   <si>
-    <t>Técnica Comercial La Inmaculada</t>
-  </si>
-  <si>
     <t>Fondo de adaptación</t>
   </si>
   <si>
     <t>TrazabilidadDotacion_CampoCruzAtlantico.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">La Regional  ICBF no manifiesta  gestión con Entes territoriales para la adquisición de la Dotación. Desde el Equipo de Dotación se están gestionado los Listados mínimos de dotación requeridos.
-Ver adjunto: TrazabilidadDotacion_CampoCruzAtlantico.pdf
-</t>
-  </si>
-  <si>
     <t>Bohórquez</t>
   </si>
   <si>
@@ -846,12 +838,6 @@
   </si>
   <si>
     <t>TrazabilidadDotacionPabloVI_Cordoba.pdf y MínimosDotacionPabloVI_Cordoba.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Regional  ICBF no manifiesta  gestión con Entes territoriales para la adquisición de la Dotación.
-Desde el Equipo de Dotación se envió a la Regional el Listado de mínimos de dotación requeridos para confirmar disponibilidad de recursos con el Ente Territorial.
-Ver adjuntos: TrazabilidadDotacionPabloVI_Cordoba.pdf y MínimosDotacionPabloVI_Cordoba.pdf
-</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -883,6 +869,1164 @@
     <t xml:space="preserve">La Regional  ICBF no manifiesta  gestión con Entes territoriales para la adquisición de la Dotación. Desde el Equipo de Dotación se están gestionado los Listados mínimos de dotación requeridos.
 Ver adjunto: TrazabilidadDotacion_ElBancoMagdalena.pdf
 </t>
+  </si>
+  <si>
+    <t>Código DANE</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Municipio ZOMAC</t>
+  </si>
+  <si>
+    <t>SUBREGIÓN PDET</t>
+  </si>
+  <si>
+    <t>REGIÓN REGALÍAS</t>
+  </si>
+  <si>
+    <t>ANTIOQUIA</t>
+  </si>
+  <si>
+    <t>ABEJORRAL</t>
+  </si>
+  <si>
+    <t>EJE CAFETERO</t>
+  </si>
+  <si>
+    <t>ABRIAQUÍ</t>
+  </si>
+  <si>
+    <t>ALEJANDRÍA</t>
+  </si>
+  <si>
+    <t>AMALFI</t>
+  </si>
+  <si>
+    <t>BAJO CAUCA Y NORDESTE ANTIOQUEÑO</t>
+  </si>
+  <si>
+    <t>ANGOSTURA</t>
+  </si>
+  <si>
+    <t>ANORÍ</t>
+  </si>
+  <si>
+    <t>APARTADÓ</t>
+  </si>
+  <si>
+    <t>URABÁ ANTIOQUEÑO</t>
+  </si>
+  <si>
+    <t>ARGELIA</t>
+  </si>
+  <si>
+    <t>BRICEÑO</t>
+  </si>
+  <si>
+    <t>CÁCERES</t>
+  </si>
+  <si>
+    <t>CAICEDO</t>
+  </si>
+  <si>
+    <t>CAMPAMENTO</t>
+  </si>
+  <si>
+    <t>CAREPA</t>
+  </si>
+  <si>
+    <t>CAUCASIA</t>
+  </si>
+  <si>
+    <t>CHIGORODÓ</t>
+  </si>
+  <si>
+    <t>COCORNÁ</t>
+  </si>
+  <si>
+    <t>CONCEPCIÓN</t>
+  </si>
+  <si>
+    <t>DABEIBA</t>
+  </si>
+  <si>
+    <t>EL BAGRE</t>
+  </si>
+  <si>
+    <t>FRONTINO</t>
+  </si>
+  <si>
+    <t>GRANADA</t>
+  </si>
+  <si>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
+    <t>ITUANGO</t>
+  </si>
+  <si>
+    <t>MONTEBELLO</t>
+  </si>
+  <si>
+    <t>MURINDÓ</t>
+  </si>
+  <si>
+    <t>CHOCÓ</t>
+  </si>
+  <si>
+    <t>MUTATÁ</t>
+  </si>
+  <si>
+    <t>NARIÑO</t>
+  </si>
+  <si>
+    <t>NECHÍ</t>
+  </si>
+  <si>
+    <t>NECOCLÍ</t>
+  </si>
+  <si>
+    <t>PUERTO BERRÍO</t>
+  </si>
+  <si>
+    <t>REMEDIOS</t>
+  </si>
+  <si>
+    <t>SALGAR</t>
+  </si>
+  <si>
+    <t>SAN ANDRÉS DE CUERQUÍA</t>
+  </si>
+  <si>
+    <t>SAN CARLOS</t>
+  </si>
+  <si>
+    <t>SAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>SAN LUIS</t>
+  </si>
+  <si>
+    <t>SAN PEDRO DE URABÁ</t>
+  </si>
+  <si>
+    <t>SAN RAFAEL</t>
+  </si>
+  <si>
+    <t>SANTA FÉ DE ANTIOQUIA</t>
+  </si>
+  <si>
+    <t>SANTO DOMINGO</t>
+  </si>
+  <si>
+    <t>SEGOVIA</t>
+  </si>
+  <si>
+    <t>SONSÓN</t>
+  </si>
+  <si>
+    <t>TARAZÁ</t>
+  </si>
+  <si>
+    <t>TOLEDO</t>
+  </si>
+  <si>
+    <t>TURBO</t>
+  </si>
+  <si>
+    <t>URAMITA</t>
+  </si>
+  <si>
+    <t>URRAO</t>
+  </si>
+  <si>
+    <t>VALDIVIA</t>
+  </si>
+  <si>
+    <t>VEGACHÍ</t>
+  </si>
+  <si>
+    <t>VIGÍA DEL FUERTE</t>
+  </si>
+  <si>
+    <t>YALÍ</t>
+  </si>
+  <si>
+    <t>YARUMAL</t>
+  </si>
+  <si>
+    <t>YOLOMBÓ</t>
+  </si>
+  <si>
+    <t>YONDÓ</t>
+  </si>
+  <si>
+    <t>SUR DE BOLÍVAR</t>
+  </si>
+  <si>
+    <t>ZARAGOZA</t>
+  </si>
+  <si>
+    <t>ARAUCA</t>
+  </si>
+  <si>
+    <t>DEL LLANO</t>
+  </si>
+  <si>
+    <t>ARAUQUITA</t>
+  </si>
+  <si>
+    <t>CRAVO NORTE</t>
+  </si>
+  <si>
+    <t>FORTUL</t>
+  </si>
+  <si>
+    <t>PUERTO RONDÓN</t>
+  </si>
+  <si>
+    <t>SARAVENA</t>
+  </si>
+  <si>
+    <t>TAME</t>
+  </si>
+  <si>
+    <t>BOLÍVAR</t>
+  </si>
+  <si>
+    <t>ARENAL</t>
+  </si>
+  <si>
+    <t>CARIBE</t>
+  </si>
+  <si>
+    <t>CANTAGALLO</t>
+  </si>
+  <si>
+    <t>CÓRDOBA</t>
+  </si>
+  <si>
+    <t>MONTES DE MARÍA</t>
+  </si>
+  <si>
+    <t>EL CARMEN DE BOLÍVAR</t>
+  </si>
+  <si>
+    <t>EL GUAMO</t>
+  </si>
+  <si>
+    <t>MARÍA LA BAJA</t>
+  </si>
+  <si>
+    <t>MONTECRISTO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RÍO VIEJO</t>
+  </si>
+  <si>
+    <t>SAN JACINTO</t>
+  </si>
+  <si>
+    <t>SAN JUAN NEPOMUCENO</t>
+  </si>
+  <si>
+    <t>SAN PABLO</t>
+  </si>
+  <si>
+    <t>SANTA ROSA DEL SUR</t>
+  </si>
+  <si>
+    <t>SIMITÍ</t>
+  </si>
+  <si>
+    <t>TIQUISIO</t>
+  </si>
+  <si>
+    <t>ZAMBRANO</t>
+  </si>
+  <si>
+    <t>BOYACÁ</t>
+  </si>
+  <si>
+    <t>CHIVOR</t>
+  </si>
+  <si>
+    <t>CENTRO ORIENTE</t>
+  </si>
+  <si>
+    <t>LABRANZAGRANDE</t>
+  </si>
+  <si>
+    <t>PAJARITO</t>
+  </si>
+  <si>
+    <t>PAYA</t>
+  </si>
+  <si>
+    <t>PISBA</t>
+  </si>
+  <si>
+    <t>CALDAS</t>
+  </si>
+  <si>
+    <t>ANSERMA</t>
+  </si>
+  <si>
+    <t>BELALCÁZAR</t>
+  </si>
+  <si>
+    <t>MARULANDA</t>
+  </si>
+  <si>
+    <t>NORCASIA</t>
+  </si>
+  <si>
+    <t>PALESTINA</t>
+  </si>
+  <si>
+    <t>PENSILVANIA</t>
+  </si>
+  <si>
+    <t>RIOSUCIO</t>
+  </si>
+  <si>
+    <t>RISARALDA</t>
+  </si>
+  <si>
+    <t>SAMANÁ</t>
+  </si>
+  <si>
+    <t>CAQUETÁ</t>
+  </si>
+  <si>
+    <t>ALBANIA</t>
+  </si>
+  <si>
+    <t>CUENCA DEL CAGUÁN Y PIEDEMONTE CAQUETEÑO</t>
+  </si>
+  <si>
+    <t>CENTRO SUR AMAZONIA</t>
+  </si>
+  <si>
+    <t>BELÉN DE LOS ANDAQUÍES</t>
+  </si>
+  <si>
+    <t>CARTAGENA DEL CHAIRÁ</t>
+  </si>
+  <si>
+    <t>CURILLO</t>
+  </si>
+  <si>
+    <t>EL DONCELLO</t>
+  </si>
+  <si>
+    <t>EL PAUJÍL</t>
+  </si>
+  <si>
+    <t>FLORENCIA</t>
+  </si>
+  <si>
+    <t>LA MONTAÑITA</t>
+  </si>
+  <si>
+    <t>MILÁN</t>
+  </si>
+  <si>
+    <t>MORELIA</t>
+  </si>
+  <si>
+    <t>PUERTO RICO</t>
+  </si>
+  <si>
+    <t>SAN JOSÉ DEL FRAGUA</t>
+  </si>
+  <si>
+    <t>SAN VICENTE DEL CAGUÁN</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>SOLITA</t>
+  </si>
+  <si>
+    <t>VALPARAÍSO</t>
+  </si>
+  <si>
+    <t>CASANARE</t>
+  </si>
+  <si>
+    <t>AGUAZUL</t>
+  </si>
+  <si>
+    <t>CHÁMEZA</t>
+  </si>
+  <si>
+    <t>HATO COROZAL</t>
+  </si>
+  <si>
+    <t>LA SALINA</t>
+  </si>
+  <si>
+    <t>MANÍ</t>
+  </si>
+  <si>
+    <t>MONTERREY</t>
+  </si>
+  <si>
+    <t>PAZ DE ARIPORO</t>
+  </si>
+  <si>
+    <t>PORE</t>
+  </si>
+  <si>
+    <t>RECETOR</t>
+  </si>
+  <si>
+    <t>SABANALARGA</t>
+  </si>
+  <si>
+    <t>SÁCAMA</t>
+  </si>
+  <si>
+    <t>TÁMARA</t>
+  </si>
+  <si>
+    <t>TAURAMENA</t>
+  </si>
+  <si>
+    <t>VILLANUEVA</t>
+  </si>
+  <si>
+    <t>CAUCA</t>
+  </si>
+  <si>
+    <t>ALTO PATÍA - NORTE DEL CAUCA</t>
+  </si>
+  <si>
+    <t>PACÍFICO</t>
+  </si>
+  <si>
+    <t>BALBOA</t>
+  </si>
+  <si>
+    <t>BUENOS AIRES</t>
+  </si>
+  <si>
+    <t>CAJIBÍO</t>
+  </si>
+  <si>
+    <t>CALDONO</t>
+  </si>
+  <si>
+    <t>CALOTO</t>
+  </si>
+  <si>
+    <t>CORINTO</t>
+  </si>
+  <si>
+    <t>EL TAMBO</t>
+  </si>
+  <si>
+    <t>GUAPÍ</t>
+  </si>
+  <si>
+    <t>PACÍFICO MEDIO</t>
+  </si>
+  <si>
+    <t>JAMBALÓ</t>
+  </si>
+  <si>
+    <t>LÓPEZ DE MICAY</t>
+  </si>
+  <si>
+    <t>MERCADERES</t>
+  </si>
+  <si>
+    <t>MIRANDA</t>
+  </si>
+  <si>
+    <t>PATÍA</t>
+  </si>
+  <si>
+    <t>PIAMONTE</t>
+  </si>
+  <si>
+    <t>PIENDAMÓ</t>
+  </si>
+  <si>
+    <t>SANTA ROSA</t>
+  </si>
+  <si>
+    <t>SANTANDER DE QUILICHAO</t>
+  </si>
+  <si>
+    <t>SUÁREZ</t>
+  </si>
+  <si>
+    <t>TIMBIQUÍ</t>
+  </si>
+  <si>
+    <t>TORIBÍO</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>AGUACHICA</t>
+  </si>
+  <si>
+    <t>AGUSTÍN CODAZZI</t>
+  </si>
+  <si>
+    <t>SIERRA NEVADA - PERIJÁ</t>
+  </si>
+  <si>
+    <t>BECERRIL</t>
+  </si>
+  <si>
+    <t>BOSCONIA</t>
+  </si>
+  <si>
+    <t>CHIRIGUANÁ</t>
+  </si>
+  <si>
+    <t>CURUMANÍ</t>
+  </si>
+  <si>
+    <t>EL COPEY</t>
+  </si>
+  <si>
+    <t>LA GLORIA</t>
+  </si>
+  <si>
+    <t>LA JAGUA DE IBIRICO</t>
+  </si>
+  <si>
+    <t>LA PAZ</t>
+  </si>
+  <si>
+    <t>MANAURE BALCÓN DEL CESAR</t>
+  </si>
+  <si>
+    <t>PAILITAS</t>
+  </si>
+  <si>
+    <t>PELAYA</t>
+  </si>
+  <si>
+    <t>PUEBLO BELLO</t>
+  </si>
+  <si>
+    <t>SAN DIEGO</t>
+  </si>
+  <si>
+    <t>ACANDÍ</t>
+  </si>
+  <si>
+    <t>BAGADÓ</t>
+  </si>
+  <si>
+    <t>BAJO BAUDÓ</t>
+  </si>
+  <si>
+    <t>BOJAYÁ</t>
+  </si>
+  <si>
+    <t>CARMEN DEL DARIÉN</t>
+  </si>
+  <si>
+    <t>CONDOTO</t>
+  </si>
+  <si>
+    <t>EL CARMEN DE ATRATO</t>
+  </si>
+  <si>
+    <t>EL LITORAL DEL SAN JUAN</t>
+  </si>
+  <si>
+    <t>ISTMINA</t>
+  </si>
+  <si>
+    <t>MEDIO ATRATO</t>
+  </si>
+  <si>
+    <t>MEDIO SAN JUAN</t>
+  </si>
+  <si>
+    <t>NÓVITA</t>
+  </si>
+  <si>
+    <t>QUIBDÓ</t>
+  </si>
+  <si>
+    <t>SAN JOSÉ DEL PALMAR</t>
+  </si>
+  <si>
+    <t>SIPÍ</t>
+  </si>
+  <si>
+    <t>TADÓ</t>
+  </si>
+  <si>
+    <t>UNGUÍA</t>
+  </si>
+  <si>
+    <t>MONTELÍBANO</t>
+  </si>
+  <si>
+    <t>SUR DE CÓRDOBA</t>
+  </si>
+  <si>
+    <t>PUERTO LIBERTADOR</t>
+  </si>
+  <si>
+    <t>SAN JOSÉ DE URÉ</t>
+  </si>
+  <si>
+    <t>TIERRALTA</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>CUNDINAMARCA</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>CHAGUANÍ</t>
+  </si>
+  <si>
+    <t>EL PEÑÓN</t>
+  </si>
+  <si>
+    <t>GUAYABAL DE SÍQUIMA</t>
+  </si>
+  <si>
+    <t>GUAYABETAL</t>
+  </si>
+  <si>
+    <t>LA PALMA</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>PARATEBUENO</t>
+  </si>
+  <si>
+    <t>PULÍ</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>TOPAIPÍ</t>
+  </si>
+  <si>
+    <t>VIOTÁ</t>
+  </si>
+  <si>
+    <t>GUAVIARE</t>
+  </si>
+  <si>
+    <t>CALAMAR</t>
+  </si>
+  <si>
+    <t>MACARENA - GUAVIARE</t>
+  </si>
+  <si>
+    <t>EL RETORNO</t>
+  </si>
+  <si>
+    <t>MIRAFLORES</t>
+  </si>
+  <si>
+    <t>SAN JOSÉ DEL GUAVIARE</t>
+  </si>
+  <si>
+    <t>HUILA</t>
+  </si>
+  <si>
+    <t>ACEVEDO</t>
+  </si>
+  <si>
+    <t>ALGECIRAS</t>
+  </si>
+  <si>
+    <t>BARAYA</t>
+  </si>
+  <si>
+    <t>COLOMBIA</t>
+  </si>
+  <si>
+    <t>HOBO</t>
+  </si>
+  <si>
+    <t>ISNOS</t>
+  </si>
+  <si>
+    <t>TELLO</t>
+  </si>
+  <si>
+    <t>LA GUAJIRA</t>
+  </si>
+  <si>
+    <t>DIBULLA</t>
+  </si>
+  <si>
+    <t>EL MOLINO</t>
+  </si>
+  <si>
+    <t>FONSECA</t>
+  </si>
+  <si>
+    <t>LA JAGUA DEL PILAR</t>
+  </si>
+  <si>
+    <t>MAICAO</t>
+  </si>
+  <si>
+    <t>RIOHACHA</t>
+  </si>
+  <si>
+    <t>SAN JUAN DEL CESAR</t>
+  </si>
+  <si>
+    <t>URUMITA</t>
+  </si>
+  <si>
+    <t>MAGDALENA</t>
+  </si>
+  <si>
+    <t>ARACATACA</t>
+  </si>
+  <si>
+    <t>FUNDACIÓN</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>BARRANCA DE UPÍA</t>
+  </si>
+  <si>
+    <t>CUBARRAL</t>
+  </si>
+  <si>
+    <t>EL CALVARIO</t>
+  </si>
+  <si>
+    <t>EL CASTILLO</t>
+  </si>
+  <si>
+    <t>EL DORADO</t>
+  </si>
+  <si>
+    <t>FUENTE DE ORO</t>
+  </si>
+  <si>
+    <t>LA MACARENA</t>
+  </si>
+  <si>
+    <t>LEJANÍAS</t>
+  </si>
+  <si>
+    <t>MAPIRIPÁN</t>
+  </si>
+  <si>
+    <t>MESETAS</t>
+  </si>
+  <si>
+    <t>PUERTO CONCORDIA</t>
+  </si>
+  <si>
+    <t>PUERTO GAITÁN</t>
+  </si>
+  <si>
+    <t>PUERTO LLERAS</t>
+  </si>
+  <si>
+    <t>SAN JUAN DE ARAMA</t>
+  </si>
+  <si>
+    <t>SAN JUANITO</t>
+  </si>
+  <si>
+    <t>SAN MARTÍN</t>
+  </si>
+  <si>
+    <t>URIBE</t>
+  </si>
+  <si>
+    <t>VISTAHERMOSA</t>
+  </si>
+  <si>
+    <t>BARBACOAS</t>
+  </si>
+  <si>
+    <t>PACÍFICO Y FRONTERA NARIÑENSE</t>
+  </si>
+  <si>
+    <t>CUMBITARA</t>
+  </si>
+  <si>
+    <t>EL CHARCO</t>
+  </si>
+  <si>
+    <t>EL PEÑOL</t>
+  </si>
+  <si>
+    <t>EL ROSARIO</t>
+  </si>
+  <si>
+    <t>FRANCISCO PIZARRO</t>
+  </si>
+  <si>
+    <t>IPIALES</t>
+  </si>
+  <si>
+    <t>LA LLANADA</t>
+  </si>
+  <si>
+    <t>LA TOLA</t>
+  </si>
+  <si>
+    <t>LEIVA</t>
+  </si>
+  <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>LOS ANDES</t>
+  </si>
+  <si>
+    <t>MAGÜÍ</t>
+  </si>
+  <si>
+    <t>MALLAMA</t>
+  </si>
+  <si>
+    <t>MOSQUERA</t>
+  </si>
+  <si>
+    <t>OLAYA HERRERA</t>
+  </si>
+  <si>
+    <t>POLICARPA</t>
+  </si>
+  <si>
+    <t>PUERRES</t>
+  </si>
+  <si>
+    <t>RICAURTE</t>
+  </si>
+  <si>
+    <t>ROBERTO PAYÁN</t>
+  </si>
+  <si>
+    <t>SAMANIEGO</t>
+  </si>
+  <si>
+    <t>SAN ANDRÉS DE TUMACO</t>
+  </si>
+  <si>
+    <t>SANTA BÁRBARA</t>
+  </si>
+  <si>
+    <t>NORTE DE SANTANDER</t>
+  </si>
+  <si>
+    <t>BUCARASICA</t>
+  </si>
+  <si>
+    <t>CONVENCIÓN</t>
+  </si>
+  <si>
+    <t>CATATUMBO</t>
+  </si>
+  <si>
+    <t>EL CARMEN</t>
+  </si>
+  <si>
+    <t>EL TARRA</t>
+  </si>
+  <si>
+    <t>EL ZULIA</t>
+  </si>
+  <si>
+    <t>HACARÍ</t>
+  </si>
+  <si>
+    <t>LA PLAYA</t>
+  </si>
+  <si>
+    <t>SAN CALIXTO</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>SARDINATA</t>
+  </si>
+  <si>
+    <t>TEORAMA</t>
+  </si>
+  <si>
+    <t>TIBÚ</t>
+  </si>
+  <si>
+    <t>PUTUMAYO</t>
+  </si>
+  <si>
+    <t>MOCOA</t>
+  </si>
+  <si>
+    <t>ORITO</t>
+  </si>
+  <si>
+    <t>PUERTO ASÍS</t>
+  </si>
+  <si>
+    <t>PUERTO CAICEDO</t>
+  </si>
+  <si>
+    <t>PUERTO GUZMÁN</t>
+  </si>
+  <si>
+    <t>PUERTO LEGUÍZAMO</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL</t>
+  </si>
+  <si>
+    <t>VALLE DEL GUAMUEZ</t>
+  </si>
+  <si>
+    <t>VILLAGARZÓN</t>
+  </si>
+  <si>
+    <t>QUINDÍO</t>
+  </si>
+  <si>
+    <t>GÉNOVA</t>
+  </si>
+  <si>
+    <t>PIJAO</t>
+  </si>
+  <si>
+    <t>SALENTO</t>
+  </si>
+  <si>
+    <t>MISTRATÓ</t>
+  </si>
+  <si>
+    <t>PUEBLO RICO</t>
+  </si>
+  <si>
+    <t>QUINCHÍA</t>
+  </si>
+  <si>
+    <t>SANTANDER</t>
+  </si>
+  <si>
+    <t>CHARTA</t>
+  </si>
+  <si>
+    <t>EL PLAYÓN</t>
+  </si>
+  <si>
+    <t>LA BELLEZA</t>
+  </si>
+  <si>
+    <t>LANDÁZURI</t>
+  </si>
+  <si>
+    <t>MATANZA</t>
+  </si>
+  <si>
+    <t>RIONEGRO</t>
+  </si>
+  <si>
+    <t>SABANA DE TORRES</t>
+  </si>
+  <si>
+    <t>SUCRE</t>
+  </si>
+  <si>
+    <t>SURATÁ</t>
+  </si>
+  <si>
+    <t>CHALÁN</t>
+  </si>
+  <si>
+    <t>COLOSÓ</t>
+  </si>
+  <si>
+    <t>LOS PALMITOS</t>
+  </si>
+  <si>
+    <t>MORROA</t>
+  </si>
+  <si>
+    <t>OVEJAS</t>
+  </si>
+  <si>
+    <t>PALMITO</t>
+  </si>
+  <si>
+    <t>SAN ONOFRE</t>
+  </si>
+  <si>
+    <t>TOLÚ VIEJO</t>
+  </si>
+  <si>
+    <t>TOLIMA</t>
+  </si>
+  <si>
+    <t>ALVARADO</t>
+  </si>
+  <si>
+    <t>ANZOÁTEGUI</t>
+  </si>
+  <si>
+    <t>ATACO</t>
+  </si>
+  <si>
+    <t>SUR DEL TOLIMA</t>
+  </si>
+  <si>
+    <t>CAJAMARCA</t>
+  </si>
+  <si>
+    <t>CASABIANCA</t>
+  </si>
+  <si>
+    <t>CHAPARRAL</t>
+  </si>
+  <si>
+    <t>DOLORES</t>
+  </si>
+  <si>
+    <t>HERVEO</t>
+  </si>
+  <si>
+    <t>LÉRIDA</t>
+  </si>
+  <si>
+    <t>MURILLO</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>PLANADAS</t>
+  </si>
+  <si>
+    <t>PRADO</t>
+  </si>
+  <si>
+    <t>RIOBLANCO</t>
+  </si>
+  <si>
+    <t>RONCESVALLES</t>
+  </si>
+  <si>
+    <t>ROVIRA</t>
+  </si>
+  <si>
+    <t>SAN ANTONIO</t>
+  </si>
+  <si>
+    <t>SANTA ISABEL</t>
+  </si>
+  <si>
+    <t>VENADILLO</t>
+  </si>
+  <si>
+    <t>VILLAHERMOSA</t>
+  </si>
+  <si>
+    <t>VILLARRICA</t>
+  </si>
+  <si>
+    <t>VALLE DEL CAUCA</t>
+  </si>
+  <si>
+    <t>ANSERMANUEVO</t>
+  </si>
+  <si>
+    <t>BUENAVENTURA</t>
+  </si>
+  <si>
+    <t>CAICEDONIA</t>
+  </si>
+  <si>
+    <t>CALIMA</t>
+  </si>
+  <si>
+    <t>DAGUA</t>
+  </si>
+  <si>
+    <t>EL ÁGUILA</t>
+  </si>
+  <si>
+    <t>EL CAIRO</t>
+  </si>
+  <si>
+    <t>EL DOVIO</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>PRADERA</t>
+  </si>
+  <si>
+    <t>RIOFRÍO</t>
+  </si>
+  <si>
+    <t>ROLDANILLO</t>
+  </si>
+  <si>
+    <t>YOTOCO</t>
+  </si>
+  <si>
+    <t>VAUPÉS</t>
+  </si>
+  <si>
+    <t>CARURÚ</t>
+  </si>
+  <si>
+    <t>VICHADA</t>
+  </si>
+  <si>
+    <t>CUMARIBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donación- en trámite </t>
+  </si>
+  <si>
+    <t>I.E La Inmaculada</t>
+  </si>
+  <si>
+    <t>El lunes 14 de enero se solicta a la regional formato de identificación de necesidades y de solicitud de mpinimos requeridos.</t>
+  </si>
+  <si>
+    <t>La Regional  ICBF no manifiesta  gestión con Entes territoriales para la adquisición de la Dotación.
+Desde el Equipo de Dotación se envió a la Regional el Listado de mínimos de dotación requeridos para confirmar disponibilidad de recursos con el Ente Territorial.
+Ver adjuntos: TrazabilidadDotacionPabloVI_Cordoba.pdf y MínimosDotacionPabloVI_Cordoba.pdf</t>
+  </si>
+  <si>
+    <t>La Regional  ICBF no manifiesta  gestión con Entes territoriales para la adquisición de la Dotación. Desde el Equipo de Dotación  el lunes 14 de enero se envío Listado de mínimos de dotación requeridos y formato de inventario para realizar cruce con elementos disponibles de traslados y definir elementos pendientes de adquisición.
+Ver adjunto: TrazabilidadDotacion_CampoCruzAtlantico.pdf</t>
   </si>
 </sst>
 </file>
@@ -897,7 +2041,7 @@
     <numFmt numFmtId="166" formatCode="[$$-240A]\ #,##0;\-[$$-240A]\ #,##0"/>
     <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0.0_-;\-&quot;$&quot;\ * #,##0.0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,8 +2124,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,6 +2184,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,7 +2271,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1123,12 +2298,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1274,6 +2443,29 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1598,10 +2790,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <pane xSplit="3375" ySplit="1425" topLeftCell="G52" activePane="bottomRight"/>
+      <selection activeCell="G3" sqref="G3"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,35 +2805,35 @@
     <col min="1" max="1" width="5.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="13" customWidth="1"/>
     <col min="5" max="5" width="20.140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="29" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="7"/>
+    <col min="7" max="7" width="25.140625" style="7" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" style="9" customWidth="1"/>
     <col min="9" max="9" width="35.7109375" style="12" customWidth="1"/>
     <col min="10" max="10" width="41.140625" style="12" customWidth="1"/>
     <col min="11" max="11" width="86.5703125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" style="8" customWidth="1"/>
     <col min="13" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="56" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-    </row>
-    <row r="2" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+    </row>
+    <row r="2" spans="1:12" s="73" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -1647,10 +2843,10 @@
       <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -1679,289 +2875,289 @@
       <c r="A3" s="11">
         <v>13</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="18">
         <v>99</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="21" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>15</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18">
         <v>40</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>17</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>100</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="L5" s="28"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>19</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="22">
         <v>300</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>20</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="22">
         <v>160</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="L7" s="28"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>26</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="33" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="L8" s="37"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>27</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29">
         <v>65</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="33" t="s">
+      <c r="H9" s="33"/>
+      <c r="I9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>28</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="33" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="L10" s="37"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>29</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30">
         <v>95</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="33" t="s">
+      <c r="I11" s="32"/>
+      <c r="J11" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="36" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1969,1404 +3165,1399 @@
       <c r="A12" s="11">
         <v>30</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31">
+      <c r="F12" s="29"/>
+      <c r="G12" s="29">
         <v>100</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33" t="s">
+      <c r="H12" s="34"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="37"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>31</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="33" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="37"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>42</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="37">
         <v>100</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43" t="s">
+      <c r="I14" s="40"/>
+      <c r="J14" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="43" t="s">
+      <c r="K14" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="45"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>43</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="37">
         <v>30</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43" t="s">
+      <c r="I15" s="40"/>
+      <c r="J15" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="45"/>
+      <c r="L15" s="43"/>
     </row>
     <row r="16" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="39">
         <v>50</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43" t="s">
+      <c r="I16" s="40"/>
+      <c r="J16" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="43" t="s">
+      <c r="K16" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="43"/>
     </row>
     <row r="17" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>45</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="39">
         <v>50</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43" t="s">
+      <c r="I17" s="40"/>
+      <c r="J17" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="45"/>
+      <c r="L17" s="43"/>
     </row>
     <row r="18" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>46</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="37">
         <v>120</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43" t="s">
+      <c r="I18" s="40"/>
+      <c r="J18" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="45"/>
+      <c r="L18" s="43"/>
     </row>
     <row r="19" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>47</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="37">
         <v>40</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43" t="s">
+      <c r="I19" s="40"/>
+      <c r="J19" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="43" t="s">
+      <c r="K19" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="45"/>
+      <c r="L19" s="43"/>
     </row>
     <row r="20" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>48</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="37">
         <v>160</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="43" t="s">
+      <c r="I20" s="42"/>
+      <c r="J20" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="43" t="s">
+      <c r="K20" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="45"/>
+      <c r="L20" s="43"/>
     </row>
     <row r="21" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>49</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="37">
         <v>160</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43" t="s">
+      <c r="I21" s="40"/>
+      <c r="J21" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="43" t="s">
+      <c r="K21" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="L21" s="45"/>
+      <c r="L21" s="43"/>
     </row>
     <row r="22" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>50</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="37">
         <v>100</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="43" t="s">
+      <c r="I22" s="42"/>
+      <c r="J22" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="43" t="s">
+      <c r="K22" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="L22" s="45"/>
+      <c r="L22" s="43"/>
     </row>
     <row r="23" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>51</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="37">
         <v>300</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43" t="s">
+      <c r="I23" s="40"/>
+      <c r="J23" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="K23" s="43" t="s">
+      <c r="K23" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="45"/>
+      <c r="L23" s="43"/>
     </row>
     <row r="24" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>52</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="37">
         <v>160</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43" t="s">
+      <c r="I24" s="40"/>
+      <c r="J24" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="43" t="s">
+      <c r="K24" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="45"/>
+      <c r="L24" s="43"/>
     </row>
     <row r="25" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>53</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="39">
         <v>160</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43" t="s">
+      <c r="I25" s="40"/>
+      <c r="J25" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="45"/>
+      <c r="L25" s="43"/>
     </row>
     <row r="26" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>54</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="39">
         <v>160</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="H26" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43" t="s">
+      <c r="I26" s="40"/>
+      <c r="J26" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="K26" s="43" t="s">
+      <c r="K26" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="L26" s="45"/>
+      <c r="L26" s="43"/>
     </row>
     <row r="27" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>55</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="39">
         <v>100</v>
       </c>
-      <c r="H27" s="42" t="s">
+      <c r="H27" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43" t="s">
+      <c r="I27" s="40"/>
+      <c r="J27" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="K27" s="43" t="s">
+      <c r="K27" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="45"/>
+      <c r="L27" s="43"/>
     </row>
     <row r="28" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>56</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="37">
         <v>160</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="44"/>
-      <c r="J28" s="43" t="s">
+      <c r="I28" s="42"/>
+      <c r="J28" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K28" s="43" t="s">
+      <c r="K28" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="45"/>
+      <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>57</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="37">
         <v>65</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="43" t="s">
+      <c r="I29" s="42"/>
+      <c r="J29" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K29" s="43" t="s">
+      <c r="K29" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="L29" s="45"/>
+      <c r="L29" s="43"/>
     </row>
     <row r="30" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>58</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="37">
         <v>95</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="I30" s="44"/>
-      <c r="J30" s="43" t="s">
+      <c r="I30" s="42"/>
+      <c r="J30" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="K30" s="43" t="s">
+      <c r="K30" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="L30" s="45"/>
+      <c r="L30" s="43"/>
     </row>
     <row r="31" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>59</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="37">
         <v>40</v>
       </c>
-      <c r="H31" s="44" t="s">
+      <c r="H31" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="I31" s="42"/>
-      <c r="J31" s="43" t="s">
+      <c r="I31" s="40"/>
+      <c r="J31" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="43" t="s">
+      <c r="K31" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="L31" s="45"/>
+      <c r="L31" s="43"/>
     </row>
     <row r="32" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>60</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="37">
         <v>65</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="43" t="s">
+      <c r="I32" s="40"/>
+      <c r="J32" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="K32" s="43" t="s">
+      <c r="K32" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="L32" s="45"/>
-    </row>
-    <row r="33" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="43"/>
+    </row>
+    <row r="33" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>61</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="37">
         <v>95</v>
       </c>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="I33" s="44"/>
-      <c r="J33" s="43" t="s">
+      <c r="I33" s="42"/>
+      <c r="J33" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="K33" s="43" t="s">
+      <c r="K33" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="L33" s="45"/>
-    </row>
-    <row r="34" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="43"/>
+    </row>
+    <row r="34" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>62</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="44">
         <v>160</v>
       </c>
-      <c r="H34" s="48" t="s">
+      <c r="H34" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="I34" s="48" t="s">
+      <c r="I34" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="J34" s="47" t="s">
+      <c r="J34" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="K34" s="48" t="s">
+      <c r="K34" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="L34" s="49"/>
-    </row>
-    <row r="35" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="47"/>
+    </row>
+    <row r="35" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>63</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="44">
         <v>300</v>
       </c>
-      <c r="H35" s="48" t="s">
+      <c r="H35" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="I35" s="48" t="s">
+      <c r="I35" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="J35" s="47" t="s">
+      <c r="J35" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="K35" s="48" t="s">
+      <c r="K35" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="L35" s="49"/>
-    </row>
-    <row r="36" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="47"/>
+    </row>
+    <row r="36" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>64</v>
       </c>
-      <c r="B36" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="47" t="s">
+      <c r="B36" s="44" t="s">
+        <v>623</v>
+      </c>
+      <c r="C36" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="F36" s="50"/>
-      <c r="G36" s="46">
+      <c r="F36" s="48"/>
+      <c r="G36" s="44">
         <v>42</v>
       </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="J36" s="47" t="s">
+      <c r="J36" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="K36" s="47" t="s">
+      <c r="K36" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="L36" s="49"/>
-    </row>
-    <row r="37" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="B37" s="51" t="s">
+      <c r="L36" s="47"/>
+    </row>
+    <row r="37" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="B37" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="F37" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="51">
+      <c r="G37" s="49">
         <v>65</v>
       </c>
-      <c r="H37" s="53" t="s">
+      <c r="H37" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="I37" s="53" t="s">
+      <c r="I37" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="J37" s="52" t="s">
+      <c r="J37" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="K37" s="52" t="s">
+      <c r="K37" s="50" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="270" x14ac:dyDescent="0.25">
-      <c r="B38" s="51" t="s">
+    <row r="38" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+      <c r="B38" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="54" t="s">
+      <c r="F38" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="51">
+      <c r="G38" s="49">
         <v>300</v>
       </c>
-      <c r="H38" s="53" t="s">
+      <c r="H38" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="I38" s="53" t="s">
+      <c r="I38" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="J38" s="52" t="s">
+      <c r="J38" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="K38" s="52" t="s">
+      <c r="K38" s="50" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="B39" s="51" t="s">
+    <row r="39" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="B39" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="54"/>
-      <c r="G39" s="51">
+      <c r="F39" s="52"/>
+      <c r="G39" s="49">
         <v>160</v>
       </c>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53" t="s">
+      <c r="H39" s="51"/>
+      <c r="I39" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="J39" s="52" t="s">
+      <c r="J39" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="K39" s="52" t="s">
+      <c r="K39" s="50" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="240" x14ac:dyDescent="0.25">
-      <c r="B40" s="51" t="s">
+    <row r="40" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="B40" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="54" t="s">
+      <c r="F40" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G40" s="51">
+      <c r="G40" s="49">
         <v>300</v>
       </c>
-      <c r="H40" s="53" t="s">
+      <c r="H40" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="I40" s="53" t="s">
+      <c r="I40" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="J40" s="52" t="s">
+      <c r="J40" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="K40" s="52" t="s">
+      <c r="K40" s="50" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="B41" s="51" t="s">
+    <row r="41" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B41" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="52" t="s">
+      <c r="E41" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="54" t="s">
+      <c r="F41" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="51">
+      <c r="G41" s="49">
         <v>300</v>
       </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53" t="s">
+      <c r="H41" s="51"/>
+      <c r="I41" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="J41" s="52" t="s">
+      <c r="J41" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="K41" s="52" t="s">
+      <c r="K41" s="50" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>18</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="54" t="s">
+      <c r="F42" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="51">
+      <c r="G42" s="49">
         <v>160</v>
       </c>
-      <c r="H42" s="53" t="s">
+      <c r="H42" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="I42" s="53" t="s">
+      <c r="I42" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="J42" s="52" t="s">
+      <c r="J42" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="K42" s="52"/>
-    </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="K42" s="50"/>
+    </row>
+    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>21</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="F43" s="54" t="s">
+      <c r="F43" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="51">
+      <c r="G43" s="49">
         <v>300</v>
       </c>
-      <c r="H43" s="53" t="s">
+      <c r="H43" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="I43" s="53" t="s">
+      <c r="I43" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="J43" s="52" t="s">
+      <c r="J43" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="K43" s="52"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="51"/>
-      <c r="C44" s="52" t="s">
+      <c r="K43" s="50"/>
+    </row>
+    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="49"/>
+      <c r="C44" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="F44" s="54"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="58"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="51"/>
-      <c r="C45" s="52" t="s">
+      <c r="F44" s="52"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="56"/>
+    </row>
+    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="49"/>
+      <c r="C45" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="58"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="51"/>
-      <c r="C46" s="52" t="s">
+      <c r="F45" s="52"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="56"/>
+    </row>
+    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="49"/>
+      <c r="C46" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="D46" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="E46" s="52" t="s">
+      <c r="E46" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="58"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="51"/>
-      <c r="C47" s="52" t="s">
+      <c r="F46" s="52"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="56"/>
+    </row>
+    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="49"/>
+      <c r="C47" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="58"/>
-    </row>
-    <row r="48" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="52"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="56"/>
+    </row>
+    <row r="48" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="63"/>
-    </row>
-    <row r="49" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="57"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="55">
+        <v>115</v>
+      </c>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="60" t="s">
+        <v>625</v>
+      </c>
+      <c r="L48" s="61"/>
+    </row>
+    <row r="49" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="63"/>
-    </row>
-    <row r="50" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="57"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="61"/>
+    </row>
+    <row r="50" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="D50" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59" t="s">
+      <c r="E50" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="G50" s="60" t="s">
+      <c r="F50" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="57"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61" t="s">
+      <c r="G50" s="55"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="K50" s="59"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="63"/>
-    </row>
-    <row r="51" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="57"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="61"/>
+    </row>
+    <row r="51" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D51" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59" t="s">
+      <c r="E51" s="57" t="s">
+        <v>624</v>
+      </c>
+      <c r="F51" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="G51" s="60" t="s">
+      <c r="G51" s="55">
+        <v>60</v>
+      </c>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="J51" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="H51" s="57">
+      <c r="K51" s="60" t="s">
+        <v>627</v>
+      </c>
+      <c r="L51" s="61"/>
+    </row>
+    <row r="52" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E52" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="F52" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="G52" s="55">
         <v>60</v>
       </c>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61" t="s">
+      <c r="H52" s="59"/>
+      <c r="I52" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="K51" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="L51" s="62" t="s">
+      <c r="J52" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="K52" s="60" t="s">
+        <v>627</v>
+      </c>
+      <c r="L52" s="61"/>
+    </row>
+    <row r="53" spans="1:12" s="62" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E53" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="M51" s="63"/>
-    </row>
-    <row r="52" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="57" t="s">
+      <c r="F53" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" s="55">
+        <v>60</v>
+      </c>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="J53" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="K53" s="60" t="s">
+        <v>627</v>
+      </c>
+      <c r="L53" s="61"/>
+    </row>
+    <row r="54" spans="1:12" s="62" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="C52" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="D52" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59" t="s">
+      <c r="C54" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="G52" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="H52" s="57">
+      <c r="E54" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="F54" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="G54" s="55">
         <v>60</v>
       </c>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61" t="s">
+      <c r="H54" s="59"/>
+      <c r="I54" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="K52" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="L52" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="M52" s="63"/>
-    </row>
-    <row r="53" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="57" t="s">
+      <c r="J54" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="K54" s="57" t="s">
+        <v>626</v>
+      </c>
+      <c r="L54" s="61"/>
+    </row>
+    <row r="55" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="C53" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="G53" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="H53" s="57">
+      <c r="C55" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="E55" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="F55" s="58"/>
+      <c r="G55" s="55">
+        <v>95</v>
+      </c>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="J55" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="K55" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="L55" s="61"/>
+    </row>
+    <row r="56" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="F56" s="58"/>
+      <c r="G56" s="55">
         <v>60</v>
       </c>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61" t="s">
+      <c r="H56" s="59"/>
+      <c r="I56" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="K53" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="L53" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="M53" s="63"/>
-    </row>
-    <row r="54" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="C54" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="G54" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="H54" s="57">
-        <v>60</v>
-      </c>
-      <c r="I54" s="61"/>
-      <c r="J54" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="K54" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="L54" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="M54" s="63"/>
-    </row>
-    <row r="55" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="C55" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="D55" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="G55" s="60"/>
-      <c r="H55" s="57">
-        <v>95</v>
-      </c>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="K55" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="L55" s="59" t="s">
+      <c r="J56" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="M55" s="63"/>
-    </row>
-    <row r="56" spans="1:13" s="64" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="C56" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="59" t="s">
+      <c r="K56" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="G56" s="60"/>
-      <c r="H56" s="57">
-        <v>60</v>
-      </c>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="K56" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="L56" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="M56" s="63"/>
+      <c r="L56" s="61"/>
     </row>
   </sheetData>
   <autoFilter ref="A36:L47" xr:uid="{C52F15DC-E179-4942-A83E-89807467739A}"/>
@@ -3378,14 +4569,5533 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ABA7C3-3D80-41DC-A1C6-E110C697B812}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="64">
+        <v>5002</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="64">
+        <v>5004</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="64">
+        <v>5021</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="64">
+        <v>5031</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="64">
+        <v>5038</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="64">
+        <v>5040</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="64">
+        <v>5045</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="64">
+        <v>5055</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="65"/>
+      <c r="E9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="64">
+        <v>5107</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="64">
+        <v>5120</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="64">
+        <v>5125</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="64">
+        <v>5134</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="65"/>
+      <c r="E13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="64">
+        <v>5147</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="64">
+        <v>5154</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="64">
+        <v>5172</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="64">
+        <v>5197</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="64">
+        <v>5206</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="64">
+        <v>5234</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="64">
+        <v>5250</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="64">
+        <v>5284</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="65"/>
+      <c r="E21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="64">
+        <v>5313</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="65"/>
+      <c r="E22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="64">
+        <v>5315</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="65"/>
+      <c r="E23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="64">
+        <v>5361</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="64">
+        <v>5467</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="65"/>
+      <c r="E25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="64">
+        <v>5475</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="64">
+        <v>5480</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="64">
+        <v>5483</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" s="65"/>
+      <c r="E28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="64">
+        <v>5495</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="64">
+        <v>5490</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="64">
+        <v>5579</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" s="65"/>
+      <c r="E31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="64">
+        <v>5604</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="64">
+        <v>5642</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" s="65"/>
+      <c r="E33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="64">
+        <v>5647</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" s="65"/>
+      <c r="E34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="66">
+        <v>5649</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="68" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="64">
+        <v>5652</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" s="65"/>
+      <c r="E36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="64">
+        <v>5660</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="D37" s="65"/>
+      <c r="E37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="64">
+        <v>5665</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="64">
+        <v>5667</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="D39" s="65"/>
+      <c r="E39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="64">
+        <v>5042</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="D40" s="65"/>
+      <c r="E40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="64">
+        <v>5690</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" s="65"/>
+      <c r="E41" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="64">
+        <v>5736</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="64">
+        <v>5756</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" s="65"/>
+      <c r="E43" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="64">
+        <v>5790</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="64">
+        <v>5819</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="D45" s="65"/>
+      <c r="E45" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="64">
+        <v>5837</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="64">
+        <v>5842</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47" s="65"/>
+      <c r="E47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="64">
+        <v>5847</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="D48" s="65"/>
+      <c r="E48" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="64">
+        <v>5854</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E49" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="64">
+        <v>5858</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="D50" s="65"/>
+      <c r="E50" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="64">
+        <v>5873</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="64">
+        <v>5885</v>
+      </c>
+      <c r="B52" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="D52" s="65"/>
+      <c r="E52" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="66">
+        <v>5887</v>
+      </c>
+      <c r="B53" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="66" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" s="67"/>
+      <c r="E53" s="68" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="64">
+        <v>5890</v>
+      </c>
+      <c r="B54" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C54" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="D54" s="65"/>
+      <c r="E54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="64">
+        <v>5893</v>
+      </c>
+      <c r="B55" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C55" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="D55" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="E55" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="64">
+        <v>5895</v>
+      </c>
+      <c r="B56" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="D56" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E56" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="64">
+        <v>81001</v>
+      </c>
+      <c r="B57" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="C57" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="D57" s="65"/>
+      <c r="E57" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="64">
+        <v>81065</v>
+      </c>
+      <c r="B58" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="C58" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="D58" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="E58" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="64">
+        <v>81220</v>
+      </c>
+      <c r="B59" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="D59" s="65"/>
+      <c r="E59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="64">
+        <v>81300</v>
+      </c>
+      <c r="B60" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="C60" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="D60" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="E60" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="64">
+        <v>81591</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="D61" s="65"/>
+      <c r="E61" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="64">
+        <v>81736</v>
+      </c>
+      <c r="B62" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="C62" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="D62" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="E62" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="64">
+        <v>81794</v>
+      </c>
+      <c r="B63" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="C63" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="D63" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="E63" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="64">
+        <v>13042</v>
+      </c>
+      <c r="B64" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C64" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D64" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="E64" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="64">
+        <v>13160</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C65" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="D65" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="E65" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="64">
+        <v>13212</v>
+      </c>
+      <c r="B66" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C66" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="D66" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E66" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="64">
+        <v>13244</v>
+      </c>
+      <c r="B67" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C67" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="D67" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E67" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="64">
+        <v>13248</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C68" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="D68" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E68" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="64">
+        <v>13442</v>
+      </c>
+      <c r="B69" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C69" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="D69" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E69" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="64">
+        <v>13458</v>
+      </c>
+      <c r="B70" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C70" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="D70" s="65"/>
+      <c r="E70" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="64">
+        <v>13473</v>
+      </c>
+      <c r="B71" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C71" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="D71" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="E71" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="64">
+        <v>13600</v>
+      </c>
+      <c r="B72" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C72" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="D72" s="65"/>
+      <c r="E72" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="64">
+        <v>13654</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C73" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="D73" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E73" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="64">
+        <v>13657</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C74" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="D74" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E74" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="64">
+        <v>13670</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C75" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="D75" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="E75" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="64">
+        <v>13688</v>
+      </c>
+      <c r="B76" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C76" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="D76" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="E76" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="64">
+        <v>13744</v>
+      </c>
+      <c r="B77" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C77" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="D77" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="E77" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="64">
+        <v>13810</v>
+      </c>
+      <c r="B78" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="D78" s="65"/>
+      <c r="E78" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="64">
+        <v>13894</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C79" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="D79" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E79" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="64">
+        <v>15236</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="C80" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="D80" s="65"/>
+      <c r="E80" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="64">
+        <v>15377</v>
+      </c>
+      <c r="B81" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="C81" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="D81" s="65"/>
+      <c r="E81" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="64">
+        <v>15518</v>
+      </c>
+      <c r="B82" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="C82" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="D82" s="65"/>
+      <c r="E82" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="64">
+        <v>15533</v>
+      </c>
+      <c r="B83" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="C83" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="D83" s="65"/>
+      <c r="E83" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="64">
+        <v>15550</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="C84" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="D84" s="65"/>
+      <c r="E84" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="64">
+        <v>17042</v>
+      </c>
+      <c r="B85" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="C85" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="D85" s="65"/>
+      <c r="E85" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="64">
+        <v>17088</v>
+      </c>
+      <c r="B86" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="C86" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="D86" s="65"/>
+      <c r="E86" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="64">
+        <v>17446</v>
+      </c>
+      <c r="B87" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="C87" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="D87" s="65"/>
+      <c r="E87" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="64">
+        <v>17495</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="C88" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="D88" s="65"/>
+      <c r="E88" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="64">
+        <v>17524</v>
+      </c>
+      <c r="B89" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="C89" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="D89" s="65"/>
+      <c r="E89" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="64">
+        <v>17541</v>
+      </c>
+      <c r="B90" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="C90" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="D90" s="65"/>
+      <c r="E90" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="64">
+        <v>17614</v>
+      </c>
+      <c r="B91" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="C91" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="D91" s="65"/>
+      <c r="E91" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="64">
+        <v>17616</v>
+      </c>
+      <c r="B92" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="C92" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="D92" s="65"/>
+      <c r="E92" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="64">
+        <v>17662</v>
+      </c>
+      <c r="B93" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="C93" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="D93" s="65"/>
+      <c r="E93" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="64">
+        <v>18029</v>
+      </c>
+      <c r="B94" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C94" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="D94" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E94" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="64">
+        <v>18094</v>
+      </c>
+      <c r="B95" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C95" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="D95" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E95" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="64">
+        <v>18150</v>
+      </c>
+      <c r="B96" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C96" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="D96" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E96" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="69">
+        <v>18205</v>
+      </c>
+      <c r="B97" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="C97" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="D97" s="70" t="s">
+        <v>355</v>
+      </c>
+      <c r="E97" s="71" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="64">
+        <v>18247</v>
+      </c>
+      <c r="B98" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C98" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="D98" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E98" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="64">
+        <v>18256</v>
+      </c>
+      <c r="B99" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C99" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="D99" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E99" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="64">
+        <v>18001</v>
+      </c>
+      <c r="B100" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C100" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="D100" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E100" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="64">
+        <v>18410</v>
+      </c>
+      <c r="B101" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C101" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="D101" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E101" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="64">
+        <v>18460</v>
+      </c>
+      <c r="B102" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C102" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="D102" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E102" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="64">
+        <v>18479</v>
+      </c>
+      <c r="B103" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C103" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="D103" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E103" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="64">
+        <v>18592</v>
+      </c>
+      <c r="B104" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C104" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="D104" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E104" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="66">
+        <v>18610</v>
+      </c>
+      <c r="B105" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="C105" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="D105" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="E105" s="68" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="64">
+        <v>18753</v>
+      </c>
+      <c r="B106" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C106" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="D106" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E106" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="64">
+        <v>18756</v>
+      </c>
+      <c r="B107" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C107" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="D107" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E107" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="64">
+        <v>18785</v>
+      </c>
+      <c r="B108" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C108" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="D108" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E108" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="64">
+        <v>18860</v>
+      </c>
+      <c r="B109" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C109" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="D109" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E109" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="64">
+        <v>85010</v>
+      </c>
+      <c r="B110" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C110" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="D110" s="65"/>
+      <c r="E110" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="64">
+        <v>85015</v>
+      </c>
+      <c r="B111" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C111" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="D111" s="65"/>
+      <c r="E111" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="64">
+        <v>85125</v>
+      </c>
+      <c r="B112" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C112" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D112" s="65"/>
+      <c r="E112" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="64">
+        <v>85136</v>
+      </c>
+      <c r="B113" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C113" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="D113" s="65"/>
+      <c r="E113" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="64">
+        <v>85139</v>
+      </c>
+      <c r="B114" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C114" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="D114" s="65"/>
+      <c r="E114" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="64">
+        <v>85162</v>
+      </c>
+      <c r="B115" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C115" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="D115" s="65"/>
+      <c r="E115" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="64">
+        <v>85250</v>
+      </c>
+      <c r="B116" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C116" s="64" t="s">
+        <v>379</v>
+      </c>
+      <c r="D116" s="65"/>
+      <c r="E116" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="64">
+        <v>85263</v>
+      </c>
+      <c r="B117" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C117" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="D117" s="65"/>
+      <c r="E117" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="64">
+        <v>85279</v>
+      </c>
+      <c r="B118" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C118" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="D118" s="65"/>
+      <c r="E118" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="64">
+        <v>85300</v>
+      </c>
+      <c r="B119" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C119" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="D119" s="65"/>
+      <c r="E119" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="64">
+        <v>85315</v>
+      </c>
+      <c r="B120" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C120" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="D120" s="65"/>
+      <c r="E120" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="64">
+        <v>85400</v>
+      </c>
+      <c r="B121" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C121" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="D121" s="65"/>
+      <c r="E121" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="64">
+        <v>85410</v>
+      </c>
+      <c r="B122" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C122" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="D122" s="65"/>
+      <c r="E122" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="64">
+        <v>85440</v>
+      </c>
+      <c r="B123" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C123" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="D123" s="65"/>
+      <c r="E123" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="64">
+        <v>19050</v>
+      </c>
+      <c r="B124" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C124" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="D124" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E124" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="64">
+        <v>19075</v>
+      </c>
+      <c r="B125" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C125" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="D125" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E125" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="64">
+        <v>19110</v>
+      </c>
+      <c r="B126" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C126" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="D126" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E126" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="64">
+        <v>19130</v>
+      </c>
+      <c r="B127" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C127" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="D127" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E127" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="64">
+        <v>19137</v>
+      </c>
+      <c r="B128" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C128" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="D128" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E128" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="64">
+        <v>19142</v>
+      </c>
+      <c r="B129" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C129" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="D129" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E129" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="64">
+        <v>19212</v>
+      </c>
+      <c r="B130" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C130" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="D130" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E130" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="64">
+        <v>19256</v>
+      </c>
+      <c r="B131" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="D131" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E131" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="64">
+        <v>19290</v>
+      </c>
+      <c r="B132" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C132" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="D132" s="65"/>
+      <c r="E132" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="64">
+        <v>19318</v>
+      </c>
+      <c r="B133" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C133" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="D133" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="E133" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="64">
+        <v>19364</v>
+      </c>
+      <c r="B134" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C134" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="D134" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E134" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="64">
+        <v>19418</v>
+      </c>
+      <c r="B135" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C135" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="D135" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="E135" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="64">
+        <v>19450</v>
+      </c>
+      <c r="B136" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C136" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="D136" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E136" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="64">
+        <v>19455</v>
+      </c>
+      <c r="B137" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C137" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="D137" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E137" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="64">
+        <v>19473</v>
+      </c>
+      <c r="B138" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C138" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="D138" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E138" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="64">
+        <v>19532</v>
+      </c>
+      <c r="B139" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C139" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="D139" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E139" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="64">
+        <v>19533</v>
+      </c>
+      <c r="B140" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C140" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="D140" s="65"/>
+      <c r="E140" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="64">
+        <v>19548</v>
+      </c>
+      <c r="B141" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C141" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="D141" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E141" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="64">
+        <v>19701</v>
+      </c>
+      <c r="B142" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C142" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="D142" s="65"/>
+      <c r="E142" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="64">
+        <v>19698</v>
+      </c>
+      <c r="B143" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C143" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="D143" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E143" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="64">
+        <v>19780</v>
+      </c>
+      <c r="B144" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C144" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="D144" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E144" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="64">
+        <v>19809</v>
+      </c>
+      <c r="B145" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C145" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="D145" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="E145" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="64">
+        <v>19821</v>
+      </c>
+      <c r="B146" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C146" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="D146" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E146" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="64">
+        <v>20011</v>
+      </c>
+      <c r="B147" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C147" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="D147" s="65"/>
+      <c r="E147" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="64">
+        <v>20013</v>
+      </c>
+      <c r="B148" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C148" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="D148" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E148" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="64">
+        <v>20045</v>
+      </c>
+      <c r="B149" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C149" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="D149" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E149" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="64">
+        <v>20060</v>
+      </c>
+      <c r="B150" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C150" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="D150" s="65"/>
+      <c r="E150" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="64">
+        <v>20178</v>
+      </c>
+      <c r="B151" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C151" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="D151" s="65"/>
+      <c r="E151" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="64">
+        <v>20228</v>
+      </c>
+      <c r="B152" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C152" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="D152" s="65"/>
+      <c r="E152" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="64">
+        <v>20238</v>
+      </c>
+      <c r="B153" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C153" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="D153" s="65"/>
+      <c r="E153" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="64">
+        <v>20383</v>
+      </c>
+      <c r="B154" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C154" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="D154" s="65"/>
+      <c r="E154" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="64">
+        <v>20400</v>
+      </c>
+      <c r="B155" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C155" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="D155" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E155" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="64">
+        <v>20621</v>
+      </c>
+      <c r="B156" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C156" s="64" t="s">
+        <v>422</v>
+      </c>
+      <c r="D156" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E156" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="64">
+        <v>20443</v>
+      </c>
+      <c r="B157" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C157" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="D157" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E157" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="64">
+        <v>20517</v>
+      </c>
+      <c r="B158" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C158" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="D158" s="65"/>
+      <c r="E158" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="64">
+        <v>20550</v>
+      </c>
+      <c r="B159" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C159" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="D159" s="65"/>
+      <c r="E159" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="64">
+        <v>20570</v>
+      </c>
+      <c r="B160" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C160" s="64" t="s">
+        <v>426</v>
+      </c>
+      <c r="D160" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E160" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="64">
+        <v>20750</v>
+      </c>
+      <c r="B161" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C161" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="D161" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E161" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="66">
+        <v>27006</v>
+      </c>
+      <c r="B162" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="C162" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="D162" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="E162" s="68" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="64">
+        <v>27073</v>
+      </c>
+      <c r="B163" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C163" s="64" t="s">
+        <v>429</v>
+      </c>
+      <c r="D163" s="65"/>
+      <c r="E163" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="64">
+        <v>27077</v>
+      </c>
+      <c r="B164" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C164" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="D164" s="65"/>
+      <c r="E164" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="64">
+        <v>27099</v>
+      </c>
+      <c r="B165" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C165" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="D165" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E165" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="64">
+        <v>27150</v>
+      </c>
+      <c r="B166" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C166" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="D166" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E166" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="69">
+        <v>27205</v>
+      </c>
+      <c r="B167" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="C167" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="D167" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="E167" s="71" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="64">
+        <v>27245</v>
+      </c>
+      <c r="B168" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C168" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="D168" s="65"/>
+      <c r="E168" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="64">
+        <v>27250</v>
+      </c>
+      <c r="B169" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C169" s="64" t="s">
+        <v>435</v>
+      </c>
+      <c r="D169" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E169" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="64">
+        <v>27361</v>
+      </c>
+      <c r="B170" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C170" s="64" t="s">
+        <v>436</v>
+      </c>
+      <c r="D170" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E170" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="64">
+        <v>27425</v>
+      </c>
+      <c r="B171" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C171" s="64" t="s">
+        <v>437</v>
+      </c>
+      <c r="D171" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E171" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="64">
+        <v>27450</v>
+      </c>
+      <c r="B172" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C172" s="64" t="s">
+        <v>438</v>
+      </c>
+      <c r="D172" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E172" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="64">
+        <v>27491</v>
+      </c>
+      <c r="B173" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C173" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="D173" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E173" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="64">
+        <v>27001</v>
+      </c>
+      <c r="B174" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C174" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="D174" s="65"/>
+      <c r="E174" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="64">
+        <v>27615</v>
+      </c>
+      <c r="B175" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C175" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="D175" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E175" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="64">
+        <v>27660</v>
+      </c>
+      <c r="B176" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C176" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="D176" s="65"/>
+      <c r="E176" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="64">
+        <v>27745</v>
+      </c>
+      <c r="B177" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C177" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="D177" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E177" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="66">
+        <v>27787</v>
+      </c>
+      <c r="B178" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="C178" s="66" t="s">
+        <v>443</v>
+      </c>
+      <c r="D178" s="67"/>
+      <c r="E178" s="68" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="64">
+        <v>27800</v>
+      </c>
+      <c r="B179" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C179" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="D179" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E179" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="64">
+        <v>23466</v>
+      </c>
+      <c r="B180" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="C180" s="66" t="s">
+        <v>445</v>
+      </c>
+      <c r="D180" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="E180" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="64">
+        <v>23580</v>
+      </c>
+      <c r="B181" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="C181" s="66" t="s">
+        <v>447</v>
+      </c>
+      <c r="D181" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="E181" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="64">
+        <v>23682</v>
+      </c>
+      <c r="B182" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="C182" s="66" t="s">
+        <v>448</v>
+      </c>
+      <c r="D182" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="E182" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="64">
+        <v>23807</v>
+      </c>
+      <c r="B183" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="C183" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="D183" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="E183" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="64">
+        <v>23855</v>
+      </c>
+      <c r="B184" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="C184" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="D184" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="E184" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="64">
+        <v>25120</v>
+      </c>
+      <c r="B185" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="C185" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="D185" s="65"/>
+      <c r="E185" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="64">
+        <v>25168</v>
+      </c>
+      <c r="B186" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="C186" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="D186" s="65"/>
+      <c r="E186" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="64">
+        <v>25258</v>
+      </c>
+      <c r="B187" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="C187" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="D187" s="65"/>
+      <c r="E187" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="64">
+        <v>25328</v>
+      </c>
+      <c r="B188" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="C188" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="D188" s="65"/>
+      <c r="E188" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="64">
+        <v>25335</v>
+      </c>
+      <c r="B189" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="C189" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="D189" s="65"/>
+      <c r="E189" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="64">
+        <v>25394</v>
+      </c>
+      <c r="B190" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="C190" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="D190" s="65"/>
+      <c r="E190" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="64">
+        <v>25438</v>
+      </c>
+      <c r="B191" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="C191" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="D191" s="65"/>
+      <c r="E191" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="64">
+        <v>25530</v>
+      </c>
+      <c r="B192" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="C192" s="64" t="s">
+        <v>459</v>
+      </c>
+      <c r="D192" s="65"/>
+      <c r="E192" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="64">
+        <v>25580</v>
+      </c>
+      <c r="B193" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="C193" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="D193" s="65"/>
+      <c r="E193" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="64">
+        <v>25743</v>
+      </c>
+      <c r="B194" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="C194" s="64" t="s">
+        <v>461</v>
+      </c>
+      <c r="D194" s="65"/>
+      <c r="E194" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="64">
+        <v>25823</v>
+      </c>
+      <c r="B195" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="C195" s="64" t="s">
+        <v>462</v>
+      </c>
+      <c r="D195" s="65"/>
+      <c r="E195" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="66">
+        <v>25878</v>
+      </c>
+      <c r="B196" s="66" t="s">
+        <v>451</v>
+      </c>
+      <c r="C196" s="66" t="s">
+        <v>463</v>
+      </c>
+      <c r="D196" s="67"/>
+      <c r="E196" s="68" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="64">
+        <v>95015</v>
+      </c>
+      <c r="B197" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="C197" s="64" t="s">
+        <v>465</v>
+      </c>
+      <c r="D197" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="E197" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="64">
+        <v>95025</v>
+      </c>
+      <c r="B198" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="C198" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="D198" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="E198" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="64">
+        <v>95200</v>
+      </c>
+      <c r="B199" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="C199" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="D199" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="E199" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="64">
+        <v>95001</v>
+      </c>
+      <c r="B200" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="C200" s="64" t="s">
+        <v>469</v>
+      </c>
+      <c r="D200" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="E200" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="64">
+        <v>41006</v>
+      </c>
+      <c r="B201" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="C201" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="D201" s="65"/>
+      <c r="E201" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="64">
+        <v>41020</v>
+      </c>
+      <c r="B202" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="C202" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="D202" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="E202" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="66">
+        <v>41078</v>
+      </c>
+      <c r="B203" s="66" t="s">
+        <v>470</v>
+      </c>
+      <c r="C203" s="66" t="s">
+        <v>473</v>
+      </c>
+      <c r="D203" s="67"/>
+      <c r="E203" s="68" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="64">
+        <v>41206</v>
+      </c>
+      <c r="B204" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="C204" s="64" t="s">
+        <v>474</v>
+      </c>
+      <c r="D204" s="65"/>
+      <c r="E204" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="64">
+        <v>41349</v>
+      </c>
+      <c r="B205" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="C205" s="64" t="s">
+        <v>475</v>
+      </c>
+      <c r="D205" s="65"/>
+      <c r="E205" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="64">
+        <v>41359</v>
+      </c>
+      <c r="B206" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="C206" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="D206" s="65"/>
+      <c r="E206" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="64">
+        <v>41799</v>
+      </c>
+      <c r="B207" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="C207" s="64" t="s">
+        <v>477</v>
+      </c>
+      <c r="D207" s="65"/>
+      <c r="E207" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="64">
+        <v>44090</v>
+      </c>
+      <c r="B208" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="C208" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="D208" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E208" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="64">
+        <v>44110</v>
+      </c>
+      <c r="B209" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="C209" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="D209" s="65"/>
+      <c r="E209" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="64">
+        <v>44279</v>
+      </c>
+      <c r="B210" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="C210" s="64" t="s">
+        <v>481</v>
+      </c>
+      <c r="D210" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E210" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="64">
+        <v>44420</v>
+      </c>
+      <c r="B211" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="C211" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="D211" s="65"/>
+      <c r="E211" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="64">
+        <v>44430</v>
+      </c>
+      <c r="B212" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="C212" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="D212" s="65"/>
+      <c r="E212" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="64">
+        <v>44001</v>
+      </c>
+      <c r="B213" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="C213" s="64" t="s">
+        <v>484</v>
+      </c>
+      <c r="D213" s="65"/>
+      <c r="E213" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="64">
+        <v>44650</v>
+      </c>
+      <c r="B214" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="C214" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="D214" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E214" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="64">
+        <v>44855</v>
+      </c>
+      <c r="B215" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="C215" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="D215" s="65"/>
+      <c r="E215" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="64">
+        <v>44874</v>
+      </c>
+      <c r="B216" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="C216" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="D216" s="65"/>
+      <c r="E216" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="64">
+        <v>47053</v>
+      </c>
+      <c r="B217" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="C217" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="D217" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E217" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="64">
+        <v>47288</v>
+      </c>
+      <c r="B218" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="C218" s="64" t="s">
+        <v>489</v>
+      </c>
+      <c r="D218" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E218" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="64">
+        <v>50110</v>
+      </c>
+      <c r="B219" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C219" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="D219" s="65"/>
+      <c r="E219" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="64">
+        <v>50223</v>
+      </c>
+      <c r="B220" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C220" s="64" t="s">
+        <v>492</v>
+      </c>
+      <c r="D220" s="65"/>
+      <c r="E220" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="64">
+        <v>50245</v>
+      </c>
+      <c r="B221" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C221" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="D221" s="65"/>
+      <c r="E221" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="64">
+        <v>50251</v>
+      </c>
+      <c r="B222" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C222" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="D222" s="65"/>
+      <c r="E222" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="64">
+        <v>50270</v>
+      </c>
+      <c r="B223" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C223" s="64" t="s">
+        <v>495</v>
+      </c>
+      <c r="D223" s="65"/>
+      <c r="E223" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="64">
+        <v>50287</v>
+      </c>
+      <c r="B224" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C224" s="64" t="s">
+        <v>496</v>
+      </c>
+      <c r="D224" s="65"/>
+      <c r="E224" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="66">
+        <v>50313</v>
+      </c>
+      <c r="B225" s="66" t="s">
+        <v>490</v>
+      </c>
+      <c r="C225" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="D225" s="67"/>
+      <c r="E225" s="68" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="64">
+        <v>50350</v>
+      </c>
+      <c r="B226" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C226" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="D226" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="E226" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="66">
+        <v>50400</v>
+      </c>
+      <c r="B227" s="66" t="s">
+        <v>490</v>
+      </c>
+      <c r="C227" s="66" t="s">
+        <v>498</v>
+      </c>
+      <c r="D227" s="67"/>
+      <c r="E227" s="68" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="64">
+        <v>50325</v>
+      </c>
+      <c r="B228" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C228" s="64" t="s">
+        <v>499</v>
+      </c>
+      <c r="D228" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="E228" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="64">
+        <v>50330</v>
+      </c>
+      <c r="B229" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C229" s="64" t="s">
+        <v>500</v>
+      </c>
+      <c r="D229" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="E229" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="64">
+        <v>50450</v>
+      </c>
+      <c r="B230" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C230" s="64" t="s">
+        <v>501</v>
+      </c>
+      <c r="D230" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="E230" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="64">
+        <v>50568</v>
+      </c>
+      <c r="B231" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C231" s="64" t="s">
+        <v>502</v>
+      </c>
+      <c r="D231" s="65"/>
+      <c r="E231" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="64">
+        <v>50577</v>
+      </c>
+      <c r="B232" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C232" s="64" t="s">
+        <v>503</v>
+      </c>
+      <c r="D232" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="E232" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="64">
+        <v>50590</v>
+      </c>
+      <c r="B233" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C233" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="D233" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="E233" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="64">
+        <v>50683</v>
+      </c>
+      <c r="B234" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C234" s="64" t="s">
+        <v>504</v>
+      </c>
+      <c r="D234" s="65"/>
+      <c r="E234" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="64">
+        <v>50686</v>
+      </c>
+      <c r="B235" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C235" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="D235" s="65"/>
+      <c r="E235" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="64">
+        <v>50689</v>
+      </c>
+      <c r="B236" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C236" s="64" t="s">
+        <v>506</v>
+      </c>
+      <c r="D236" s="65"/>
+      <c r="E236" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="64">
+        <v>50370</v>
+      </c>
+      <c r="B237" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C237" s="64" t="s">
+        <v>507</v>
+      </c>
+      <c r="D237" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="E237" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="64">
+        <v>50711</v>
+      </c>
+      <c r="B238" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C238" s="64" t="s">
+        <v>508</v>
+      </c>
+      <c r="D238" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="E238" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="64">
+        <v>52079</v>
+      </c>
+      <c r="B239" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C239" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="D239" s="65" t="s">
+        <v>510</v>
+      </c>
+      <c r="E239" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="64">
+        <v>52233</v>
+      </c>
+      <c r="B240" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C240" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="D240" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E240" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="64">
+        <v>52250</v>
+      </c>
+      <c r="B241" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C241" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="D241" s="65" t="s">
+        <v>510</v>
+      </c>
+      <c r="E241" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="64">
+        <v>52254</v>
+      </c>
+      <c r="B242" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C242" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="D242" s="65"/>
+      <c r="E242" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="64">
+        <v>52256</v>
+      </c>
+      <c r="B243" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C243" s="64" t="s">
+        <v>514</v>
+      </c>
+      <c r="D243" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E243" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="64">
+        <v>52520</v>
+      </c>
+      <c r="B244" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C244" s="64" t="s">
+        <v>515</v>
+      </c>
+      <c r="D244" s="65" t="s">
+        <v>510</v>
+      </c>
+      <c r="E244" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="64">
+        <v>52356</v>
+      </c>
+      <c r="B245" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C245" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="D245" s="65"/>
+      <c r="E245" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="64">
+        <v>52385</v>
+      </c>
+      <c r="B246" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="C246" s="72" t="s">
+        <v>517</v>
+      </c>
+      <c r="D246" s="65"/>
+      <c r="E246" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="64">
+        <v>52390</v>
+      </c>
+      <c r="B247" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C247" s="64" t="s">
+        <v>518</v>
+      </c>
+      <c r="D247" s="65" t="s">
+        <v>510</v>
+      </c>
+      <c r="E247" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="64">
+        <v>52405</v>
+      </c>
+      <c r="B248" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C248" s="64" t="s">
+        <v>519</v>
+      </c>
+      <c r="D248" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E248" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="64">
+        <v>52411</v>
+      </c>
+      <c r="B249" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C249" s="64" t="s">
+        <v>520</v>
+      </c>
+      <c r="D249" s="65"/>
+      <c r="E249" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="64">
+        <v>52418</v>
+      </c>
+      <c r="B250" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C250" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="D250" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E250" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="64">
+        <v>52427</v>
+      </c>
+      <c r="B251" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C251" s="64" t="s">
+        <v>522</v>
+      </c>
+      <c r="D251" s="65" t="s">
+        <v>510</v>
+      </c>
+      <c r="E251" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="64">
+        <v>52435</v>
+      </c>
+      <c r="B252" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C252" s="64" t="s">
+        <v>523</v>
+      </c>
+      <c r="D252" s="65"/>
+      <c r="E252" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="64">
+        <v>52473</v>
+      </c>
+      <c r="B253" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C253" s="64" t="s">
+        <v>524</v>
+      </c>
+      <c r="D253" s="65" t="s">
+        <v>510</v>
+      </c>
+      <c r="E253" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="64">
+        <v>52490</v>
+      </c>
+      <c r="B254" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C254" s="64" t="s">
+        <v>525</v>
+      </c>
+      <c r="D254" s="65" t="s">
+        <v>510</v>
+      </c>
+      <c r="E254" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="64">
+        <v>52540</v>
+      </c>
+      <c r="B255" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C255" s="64" t="s">
+        <v>526</v>
+      </c>
+      <c r="D255" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E255" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="64">
+        <v>52573</v>
+      </c>
+      <c r="B256" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C256" s="64" t="s">
+        <v>527</v>
+      </c>
+      <c r="D256" s="65"/>
+      <c r="E256" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="64">
+        <v>52612</v>
+      </c>
+      <c r="B257" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C257" s="64" t="s">
+        <v>528</v>
+      </c>
+      <c r="D257" s="65" t="s">
+        <v>510</v>
+      </c>
+      <c r="E257" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="64">
+        <v>52621</v>
+      </c>
+      <c r="B258" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C258" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="D258" s="65" t="s">
+        <v>510</v>
+      </c>
+      <c r="E258" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="64">
+        <v>52678</v>
+      </c>
+      <c r="B259" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C259" s="64" t="s">
+        <v>530</v>
+      </c>
+      <c r="D259" s="65"/>
+      <c r="E259" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="64">
+        <v>52835</v>
+      </c>
+      <c r="B260" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C260" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="D260" s="65" t="s">
+        <v>510</v>
+      </c>
+      <c r="E260" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="64">
+        <v>52696</v>
+      </c>
+      <c r="B261" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C261" s="64" t="s">
+        <v>532</v>
+      </c>
+      <c r="D261" s="65" t="s">
+        <v>510</v>
+      </c>
+      <c r="E261" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="64">
+        <v>54109</v>
+      </c>
+      <c r="B262" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="C262" s="64" t="s">
+        <v>534</v>
+      </c>
+      <c r="D262" s="65"/>
+      <c r="E262" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="64">
+        <v>54206</v>
+      </c>
+      <c r="B263" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="C263" s="64" t="s">
+        <v>535</v>
+      </c>
+      <c r="D263" s="65" t="s">
+        <v>536</v>
+      </c>
+      <c r="E263" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="64">
+        <v>54245</v>
+      </c>
+      <c r="B264" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="C264" s="64" t="s">
+        <v>537</v>
+      </c>
+      <c r="D264" s="65" t="s">
+        <v>536</v>
+      </c>
+      <c r="E264" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="64">
+        <v>54250</v>
+      </c>
+      <c r="B265" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="C265" s="64" t="s">
+        <v>538</v>
+      </c>
+      <c r="D265" s="65" t="s">
+        <v>536</v>
+      </c>
+      <c r="E265" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="64">
+        <v>54261</v>
+      </c>
+      <c r="B266" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="C266" s="64" t="s">
+        <v>539</v>
+      </c>
+      <c r="D266" s="65"/>
+      <c r="E266" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="64">
+        <v>54344</v>
+      </c>
+      <c r="B267" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="C267" s="64" t="s">
+        <v>540</v>
+      </c>
+      <c r="D267" s="65" t="s">
+        <v>536</v>
+      </c>
+      <c r="E267" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="64">
+        <v>54398</v>
+      </c>
+      <c r="B268" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="C268" s="64" t="s">
+        <v>541</v>
+      </c>
+      <c r="D268" s="65"/>
+      <c r="E268" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="64">
+        <v>54670</v>
+      </c>
+      <c r="B269" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="C269" s="64" t="s">
+        <v>542</v>
+      </c>
+      <c r="D269" s="65" t="s">
+        <v>536</v>
+      </c>
+      <c r="E269" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="64">
+        <v>54680</v>
+      </c>
+      <c r="B270" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="C270" s="64" t="s">
+        <v>543</v>
+      </c>
+      <c r="D270" s="65"/>
+      <c r="E270" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="64">
+        <v>54720</v>
+      </c>
+      <c r="B271" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="C271" s="64" t="s">
+        <v>544</v>
+      </c>
+      <c r="D271" s="65" t="s">
+        <v>536</v>
+      </c>
+      <c r="E271" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="64">
+        <v>54800</v>
+      </c>
+      <c r="B272" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="C272" s="64" t="s">
+        <v>545</v>
+      </c>
+      <c r="D272" s="65" t="s">
+        <v>536</v>
+      </c>
+      <c r="E272" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="64">
+        <v>54810</v>
+      </c>
+      <c r="B273" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="C273" s="64" t="s">
+        <v>546</v>
+      </c>
+      <c r="D273" s="65" t="s">
+        <v>536</v>
+      </c>
+      <c r="E273" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="64">
+        <v>86001</v>
+      </c>
+      <c r="B274" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="C274" s="64" t="s">
+        <v>548</v>
+      </c>
+      <c r="D274" s="65" t="s">
+        <v>547</v>
+      </c>
+      <c r="E274" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="64">
+        <v>86320</v>
+      </c>
+      <c r="B275" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="C275" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="D275" s="65" t="s">
+        <v>547</v>
+      </c>
+      <c r="E275" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="66">
+        <v>86568</v>
+      </c>
+      <c r="B276" s="66" t="s">
+        <v>547</v>
+      </c>
+      <c r="C276" s="66" t="s">
+        <v>550</v>
+      </c>
+      <c r="D276" s="67" t="s">
+        <v>547</v>
+      </c>
+      <c r="E276" s="68" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="64">
+        <v>86569</v>
+      </c>
+      <c r="B277" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="C277" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="D277" s="65" t="s">
+        <v>547</v>
+      </c>
+      <c r="E277" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="64">
+        <v>86571</v>
+      </c>
+      <c r="B278" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="C278" s="64" t="s">
+        <v>552</v>
+      </c>
+      <c r="D278" s="65" t="s">
+        <v>547</v>
+      </c>
+      <c r="E278" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="64">
+        <v>86573</v>
+      </c>
+      <c r="B279" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="C279" s="64" t="s">
+        <v>553</v>
+      </c>
+      <c r="D279" s="65" t="s">
+        <v>547</v>
+      </c>
+      <c r="E279" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="64">
+        <v>86757</v>
+      </c>
+      <c r="B280" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="C280" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="D280" s="65" t="s">
+        <v>547</v>
+      </c>
+      <c r="E280" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="64">
+        <v>86865</v>
+      </c>
+      <c r="B281" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="C281" s="64" t="s">
+        <v>555</v>
+      </c>
+      <c r="D281" s="65" t="s">
+        <v>547</v>
+      </c>
+      <c r="E281" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="64">
+        <v>86885</v>
+      </c>
+      <c r="B282" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="C282" s="64" t="s">
+        <v>556</v>
+      </c>
+      <c r="D282" s="65" t="s">
+        <v>547</v>
+      </c>
+      <c r="E282" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="64">
+        <v>63302</v>
+      </c>
+      <c r="B283" s="64" t="s">
+        <v>557</v>
+      </c>
+      <c r="C283" s="64" t="s">
+        <v>558</v>
+      </c>
+      <c r="D283" s="65"/>
+      <c r="E283" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="64">
+        <v>63548</v>
+      </c>
+      <c r="B284" s="64" t="s">
+        <v>557</v>
+      </c>
+      <c r="C284" s="64" t="s">
+        <v>559</v>
+      </c>
+      <c r="D284" s="65"/>
+      <c r="E284" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="64">
+        <v>63690</v>
+      </c>
+      <c r="B285" s="64" t="s">
+        <v>557</v>
+      </c>
+      <c r="C285" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="D285" s="65"/>
+      <c r="E285" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="64">
+        <v>66075</v>
+      </c>
+      <c r="B286" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="C286" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="D286" s="65"/>
+      <c r="E286" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="64">
+        <v>66456</v>
+      </c>
+      <c r="B287" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="C287" s="64" t="s">
+        <v>561</v>
+      </c>
+      <c r="D287" s="65"/>
+      <c r="E287" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="64">
+        <v>66572</v>
+      </c>
+      <c r="B288" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="C288" s="64" t="s">
+        <v>562</v>
+      </c>
+      <c r="D288" s="65"/>
+      <c r="E288" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="64">
+        <v>66594</v>
+      </c>
+      <c r="B289" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="C289" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="D289" s="65"/>
+      <c r="E289" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="64">
+        <v>68101</v>
+      </c>
+      <c r="B290" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="C290" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D290" s="65"/>
+      <c r="E290" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="64">
+        <v>68169</v>
+      </c>
+      <c r="B291" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="C291" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="D291" s="65"/>
+      <c r="E291" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="64">
+        <v>68255</v>
+      </c>
+      <c r="B292" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="C292" s="64" t="s">
+        <v>566</v>
+      </c>
+      <c r="D292" s="65"/>
+      <c r="E292" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="64">
+        <v>68377</v>
+      </c>
+      <c r="B293" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="C293" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="D293" s="65"/>
+      <c r="E293" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="64">
+        <v>68385</v>
+      </c>
+      <c r="B294" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="C294" s="64" t="s">
+        <v>568</v>
+      </c>
+      <c r="D294" s="65"/>
+      <c r="E294" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="64">
+        <v>68444</v>
+      </c>
+      <c r="B295" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="C295" s="64" t="s">
+        <v>569</v>
+      </c>
+      <c r="D295" s="65"/>
+      <c r="E295" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="64">
+        <v>68615</v>
+      </c>
+      <c r="B296" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="C296" s="64" t="s">
+        <v>570</v>
+      </c>
+      <c r="D296" s="65"/>
+      <c r="E296" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="64">
+        <v>68655</v>
+      </c>
+      <c r="B297" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="C297" s="64" t="s">
+        <v>571</v>
+      </c>
+      <c r="D297" s="65"/>
+      <c r="E297" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="64">
+        <v>68773</v>
+      </c>
+      <c r="B298" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="C298" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="D298" s="65"/>
+      <c r="E298" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="64">
+        <v>68780</v>
+      </c>
+      <c r="B299" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="C299" s="64" t="s">
+        <v>573</v>
+      </c>
+      <c r="D299" s="65"/>
+      <c r="E299" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="64">
+        <v>70230</v>
+      </c>
+      <c r="B300" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="C300" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="D300" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E300" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="64">
+        <v>70204</v>
+      </c>
+      <c r="B301" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="C301" s="64" t="s">
+        <v>575</v>
+      </c>
+      <c r="D301" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E301" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="64">
+        <v>70418</v>
+      </c>
+      <c r="B302" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="C302" s="64" t="s">
+        <v>576</v>
+      </c>
+      <c r="D302" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E302" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="64">
+        <v>70473</v>
+      </c>
+      <c r="B303" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="C303" s="64" t="s">
+        <v>577</v>
+      </c>
+      <c r="D303" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E303" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="64">
+        <v>70508</v>
+      </c>
+      <c r="B304" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="C304" s="64" t="s">
+        <v>578</v>
+      </c>
+      <c r="D304" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E304" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="64">
+        <v>70523</v>
+      </c>
+      <c r="B305" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="C305" s="64" t="s">
+        <v>579</v>
+      </c>
+      <c r="D305" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E305" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="64">
+        <v>70713</v>
+      </c>
+      <c r="B306" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="C306" s="64" t="s">
+        <v>580</v>
+      </c>
+      <c r="D306" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E306" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="64">
+        <v>70823</v>
+      </c>
+      <c r="B307" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="C307" s="64" t="s">
+        <v>581</v>
+      </c>
+      <c r="D307" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E307" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="64">
+        <v>73026</v>
+      </c>
+      <c r="B308" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C308" s="64" t="s">
+        <v>583</v>
+      </c>
+      <c r="D308" s="65"/>
+      <c r="E308" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="64">
+        <v>73043</v>
+      </c>
+      <c r="B309" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C309" s="64" t="s">
+        <v>584</v>
+      </c>
+      <c r="D309" s="65"/>
+      <c r="E309" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="64">
+        <v>73067</v>
+      </c>
+      <c r="B310" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C310" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="D310" s="65" t="s">
+        <v>586</v>
+      </c>
+      <c r="E310" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="64">
+        <v>73124</v>
+      </c>
+      <c r="B311" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C311" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="D311" s="65"/>
+      <c r="E311" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="64">
+        <v>73152</v>
+      </c>
+      <c r="B312" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C312" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="D312" s="65"/>
+      <c r="E312" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="64">
+        <v>73168</v>
+      </c>
+      <c r="B313" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C313" s="64" t="s">
+        <v>589</v>
+      </c>
+      <c r="D313" s="65" t="s">
+        <v>586</v>
+      </c>
+      <c r="E313" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="64">
+        <v>73236</v>
+      </c>
+      <c r="B314" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C314" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="D314" s="65"/>
+      <c r="E314" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="64">
+        <v>73347</v>
+      </c>
+      <c r="B315" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C315" s="64" t="s">
+        <v>591</v>
+      </c>
+      <c r="D315" s="65"/>
+      <c r="E315" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="64">
+        <v>73408</v>
+      </c>
+      <c r="B316" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C316" s="64" t="s">
+        <v>592</v>
+      </c>
+      <c r="D316" s="65"/>
+      <c r="E316" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="64">
+        <v>73461</v>
+      </c>
+      <c r="B317" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C317" s="64" t="s">
+        <v>593</v>
+      </c>
+      <c r="D317" s="65"/>
+      <c r="E317" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="64">
+        <v>73504</v>
+      </c>
+      <c r="B318" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C318" s="64" t="s">
+        <v>594</v>
+      </c>
+      <c r="D318" s="65"/>
+      <c r="E318" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="64">
+        <v>73555</v>
+      </c>
+      <c r="B319" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C319" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="D319" s="65" t="s">
+        <v>586</v>
+      </c>
+      <c r="E319" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="64">
+        <v>73563</v>
+      </c>
+      <c r="B320" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C320" s="64" t="s">
+        <v>596</v>
+      </c>
+      <c r="D320" s="65"/>
+      <c r="E320" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="64">
+        <v>73616</v>
+      </c>
+      <c r="B321" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C321" s="64" t="s">
+        <v>597</v>
+      </c>
+      <c r="D321" s="65" t="s">
+        <v>586</v>
+      </c>
+      <c r="E321" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="64">
+        <v>73622</v>
+      </c>
+      <c r="B322" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C322" s="64" t="s">
+        <v>598</v>
+      </c>
+      <c r="D322" s="65"/>
+      <c r="E322" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="64">
+        <v>73624</v>
+      </c>
+      <c r="B323" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C323" s="64" t="s">
+        <v>599</v>
+      </c>
+      <c r="D323" s="65"/>
+      <c r="E323" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="64">
+        <v>73675</v>
+      </c>
+      <c r="B324" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C324" s="64" t="s">
+        <v>600</v>
+      </c>
+      <c r="D324" s="65"/>
+      <c r="E324" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="64">
+        <v>73686</v>
+      </c>
+      <c r="B325" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C325" s="64" t="s">
+        <v>601</v>
+      </c>
+      <c r="D325" s="65"/>
+      <c r="E325" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="64">
+        <v>73861</v>
+      </c>
+      <c r="B326" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C326" s="64" t="s">
+        <v>602</v>
+      </c>
+      <c r="D326" s="65"/>
+      <c r="E326" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="64">
+        <v>73870</v>
+      </c>
+      <c r="B327" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C327" s="64" t="s">
+        <v>603</v>
+      </c>
+      <c r="D327" s="65"/>
+      <c r="E327" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="64">
+        <v>73873</v>
+      </c>
+      <c r="B328" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="C328" s="64" t="s">
+        <v>604</v>
+      </c>
+      <c r="D328" s="65"/>
+      <c r="E328" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="64">
+        <v>76041</v>
+      </c>
+      <c r="B329" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C329" s="64" t="s">
+        <v>606</v>
+      </c>
+      <c r="D329" s="65"/>
+      <c r="E329" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="64">
+        <v>76054</v>
+      </c>
+      <c r="B330" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C330" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="D330" s="65"/>
+      <c r="E330" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="64">
+        <v>76100</v>
+      </c>
+      <c r="B331" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C331" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D331" s="65"/>
+      <c r="E331" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="64">
+        <v>76109</v>
+      </c>
+      <c r="B332" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C332" s="64" t="s">
+        <v>607</v>
+      </c>
+      <c r="D332" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="E332" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="64">
+        <v>76122</v>
+      </c>
+      <c r="B333" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C333" s="64" t="s">
+        <v>608</v>
+      </c>
+      <c r="D333" s="65"/>
+      <c r="E333" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="64">
+        <v>76126</v>
+      </c>
+      <c r="B334" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C334" s="64" t="s">
+        <v>609</v>
+      </c>
+      <c r="D334" s="65"/>
+      <c r="E334" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="64">
+        <v>76233</v>
+      </c>
+      <c r="B335" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C335" s="64" t="s">
+        <v>610</v>
+      </c>
+      <c r="D335" s="65"/>
+      <c r="E335" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="64">
+        <v>76243</v>
+      </c>
+      <c r="B336" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C336" s="64" t="s">
+        <v>611</v>
+      </c>
+      <c r="D336" s="65"/>
+      <c r="E336" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="64">
+        <v>76246</v>
+      </c>
+      <c r="B337" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C337" s="64" t="s">
+        <v>612</v>
+      </c>
+      <c r="D337" s="65"/>
+      <c r="E337" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="64">
+        <v>76250</v>
+      </c>
+      <c r="B338" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C338" s="64" t="s">
+        <v>613</v>
+      </c>
+      <c r="D338" s="65"/>
+      <c r="E338" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="64">
+        <v>76275</v>
+      </c>
+      <c r="B339" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C339" s="64" t="s">
+        <v>614</v>
+      </c>
+      <c r="D339" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E339" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="64">
+        <v>76563</v>
+      </c>
+      <c r="B340" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C340" s="64" t="s">
+        <v>615</v>
+      </c>
+      <c r="D340" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E340" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="64">
+        <v>76616</v>
+      </c>
+      <c r="B341" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C341" s="64" t="s">
+        <v>616</v>
+      </c>
+      <c r="D341" s="65"/>
+      <c r="E341" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="64">
+        <v>76622</v>
+      </c>
+      <c r="B342" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C342" s="64" t="s">
+        <v>617</v>
+      </c>
+      <c r="D342" s="65"/>
+      <c r="E342" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="64">
+        <v>76890</v>
+      </c>
+      <c r="B343" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C343" s="64" t="s">
+        <v>618</v>
+      </c>
+      <c r="D343" s="65"/>
+      <c r="E343" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="64">
+        <v>97161</v>
+      </c>
+      <c r="B344" s="64" t="s">
+        <v>619</v>
+      </c>
+      <c r="C344" s="64" t="s">
+        <v>620</v>
+      </c>
+      <c r="D344" s="65"/>
+      <c r="E344" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="64">
+        <v>99773</v>
+      </c>
+      <c r="B345" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="C345" s="64" t="s">
+        <v>622</v>
+      </c>
+      <c r="D345" s="65"/>
+      <c r="E345" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/5.GestionDotaciones/ConsolidadoGestionDotaciones2019.xlsx
+++ b/5.GestionDotaciones/ConsolidadoGestionDotaciones2019.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2FD39B-4530-423C-8387-A0C8B81387AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteGestionDotacionesOtros" sheetId="2" r:id="rId1"/>
@@ -2032,16 +2031,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$$-240A]\ #,##0;\-[$$-240A]\ #,##0"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0.0_-;\-&quot;$&quot;\ * #,##0.0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="[$$-240A]\ #,##0;\-[$$-240A]\ #,##0"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;\ * #,##0.0_-;\-&quot;$&quot;\ * #,##0.0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2133,6 +2132,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2267,11 +2274,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2283,13 +2290,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2320,7 +2327,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2336,7 +2343,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2363,10 +2370,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2387,7 +2394,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2399,7 +2406,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2424,7 +2431,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2439,7 +2446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2449,16 +2456,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2466,10 +2473,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Millares 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Millares 2" xfId="2"/>
     <cellStyle name="Moneda [0]" xfId="3" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2789,15 +2799,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <pane xSplit="3375" ySplit="1425" topLeftCell="G52" activePane="bottomRight"/>
+      <pane xSplit="3375" ySplit="1425" topLeftCell="G52" activePane="bottomLeft"/>
       <selection activeCell="G3" sqref="G3"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4411,7 +4421,7 @@
       <c r="C52" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="D52" s="57" t="s">
+      <c r="D52" s="74" t="s">
         <v>226</v>
       </c>
       <c r="E52" s="57" t="s">
@@ -4560,7 +4570,7 @@
       <c r="L56" s="61"/>
     </row>
   </sheetData>
-  <autoFilter ref="A36:L47" xr:uid="{C52F15DC-E179-4942-A83E-89807467739A}"/>
+  <autoFilter ref="A36:L47"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="93" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4568,7 +4578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ABA7C3-3D80-41DC-A1C6-E110C697B812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10101,7 +10111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/5.GestionDotaciones/ConsolidadoGestionDotaciones2019.xlsx
+++ b/5.GestionDotaciones/ConsolidadoGestionDotaciones2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CAD36E-51FA-4864-A7F4-C9B82CF4429B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteGestionDotacionesOtros" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="COSTOS" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReporteGestionDotacionesOtros!$A$36:$L$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReporteGestionDotacionesOtros!$A$2:$L$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2031,14 +2032,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="[$$-240A]\ #,##0;\-[$$-240A]\ #,##0"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;\ * #,##0.0_-;\-&quot;$&quot;\ * #,##0.0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$$-240A]\ #,##0;\-[$$-240A]\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0.0_-;\-&quot;$&quot;\ * #,##0.0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -2274,9 +2275,9 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2290,13 +2291,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2327,7 +2328,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2343,7 +2344,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2370,10 +2371,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2394,7 +2395,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2406,7 +2407,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2431,7 +2432,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2446,7 +2447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2456,16 +2457,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2479,7 +2480,7 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Millares 2" xfId="2"/>
+    <cellStyle name="Millares 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Moneda [0]" xfId="3" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2799,15 +2800,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <pane xSplit="3375" ySplit="1425" topLeftCell="G52" activePane="bottomLeft"/>
-      <selection activeCell="G3" sqref="G3"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
-      <selection pane="bottomRight" activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2815,13 +2813,13 @@
     <col min="1" max="1" width="5.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="13" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="29" style="7" customWidth="1"/>
+    <col min="6" max="6" width="29" style="7" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="25.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" style="12" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="86.5703125" style="8" customWidth="1"/>
     <col min="12" max="12" width="36.7109375" style="8" customWidth="1"/>
     <col min="13" max="16384" width="11.42578125" style="8"/>
@@ -2881,7 +2879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>13</v>
       </c>
@@ -2915,7 +2913,7 @@
       </c>
       <c r="L3" s="20"/>
     </row>
-    <row r="4" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>15</v>
       </c>
@@ -2947,7 +2945,7 @@
       </c>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="95.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>17</v>
       </c>
@@ -2983,7 +2981,7 @@
       </c>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>19</v>
       </c>
@@ -3017,7 +3015,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>20</v>
       </c>
@@ -3053,7 +3051,7 @@
       </c>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>26</v>
       </c>
@@ -3079,7 +3077,7 @@
       </c>
       <c r="L8" s="35"/>
     </row>
-    <row r="9" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>27</v>
       </c>
@@ -3111,7 +3109,7 @@
       </c>
       <c r="L9" s="35"/>
     </row>
-    <row r="10" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>28</v>
       </c>
@@ -3137,7 +3135,7 @@
       </c>
       <c r="L10" s="35"/>
     </row>
-    <row r="11" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="77.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>29</v>
       </c>
@@ -3171,7 +3169,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>30</v>
       </c>
@@ -3201,7 +3199,7 @@
       </c>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>31</v>
       </c>
@@ -3231,7 +3229,7 @@
       </c>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>42</v>
       </c>
@@ -3265,7 +3263,7 @@
       </c>
       <c r="L14" s="43"/>
     </row>
-    <row r="15" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>43</v>
       </c>
@@ -3299,7 +3297,7 @@
       </c>
       <c r="L15" s="43"/>
     </row>
-    <row r="16" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44</v>
       </c>
@@ -3333,7 +3331,7 @@
       </c>
       <c r="L16" s="43"/>
     </row>
-    <row r="17" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>45</v>
       </c>
@@ -3367,7 +3365,7 @@
       </c>
       <c r="L17" s="43"/>
     </row>
-    <row r="18" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>46</v>
       </c>
@@ -3401,7 +3399,7 @@
       </c>
       <c r="L18" s="43"/>
     </row>
-    <row r="19" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>47</v>
       </c>
@@ -3435,7 +3433,7 @@
       </c>
       <c r="L19" s="43"/>
     </row>
-    <row r="20" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>48</v>
       </c>
@@ -3469,7 +3467,7 @@
       </c>
       <c r="L20" s="43"/>
     </row>
-    <row r="21" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>49</v>
       </c>
@@ -3503,7 +3501,7 @@
       </c>
       <c r="L21" s="43"/>
     </row>
-    <row r="22" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>50</v>
       </c>
@@ -3537,7 +3535,7 @@
       </c>
       <c r="L22" s="43"/>
     </row>
-    <row r="23" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>51</v>
       </c>
@@ -3571,7 +3569,7 @@
       </c>
       <c r="L23" s="43"/>
     </row>
-    <row r="24" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>52</v>
       </c>
@@ -3605,7 +3603,7 @@
       </c>
       <c r="L24" s="43"/>
     </row>
-    <row r="25" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>53</v>
       </c>
@@ -3639,7 +3637,7 @@
       </c>
       <c r="L25" s="43"/>
     </row>
-    <row r="26" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>54</v>
       </c>
@@ -3673,7 +3671,7 @@
       </c>
       <c r="L26" s="43"/>
     </row>
-    <row r="27" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>55</v>
       </c>
@@ -3707,7 +3705,7 @@
       </c>
       <c r="L27" s="43"/>
     </row>
-    <row r="28" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>56</v>
       </c>
@@ -3741,7 +3739,7 @@
       </c>
       <c r="L28" s="43"/>
     </row>
-    <row r="29" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>57</v>
       </c>
@@ -3775,7 +3773,7 @@
       </c>
       <c r="L29" s="43"/>
     </row>
-    <row r="30" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>58</v>
       </c>
@@ -3809,7 +3807,7 @@
       </c>
       <c r="L30" s="43"/>
     </row>
-    <row r="31" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>59</v>
       </c>
@@ -3843,7 +3841,7 @@
       </c>
       <c r="L31" s="43"/>
     </row>
-    <row r="32" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>60</v>
       </c>
@@ -3877,7 +3875,7 @@
       </c>
       <c r="L32" s="43"/>
     </row>
-    <row r="33" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>61</v>
       </c>
@@ -3911,7 +3909,7 @@
       </c>
       <c r="L33" s="43"/>
     </row>
-    <row r="34" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>62</v>
       </c>
@@ -3947,7 +3945,7 @@
       </c>
       <c r="L34" s="47"/>
     </row>
-    <row r="35" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>63</v>
       </c>
@@ -3983,7 +3981,7 @@
       </c>
       <c r="L35" s="47"/>
     </row>
-    <row r="36" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>64</v>
       </c>
@@ -4047,7 +4045,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="49" t="s">
         <v>201</v>
       </c>
@@ -4079,7 +4077,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="49" t="s">
         <v>201</v>
       </c>
@@ -4107,7 +4105,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="49" t="s">
         <v>202</v>
       </c>
@@ -4139,7 +4137,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="49" t="s">
         <v>202</v>
       </c>
@@ -4169,7 +4167,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>18</v>
       </c>
@@ -4202,7 +4200,7 @@
       </c>
       <c r="K42" s="50"/>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>21</v>
       </c>
@@ -4235,7 +4233,7 @@
       </c>
       <c r="K43" s="50"/>
     </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="49"/>
       <c r="C44" s="50" t="s">
         <v>18</v>
@@ -4254,7 +4252,7 @@
       <c r="K44" s="50"/>
       <c r="L44" s="56"/>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="49"/>
       <c r="C45" s="50" t="s">
         <v>66</v>
@@ -4273,7 +4271,7 @@
       <c r="K45" s="50"/>
       <c r="L45" s="56"/>
     </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="49"/>
       <c r="C46" s="50" t="s">
         <v>127</v>
@@ -4292,7 +4290,7 @@
       <c r="K46" s="50"/>
       <c r="L46" s="56"/>
     </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="49"/>
       <c r="C47" s="50" t="s">
         <v>220</v>
@@ -4311,7 +4309,7 @@
       <c r="K47" s="50"/>
       <c r="L47" s="56"/>
     </row>
-    <row r="48" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="62" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="55" t="s">
         <v>223</v>
@@ -4335,7 +4333,7 @@
       </c>
       <c r="L48" s="61"/>
     </row>
-    <row r="49" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="62" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="55" t="s">
         <v>223</v>
@@ -4355,7 +4353,7 @@
       <c r="K49" s="60"/>
       <c r="L49" s="61"/>
     </row>
-    <row r="50" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="62" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="55" t="s">
         <v>223</v>
@@ -4381,7 +4379,7 @@
       <c r="K50" s="60"/>
       <c r="L50" s="61"/>
     </row>
-    <row r="51" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="62" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="55" t="s">
         <v>223</v>
@@ -4413,7 +4411,7 @@
       </c>
       <c r="L51" s="61"/>
     </row>
-    <row r="52" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="62" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="55" t="s">
         <v>223</v>
@@ -4445,7 +4443,7 @@
       </c>
       <c r="L52" s="61"/>
     </row>
-    <row r="53" spans="1:12" s="62" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="62" customFormat="1" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="55" t="s">
         <v>223</v>
@@ -4477,7 +4475,7 @@
       </c>
       <c r="L53" s="61"/>
     </row>
-    <row r="54" spans="1:12" s="62" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="62" customFormat="1" ht="123.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="55" t="s">
         <v>223</v>
@@ -4509,7 +4507,7 @@
       </c>
       <c r="L54" s="61"/>
     </row>
-    <row r="55" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" s="62" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="55" t="s">
         <v>223</v>
@@ -4539,7 +4537,7 @@
       </c>
       <c r="L55" s="61"/>
     </row>
-    <row r="56" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="62" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="55" t="s">
         <v>223</v>
@@ -4570,7 +4568,13 @@
       <c r="L56" s="61"/>
     </row>
   </sheetData>
-  <autoFilter ref="A36:L47"/>
+  <autoFilter ref="A2:L56" xr:uid="{C6D69286-B2F1-4DDC-8B93-AF340AA10072}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Ñae Meche"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="93" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4578,7 +4582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10111,7 +10115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/5.GestionDotaciones/ConsolidadoGestionDotaciones2019.xlsx
+++ b/5.GestionDotaciones/ConsolidadoGestionDotaciones2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CAD36E-51FA-4864-A7F4-C9B82CF4429B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBD0AE7-12B3-4DEE-97BF-9127E8811469}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2805,7 +2805,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="L8" s="35"/>
     </row>
-    <row r="9" spans="1:12" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>27</v>
       </c>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="L36" s="47"/>
     </row>
-    <row r="37" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="49" t="s">
         <v>200</v>
       </c>
@@ -4571,7 +4571,7 @@
   <autoFilter ref="A2:L56" xr:uid="{C6D69286-B2F1-4DDC-8B93-AF340AA10072}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Ñae Meche"/>
+        <filter val="CDI-Chita"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/5.GestionDotaciones/ConsolidadoGestionDotaciones2019.xlsx
+++ b/5.GestionDotaciones/ConsolidadoGestionDotaciones2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/INFINITO/Documents/GitHub/Infraestructura-Dotaciones2019/5.GestionDotaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBD0AE7-12B3-4DEE-97BF-9127E8811469}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DFEFFE-1078-E84B-AF24-D71BB38EC5B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="2360" windowWidth="20500" windowHeight="7480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteGestionDotacionesOtros" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -614,9 +613,6 @@
   </si>
   <si>
     <t>CDI Primeras Huellitas</t>
-  </si>
-  <si>
-    <t>Los Sauces</t>
   </si>
   <si>
     <t xml:space="preserve"> CDI- Los Sauces</t>
@@ -2028,20 +2024,23 @@
     <t>La Regional  ICBF no manifiesta  gestión con Entes territoriales para la adquisición de la Dotación. Desde el Equipo de Dotación  el lunes 14 de enero se envío Listado de mínimos de dotación requeridos y formato de inventario para realizar cruce con elementos disponibles de traslados y definir elementos pendientes de adquisición.
 Ver adjunto: TrazabilidadDotacion_CampoCruzAtlantico.pdf</t>
   </si>
+  <si>
+    <t>Mocoa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$$-240A]\ #,##0;\-[$$-240A]\ #,##0"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0.0_-;\-&quot;$&quot;\ * #,##0.0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="[$$-240A]\ #,##0;\-[$$-240A]\ #,##0"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;\ * #,##0.0_-;\-&quot;$&quot;\ * #,##0.0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2275,9 +2274,9 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2291,13 +2290,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2328,7 +2327,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2344,7 +2343,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2371,10 +2370,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2395,7 +2394,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2407,7 +2406,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2432,7 +2431,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2447,7 +2446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2457,16 +2456,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2801,33 +2800,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="C56" sqref="C3:C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="13" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="29" style="7" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" style="12" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="86.5703125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="5.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="29" style="7" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="41.1640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="86.5" style="8" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="11.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -2841,7 +2839,7 @@
       <c r="K1" s="53"/>
       <c r="L1" s="53"/>
     </row>
-    <row r="2" spans="1:12" s="73" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="73" customFormat="1" ht="42.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2879,7 +2877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="87" customHeight="1">
       <c r="A3" s="11">
         <v>13</v>
       </c>
@@ -2913,7 +2911,7 @@
       </c>
       <c r="L3" s="20"/>
     </row>
-    <row r="4" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="87" customHeight="1">
       <c r="A4" s="11">
         <v>15</v>
       </c>
@@ -2924,7 +2922,7 @@
         <v>79</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>168</v>
@@ -2945,7 +2943,7 @@
       </c>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="1:12" ht="95.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="95.25" customHeight="1">
       <c r="A5" s="11">
         <v>17</v>
       </c>
@@ -2981,7 +2979,7 @@
       </c>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="1:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="48.75" customHeight="1">
       <c r="A6" s="11">
         <v>19</v>
       </c>
@@ -3015,7 +3013,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="48.75" customHeight="1">
       <c r="A7" s="11">
         <v>20</v>
       </c>
@@ -3029,7 +3027,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>22</v>
@@ -3044,14 +3042,14 @@
         <v>123</v>
       </c>
       <c r="J7" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>199</v>
-      </c>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="1:12" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="90" customHeight="1">
       <c r="A8" s="11">
         <v>26</v>
       </c>
@@ -3077,7 +3075,7 @@
       </c>
       <c r="L8" s="35"/>
     </row>
-    <row r="9" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="90" customHeight="1">
       <c r="A9" s="11">
         <v>27</v>
       </c>
@@ -3109,7 +3107,7 @@
       </c>
       <c r="L9" s="35"/>
     </row>
-    <row r="10" spans="1:12" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="90" customHeight="1">
       <c r="A10" s="11">
         <v>28</v>
       </c>
@@ -3135,7 +3133,7 @@
       </c>
       <c r="L10" s="35"/>
     </row>
-    <row r="11" spans="1:12" ht="77.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="77.25" customHeight="1">
       <c r="A11" s="11">
         <v>29</v>
       </c>
@@ -3169,7 +3167,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="129.75" customHeight="1">
       <c r="A12" s="11">
         <v>30</v>
       </c>
@@ -3199,7 +3197,7 @@
       </c>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="48.75" customHeight="1">
       <c r="A13" s="11">
         <v>31</v>
       </c>
@@ -3229,7 +3227,7 @@
       </c>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="79.5" customHeight="1">
       <c r="A14" s="11">
         <v>42</v>
       </c>
@@ -3263,7 +3261,7 @@
       </c>
       <c r="L14" s="43"/>
     </row>
-    <row r="15" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="79.5" customHeight="1">
       <c r="A15" s="11">
         <v>43</v>
       </c>
@@ -3297,7 +3295,7 @@
       </c>
       <c r="L15" s="43"/>
     </row>
-    <row r="16" spans="1:12" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="49.5" customHeight="1">
       <c r="A16" s="11">
         <v>44</v>
       </c>
@@ -3331,7 +3329,7 @@
       </c>
       <c r="L16" s="43"/>
     </row>
-    <row r="17" spans="1:12" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="49.5" customHeight="1">
       <c r="A17" s="11">
         <v>45</v>
       </c>
@@ -3365,7 +3363,7 @@
       </c>
       <c r="L17" s="43"/>
     </row>
-    <row r="18" spans="1:12" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="60.75" customHeight="1">
       <c r="A18" s="11">
         <v>46</v>
       </c>
@@ -3399,7 +3397,7 @@
       </c>
       <c r="L18" s="43"/>
     </row>
-    <row r="19" spans="1:12" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="60.75" customHeight="1">
       <c r="A19" s="11">
         <v>47</v>
       </c>
@@ -3433,7 +3431,7 @@
       </c>
       <c r="L19" s="43"/>
     </row>
-    <row r="20" spans="1:12" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="71.25" customHeight="1">
       <c r="A20" s="11">
         <v>48</v>
       </c>
@@ -3467,7 +3465,7 @@
       </c>
       <c r="L20" s="43"/>
     </row>
-    <row r="21" spans="1:12" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="102" customHeight="1">
       <c r="A21" s="11">
         <v>49</v>
       </c>
@@ -3501,7 +3499,7 @@
       </c>
       <c r="L21" s="43"/>
     </row>
-    <row r="22" spans="1:12" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="71.25" customHeight="1">
       <c r="A22" s="11">
         <v>50</v>
       </c>
@@ -3535,7 +3533,7 @@
       </c>
       <c r="L22" s="43"/>
     </row>
-    <row r="23" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="79.5" customHeight="1">
       <c r="A23" s="11">
         <v>51</v>
       </c>
@@ -3569,7 +3567,7 @@
       </c>
       <c r="L23" s="43"/>
     </row>
-    <row r="24" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="79.5" customHeight="1">
       <c r="A24" s="11">
         <v>52</v>
       </c>
@@ -3603,7 +3601,7 @@
       </c>
       <c r="L24" s="43"/>
     </row>
-    <row r="25" spans="1:12" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="84" customHeight="1">
       <c r="A25" s="11">
         <v>53</v>
       </c>
@@ -3637,7 +3635,7 @@
       </c>
       <c r="L25" s="43"/>
     </row>
-    <row r="26" spans="1:12" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="84" customHeight="1">
       <c r="A26" s="11">
         <v>54</v>
       </c>
@@ -3671,7 +3669,7 @@
       </c>
       <c r="L26" s="43"/>
     </row>
-    <row r="27" spans="1:12" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="84" customHeight="1">
       <c r="A27" s="11">
         <v>55</v>
       </c>
@@ -3705,7 +3703,7 @@
       </c>
       <c r="L27" s="43"/>
     </row>
-    <row r="28" spans="1:12" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="60" customHeight="1">
       <c r="A28" s="11">
         <v>56</v>
       </c>
@@ -3739,7 +3737,7 @@
       </c>
       <c r="L28" s="43"/>
     </row>
-    <row r="29" spans="1:12" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="60" customHeight="1">
       <c r="A29" s="11">
         <v>57</v>
       </c>
@@ -3773,7 +3771,7 @@
       </c>
       <c r="L29" s="43"/>
     </row>
-    <row r="30" spans="1:12" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="60" customHeight="1">
       <c r="A30" s="11">
         <v>58</v>
       </c>
@@ -3807,7 +3805,7 @@
       </c>
       <c r="L30" s="43"/>
     </row>
-    <row r="31" spans="1:12" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="82.5" customHeight="1">
       <c r="A31" s="11">
         <v>59</v>
       </c>
@@ -3841,7 +3839,7 @@
       </c>
       <c r="L31" s="43"/>
     </row>
-    <row r="32" spans="1:12" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="82.5" customHeight="1">
       <c r="A32" s="11">
         <v>60</v>
       </c>
@@ -3875,7 +3873,7 @@
       </c>
       <c r="L32" s="43"/>
     </row>
-    <row r="33" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="79.5" customHeight="1">
       <c r="A33" s="11">
         <v>61</v>
       </c>
@@ -3909,12 +3907,12 @@
       </c>
       <c r="L33" s="43"/>
     </row>
-    <row r="34" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="79.5" customHeight="1">
       <c r="A34" s="11">
         <v>62</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C34" s="45" t="s">
         <v>41</v>
@@ -3938,28 +3936,28 @@
         <v>161</v>
       </c>
       <c r="J34" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K34" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L34" s="47"/>
     </row>
-    <row r="35" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="79.5" customHeight="1">
       <c r="A35" s="11">
         <v>63</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" s="45" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="E35" s="45" t="s">
         <v>182</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>183</v>
       </c>
       <c r="F35" s="44" t="s">
         <v>71</v>
@@ -3968,34 +3966,34 @@
         <v>300</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I35" s="46" t="s">
         <v>161</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K35" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L35" s="47"/>
     </row>
-    <row r="36" spans="1:12" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="79.5" customHeight="1">
       <c r="A36" s="11">
         <v>64</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C36" s="45" t="s">
         <v>124</v>
       </c>
       <c r="D36" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="45" t="s">
         <v>184</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>185</v>
       </c>
       <c r="F36" s="48"/>
       <c r="G36" s="44">
@@ -4006,16 +4004,16 @@
         <v>47</v>
       </c>
       <c r="J36" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="K36" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="K36" s="45" t="s">
-        <v>192</v>
-      </c>
       <c r="L36" s="47"/>
     </row>
-    <row r="37" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="112">
       <c r="B37" s="49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="50" t="s">
         <v>55</v>
@@ -4039,15 +4037,15 @@
         <v>123</v>
       </c>
       <c r="J37" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="K37" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="K37" s="50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:12" ht="256">
       <c r="B38" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="50" t="s">
         <v>53</v>
@@ -4071,24 +4069,24 @@
         <v>123</v>
       </c>
       <c r="J38" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="K38" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="K38" s="50" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:12" ht="176">
       <c r="B39" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C39" s="50" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="50" t="s">
         <v>194</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>195</v>
       </c>
       <c r="F39" s="52"/>
       <c r="G39" s="49">
@@ -4096,18 +4094,18 @@
       </c>
       <c r="H39" s="51"/>
       <c r="I39" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J39" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="K39" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="K39" s="50" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:12" ht="222">
       <c r="B40" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C40" s="50" t="s">
         <v>18</v>
@@ -4128,18 +4126,18 @@
         <v>155</v>
       </c>
       <c r="I40" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="J40" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="J40" s="50" t="s">
-        <v>211</v>
-      </c>
       <c r="K40" s="50" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="143">
       <c r="B41" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C41" s="50" t="s">
         <v>66</v>
@@ -4161,18 +4159,18 @@
         <v>123</v>
       </c>
       <c r="J41" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="K41" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="K41" s="50" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" ht="32">
       <c r="A42" s="7">
         <v>18</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C42" s="50" t="s">
         <v>57</v>
@@ -4200,12 +4198,12 @@
       </c>
       <c r="K42" s="50"/>
     </row>
-    <row r="43" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="32">
       <c r="A43" s="7">
         <v>21</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C43" s="50" t="s">
         <v>68</v>
@@ -4233,7 +4231,7 @@
       </c>
       <c r="K43" s="50"/>
     </row>
-    <row r="44" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="30" customHeight="1">
       <c r="B44" s="49"/>
       <c r="C44" s="50" t="s">
         <v>18</v>
@@ -4242,7 +4240,7 @@
         <v>63</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F44" s="52"/>
       <c r="G44" s="49"/>
@@ -4252,7 +4250,7 @@
       <c r="K44" s="50"/>
       <c r="L44" s="56"/>
     </row>
-    <row r="45" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="30" customHeight="1">
       <c r="B45" s="49"/>
       <c r="C45" s="50" t="s">
         <v>66</v>
@@ -4261,7 +4259,7 @@
         <v>154</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F45" s="52"/>
       <c r="G45" s="49"/>
@@ -4271,16 +4269,16 @@
       <c r="K45" s="50"/>
       <c r="L45" s="56"/>
     </row>
-    <row r="46" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="30" customHeight="1">
       <c r="B46" s="49"/>
       <c r="C46" s="50" t="s">
         <v>127</v>
       </c>
       <c r="D46" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" s="50" t="s">
         <v>218</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>219</v>
       </c>
       <c r="F46" s="52"/>
       <c r="G46" s="49"/>
@@ -4290,16 +4288,16 @@
       <c r="K46" s="50"/>
       <c r="L46" s="56"/>
     </row>
-    <row r="47" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="30" customHeight="1">
       <c r="B47" s="49"/>
       <c r="C47" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="E47" s="50" t="s">
         <v>221</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>222</v>
       </c>
       <c r="F47" s="52"/>
       <c r="G47" s="49"/>
@@ -4309,16 +4307,16 @@
       <c r="K47" s="50"/>
       <c r="L47" s="56"/>
     </row>
-    <row r="48" spans="1:12" s="62" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C48" s="57" t="s">
         <v>124</v>
       </c>
       <c r="D48" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -4329,20 +4327,20 @@
       <c r="I48" s="59"/>
       <c r="J48" s="57"/>
       <c r="K48" s="60" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L48" s="61"/>
     </row>
-    <row r="49" spans="1:12" s="62" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1">
       <c r="A49" s="11"/>
       <c r="B49" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C49" s="57" t="s">
         <v>79</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -4353,10 +4351,10 @@
       <c r="K49" s="60"/>
       <c r="L49" s="61"/>
     </row>
-    <row r="50" spans="1:12" s="62" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1">
       <c r="A50" s="11"/>
       <c r="B50" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C50" s="57" t="s">
         <v>17</v>
@@ -4365,7 +4363,7 @@
         <v>162</v>
       </c>
       <c r="E50" s="57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F50" s="58" t="s">
         <v>37</v>
@@ -4379,22 +4377,22 @@
       <c r="K50" s="60"/>
       <c r="L50" s="61"/>
     </row>
-    <row r="51" spans="1:12" s="62" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1">
       <c r="A51" s="11"/>
       <c r="B51" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C51" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D51" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" s="57" t="s">
+        <v>623</v>
+      </c>
+      <c r="F51" s="58" t="s">
         <v>226</v>
-      </c>
-      <c r="E51" s="57" t="s">
-        <v>624</v>
-      </c>
-      <c r="F51" s="58" t="s">
-        <v>227</v>
       </c>
       <c r="G51" s="55">
         <v>60</v>
@@ -4404,29 +4402,29 @@
         <v>123</v>
       </c>
       <c r="J51" s="57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K51" s="60" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L51" s="61"/>
     </row>
-    <row r="52" spans="1:12" s="62" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1">
       <c r="A52" s="11"/>
       <c r="B52" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C52" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D52" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="E52" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" s="58" t="s">
         <v>226</v>
-      </c>
-      <c r="E52" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="F52" s="58" t="s">
-        <v>227</v>
       </c>
       <c r="G52" s="55">
         <v>60</v>
@@ -4436,29 +4434,29 @@
         <v>123</v>
       </c>
       <c r="J52" s="57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K52" s="60" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L52" s="61"/>
     </row>
-    <row r="53" spans="1:12" s="62" customFormat="1" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="62" customFormat="1" ht="93" customHeight="1">
       <c r="A53" s="11"/>
       <c r="B53" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C53" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D53" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" s="58" t="s">
         <v>226</v>
-      </c>
-      <c r="E53" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="F53" s="58" t="s">
-        <v>227</v>
       </c>
       <c r="G53" s="55">
         <v>60</v>
@@ -4468,29 +4466,29 @@
         <v>123</v>
       </c>
       <c r="J53" s="57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K53" s="60" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L53" s="61"/>
     </row>
-    <row r="54" spans="1:12" s="62" customFormat="1" ht="123.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="62" customFormat="1" ht="123.75" customHeight="1">
       <c r="A54" s="11"/>
       <c r="B54" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C54" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="E54" s="57" t="s">
-        <v>232</v>
-      </c>
       <c r="F54" s="58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G54" s="55">
         <v>60</v>
@@ -4500,26 +4498,26 @@
         <v>123</v>
       </c>
       <c r="J54" s="57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K54" s="57" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L54" s="61"/>
     </row>
-    <row r="55" spans="1:12" s="62" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1">
       <c r="A55" s="11"/>
       <c r="B55" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C55" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="D55" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="D55" s="57" t="s">
+      <c r="E55" s="57" t="s">
         <v>235</v>
-      </c>
-      <c r="E55" s="57" t="s">
-        <v>236</v>
       </c>
       <c r="F55" s="58"/>
       <c r="G55" s="55">
@@ -4530,26 +4528,26 @@
         <v>123</v>
       </c>
       <c r="J55" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="K55" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="K55" s="57" t="s">
-        <v>238</v>
-      </c>
       <c r="L55" s="61"/>
     </row>
-    <row r="56" spans="1:12" s="62" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1">
       <c r="A56" s="11"/>
       <c r="B56" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C56" s="57" t="s">
         <v>64</v>
       </c>
       <c r="D56" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="E56" s="57" t="s">
         <v>239</v>
-      </c>
-      <c r="E56" s="57" t="s">
-        <v>240</v>
       </c>
       <c r="F56" s="58"/>
       <c r="G56" s="55">
@@ -4560,21 +4558,14 @@
         <v>123</v>
       </c>
       <c r="J56" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="K56" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="K56" s="57" t="s">
-        <v>242</v>
-      </c>
       <c r="L56" s="61"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L56" xr:uid="{C6D69286-B2F1-4DDC-8B93-AF340AA10072}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="CDI-Chita"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="93" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4585,5528 +4576,5528 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E345"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="C1" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="D1" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="E1" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="63" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="64">
         <v>5002</v>
       </c>
       <c r="B2" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="64" t="s">
         <v>248</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>249</v>
       </c>
       <c r="D2" s="65"/>
       <c r="E2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="64">
         <v>5004</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D3" s="65"/>
       <c r="E3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="64">
         <v>5021</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" s="65"/>
       <c r="E4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="64">
         <v>5031</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="65" t="s">
-        <v>254</v>
-      </c>
       <c r="E5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="64">
         <v>5038</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D6" s="65"/>
       <c r="E6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="64">
         <v>5040</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="64">
         <v>5045</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C8" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="D8" s="65" t="s">
-        <v>258</v>
-      </c>
       <c r="E8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="64">
         <v>5055</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D9" s="65"/>
       <c r="E9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="64">
         <v>5107</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="64">
         <v>5120</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="64">
         <v>5125</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D12" s="65"/>
       <c r="E12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="64">
         <v>5134</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D13" s="65"/>
       <c r="E13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="64">
         <v>5147</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="64">
         <v>5154</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="64">
         <v>5172</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="64">
         <v>5197</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="64">
         <v>5206</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" s="65"/>
       <c r="E18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="64">
         <v>5234</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="64">
         <v>5250</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="64">
         <v>5284</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D21" s="65"/>
       <c r="E21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="64">
         <v>5313</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D22" s="65"/>
       <c r="E22" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="64">
         <v>5315</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D23" s="65"/>
       <c r="E23" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="64">
         <v>5361</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E24" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="64">
         <v>5467</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D25" s="65"/>
       <c r="E25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="64">
         <v>5475</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="D26" s="65" t="s">
-        <v>277</v>
-      </c>
       <c r="E26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="64">
         <v>5480</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E27" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="64">
         <v>5483</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D28" s="65"/>
       <c r="E28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="64">
         <v>5495</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="64">
         <v>5490</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E30" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="64">
         <v>5579</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D31" s="65"/>
       <c r="E31" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="64">
         <v>5604</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="64">
         <v>5642</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D33" s="65"/>
       <c r="E33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="64">
         <v>5647</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D34" s="65"/>
       <c r="E34" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="68" customFormat="1">
       <c r="A35" s="66">
         <v>5649</v>
       </c>
       <c r="B35" s="66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D35" s="67"/>
       <c r="E35" s="68" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="64">
         <v>5652</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D36" s="65"/>
       <c r="E36" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="64">
         <v>5660</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D37" s="65"/>
       <c r="E37" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="64">
         <v>5665</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D38" s="65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E38" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="64">
         <v>5667</v>
       </c>
       <c r="B39" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D39" s="65"/>
       <c r="E39" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="64">
         <v>5042</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D40" s="65"/>
       <c r="E40" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="64">
         <v>5690</v>
       </c>
       <c r="B41" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D41" s="65"/>
       <c r="E41" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="64">
         <v>5736</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" s="64" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D42" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E42" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="64">
         <v>5756</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C43" s="64" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D43" s="65"/>
       <c r="E43" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="64">
         <v>5790</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C44" s="64" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D44" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E44" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="64">
         <v>5819</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C45" s="64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D45" s="65"/>
       <c r="E45" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="64">
         <v>5837</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C46" s="64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D46" s="65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E46" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="64">
         <v>5842</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D47" s="65"/>
       <c r="E47" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="64">
         <v>5847</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C48" s="64" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D48" s="65"/>
       <c r="E48" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="64">
         <v>5854</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C49" s="64" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D49" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E49" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="64">
         <v>5858</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C50" s="64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D50" s="65"/>
       <c r="E50" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="64">
         <v>5873</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C51" s="64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D51" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E51" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="64">
         <v>5885</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C52" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D52" s="65"/>
       <c r="E52" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="68" customFormat="1">
       <c r="A53" s="66">
         <v>5887</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D53" s="67"/>
       <c r="E53" s="68" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="64">
         <v>5890</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C54" s="64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D54" s="65"/>
       <c r="E54" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="64">
         <v>5893</v>
       </c>
       <c r="B55" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C55" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="D55" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="D55" s="65" t="s">
-        <v>307</v>
-      </c>
       <c r="E55" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="64">
         <v>5895</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C56" s="64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D56" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E56" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="64">
         <v>81001</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C57" s="64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D57" s="65"/>
       <c r="E57" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="64">
         <v>81065</v>
       </c>
       <c r="B58" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="C58" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="E58" t="s">
         <v>309</v>
       </c>
-      <c r="C58" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="D58" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="E58" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="64">
         <v>81220</v>
       </c>
       <c r="B59" s="64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C59" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D59" s="65"/>
       <c r="E59" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="64">
         <v>81300</v>
       </c>
       <c r="B60" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="C60" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="D60" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="E60" t="s">
         <v>309</v>
       </c>
-      <c r="C60" s="64" t="s">
-        <v>313</v>
-      </c>
-      <c r="D60" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="E60" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="64">
         <v>81591</v>
       </c>
       <c r="B61" s="64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C61" s="64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D61" s="65"/>
       <c r="E61" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="64">
         <v>81736</v>
       </c>
       <c r="B62" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="C62" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="D62" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="E62" t="s">
         <v>309</v>
       </c>
-      <c r="C62" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="D62" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="E62" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="64">
         <v>81794</v>
       </c>
       <c r="B63" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="D63" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="E63" t="s">
         <v>309</v>
       </c>
-      <c r="C63" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="D63" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="E63" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="64">
         <v>13042</v>
       </c>
       <c r="B64" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="C64" s="64" t="s">
         <v>317</v>
       </c>
-      <c r="C64" s="64" t="s">
+      <c r="D64" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="E64" t="s">
         <v>318</v>
       </c>
-      <c r="D64" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="E64" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="64">
         <v>13160</v>
       </c>
       <c r="B65" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C65" s="64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D65" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E65" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="64">
         <v>13212</v>
       </c>
       <c r="B66" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C66" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="D66" s="65" t="s">
         <v>321</v>
       </c>
-      <c r="D66" s="65" t="s">
-        <v>322</v>
-      </c>
       <c r="E66" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="64">
         <v>13244</v>
       </c>
       <c r="B67" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C67" s="64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D67" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E67" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="64">
         <v>13248</v>
       </c>
       <c r="B68" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C68" s="64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D68" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E68" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="64">
         <v>13442</v>
       </c>
       <c r="B69" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C69" s="64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D69" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E69" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="64">
         <v>13458</v>
       </c>
       <c r="B70" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C70" s="64" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D70" s="65"/>
       <c r="E70" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="64">
         <v>13473</v>
       </c>
       <c r="B71" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C71" s="64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D71" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E71" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="64">
         <v>13600</v>
       </c>
       <c r="B72" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C72" s="64" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D72" s="65"/>
       <c r="E72" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="64">
         <v>13654</v>
       </c>
       <c r="B73" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C73" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D73" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E73" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="64">
         <v>13657</v>
       </c>
       <c r="B74" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C74" s="64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D74" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E74" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="64">
         <v>13670</v>
       </c>
       <c r="B75" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C75" s="64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D75" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E75" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="64">
         <v>13688</v>
       </c>
       <c r="B76" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C76" s="64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D76" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E76" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="64">
         <v>13744</v>
       </c>
       <c r="B77" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C77" s="64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D77" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E77" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="64">
         <v>13810</v>
       </c>
       <c r="B78" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C78" s="64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D78" s="65"/>
       <c r="E78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="64">
         <v>13894</v>
       </c>
       <c r="B79" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C79" s="64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D79" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E79" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="64">
         <v>15236</v>
       </c>
       <c r="B80" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="C80" s="64" t="s">
         <v>336</v>
-      </c>
-      <c r="C80" s="64" t="s">
-        <v>337</v>
       </c>
       <c r="D80" s="65"/>
       <c r="E80" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="64">
         <v>15377</v>
       </c>
       <c r="B81" s="64" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C81" s="64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D81" s="65"/>
       <c r="E81" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="64">
         <v>15518</v>
       </c>
       <c r="B82" s="64" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C82" s="64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D82" s="65"/>
       <c r="E82" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="64">
         <v>15533</v>
       </c>
       <c r="B83" s="64" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C83" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D83" s="65"/>
       <c r="E83" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="64">
         <v>15550</v>
       </c>
       <c r="B84" s="64" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C84" s="64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D84" s="65"/>
       <c r="E84" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="64">
         <v>17042</v>
       </c>
       <c r="B85" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="C85" s="64" t="s">
         <v>343</v>
-      </c>
-      <c r="C85" s="64" t="s">
-        <v>344</v>
       </c>
       <c r="D85" s="65"/>
       <c r="E85" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="64">
         <v>17088</v>
       </c>
       <c r="B86" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C86" s="64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D86" s="65"/>
       <c r="E86" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="64">
         <v>17446</v>
       </c>
       <c r="B87" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C87" s="64" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D87" s="65"/>
       <c r="E87" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="64">
         <v>17495</v>
       </c>
       <c r="B88" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C88" s="64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D88" s="65"/>
       <c r="E88" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="64">
         <v>17524</v>
       </c>
       <c r="B89" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C89" s="64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D89" s="65"/>
       <c r="E89" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="64">
         <v>17541</v>
       </c>
       <c r="B90" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C90" s="64" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D90" s="65"/>
       <c r="E90" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="64">
         <v>17614</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C91" s="64" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D91" s="65"/>
       <c r="E91" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="64">
         <v>17616</v>
       </c>
       <c r="B92" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C92" s="64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D92" s="65"/>
       <c r="E92" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="64">
         <v>17662</v>
       </c>
       <c r="B93" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C93" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D93" s="65"/>
       <c r="E93" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="64">
         <v>18029</v>
       </c>
       <c r="B94" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="C94" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="C94" s="64" t="s">
+      <c r="D94" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="D94" s="65" t="s">
+      <c r="E94" t="s">
         <v>355</v>
       </c>
-      <c r="E94" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="64">
         <v>18094</v>
       </c>
       <c r="B95" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C95" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D95" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E95" t="s">
         <v>355</v>
       </c>
-      <c r="E95" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="64">
         <v>18150</v>
       </c>
       <c r="B96" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C96" s="64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D96" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E96" t="s">
         <v>355</v>
       </c>
-      <c r="E96" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" s="71" customFormat="1">
       <c r="A97" s="69">
         <v>18205</v>
       </c>
       <c r="B97" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C97" s="69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D97" s="70" t="s">
+        <v>354</v>
+      </c>
+      <c r="E97" s="71" t="s">
         <v>355</v>
       </c>
-      <c r="E97" s="71" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="64">
         <v>18247</v>
       </c>
       <c r="B98" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C98" s="64" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D98" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E98" t="s">
         <v>355</v>
       </c>
-      <c r="E98" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="64">
         <v>18256</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C99" s="64" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D99" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E99" t="s">
         <v>355</v>
       </c>
-      <c r="E99" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="64">
         <v>18001</v>
       </c>
       <c r="B100" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C100" s="64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D100" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E100" t="s">
         <v>355</v>
       </c>
-      <c r="E100" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="64">
         <v>18410</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C101" s="64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D101" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E101" t="s">
         <v>355</v>
       </c>
-      <c r="E101" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="64">
         <v>18460</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C102" s="64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D102" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E102" t="s">
         <v>355</v>
       </c>
-      <c r="E102" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="64">
         <v>18479</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C103" s="64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D103" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E103" t="s">
         <v>355</v>
       </c>
-      <c r="E103" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="64">
         <v>18592</v>
       </c>
       <c r="B104" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C104" s="64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D104" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E104" t="s">
         <v>355</v>
       </c>
-      <c r="E104" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" s="68" customFormat="1">
       <c r="A105" s="66">
         <v>18610</v>
       </c>
       <c r="B105" s="66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C105" s="66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D105" s="67" t="s">
+        <v>354</v>
+      </c>
+      <c r="E105" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="E105" s="68" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="64">
         <v>18753</v>
       </c>
       <c r="B106" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C106" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D106" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E106" t="s">
         <v>355</v>
       </c>
-      <c r="E106" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="64">
         <v>18756</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C107" s="64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D107" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E107" t="s">
         <v>355</v>
       </c>
-      <c r="E107" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="64">
         <v>18785</v>
       </c>
       <c r="B108" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C108" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D108" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E108" t="s">
         <v>355</v>
       </c>
-      <c r="E108" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="64">
         <v>18860</v>
       </c>
       <c r="B109" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C109" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D109" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E109" t="s">
         <v>355</v>
       </c>
-      <c r="E109" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="64">
         <v>85010</v>
       </c>
       <c r="B110" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="C110" s="64" t="s">
         <v>372</v>
-      </c>
-      <c r="C110" s="64" t="s">
-        <v>373</v>
       </c>
       <c r="D110" s="65"/>
       <c r="E110" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="64">
         <v>85015</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C111" s="64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D111" s="65"/>
       <c r="E111" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="64">
         <v>85125</v>
       </c>
       <c r="B112" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C112" s="64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D112" s="65"/>
       <c r="E112" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="64">
         <v>85136</v>
       </c>
       <c r="B113" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C113" s="64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D113" s="65"/>
       <c r="E113" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="64">
         <v>85139</v>
       </c>
       <c r="B114" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C114" s="64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D114" s="65"/>
       <c r="E114" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="64">
         <v>85162</v>
       </c>
       <c r="B115" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C115" s="64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D115" s="65"/>
       <c r="E115" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="64">
         <v>85250</v>
       </c>
       <c r="B116" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C116" s="64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D116" s="65"/>
       <c r="E116" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="64">
         <v>85263</v>
       </c>
       <c r="B117" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C117" s="64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D117" s="65"/>
       <c r="E117" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="64">
         <v>85279</v>
       </c>
       <c r="B118" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C118" s="64" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D118" s="65"/>
       <c r="E118" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="64">
         <v>85300</v>
       </c>
       <c r="B119" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C119" s="64" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D119" s="65"/>
       <c r="E119" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="64">
         <v>85315</v>
       </c>
       <c r="B120" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C120" s="64" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D120" s="65"/>
       <c r="E120" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="64">
         <v>85400</v>
       </c>
       <c r="B121" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C121" s="64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D121" s="65"/>
       <c r="E121" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="64">
         <v>85410</v>
       </c>
       <c r="B122" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C122" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D122" s="65"/>
       <c r="E122" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="64">
         <v>85440</v>
       </c>
       <c r="B123" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C123" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D123" s="65"/>
       <c r="E123" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="64">
         <v>19050</v>
       </c>
       <c r="B124" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C124" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="D124" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C124" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="D124" s="65" t="s">
+      <c r="E124" t="s">
         <v>388</v>
       </c>
-      <c r="E124" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="64">
         <v>19075</v>
       </c>
       <c r="B125" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C125" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="D125" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C125" s="64" t="s">
-        <v>390</v>
-      </c>
-      <c r="D125" s="65" t="s">
+      <c r="E125" t="s">
         <v>388</v>
       </c>
-      <c r="E125" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="64">
         <v>19110</v>
       </c>
       <c r="B126" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C126" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="D126" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C126" s="64" t="s">
-        <v>391</v>
-      </c>
-      <c r="D126" s="65" t="s">
+      <c r="E126" t="s">
         <v>388</v>
       </c>
-      <c r="E126" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="64">
         <v>19130</v>
       </c>
       <c r="B127" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C127" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="D127" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C127" s="64" t="s">
-        <v>392</v>
-      </c>
-      <c r="D127" s="65" t="s">
+      <c r="E127" t="s">
         <v>388</v>
       </c>
-      <c r="E127" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="64">
         <v>19137</v>
       </c>
       <c r="B128" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C128" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="D128" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C128" s="64" t="s">
-        <v>393</v>
-      </c>
-      <c r="D128" s="65" t="s">
+      <c r="E128" t="s">
         <v>388</v>
       </c>
-      <c r="E128" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="64">
         <v>19142</v>
       </c>
       <c r="B129" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C129" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="D129" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C129" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="D129" s="65" t="s">
+      <c r="E129" t="s">
         <v>388</v>
       </c>
-      <c r="E129" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="64">
         <v>19212</v>
       </c>
       <c r="B130" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C130" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="D130" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C130" s="64" t="s">
-        <v>395</v>
-      </c>
-      <c r="D130" s="65" t="s">
+      <c r="E130" t="s">
         <v>388</v>
       </c>
-      <c r="E130" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="64">
         <v>19256</v>
       </c>
       <c r="B131" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C131" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="D131" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C131" s="64" t="s">
-        <v>396</v>
-      </c>
-      <c r="D131" s="65" t="s">
+      <c r="E131" t="s">
         <v>388</v>
       </c>
-      <c r="E131" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="64">
         <v>19290</v>
       </c>
       <c r="B132" s="64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C132" s="64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D132" s="65"/>
       <c r="E132" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="64">
         <v>19318</v>
       </c>
       <c r="B133" s="64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C133" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="D133" s="65" t="s">
         <v>397</v>
       </c>
-      <c r="D133" s="65" t="s">
-        <v>398</v>
-      </c>
       <c r="E133" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="64">
         <v>19364</v>
       </c>
       <c r="B134" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C134" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="D134" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C134" s="64" t="s">
-        <v>399</v>
-      </c>
-      <c r="D134" s="65" t="s">
+      <c r="E134" t="s">
         <v>388</v>
       </c>
-      <c r="E134" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="64">
         <v>19418</v>
       </c>
       <c r="B135" s="64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C135" s="64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D135" s="65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E135" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="64">
         <v>19450</v>
       </c>
       <c r="B136" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C136" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="D136" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C136" s="64" t="s">
-        <v>401</v>
-      </c>
-      <c r="D136" s="65" t="s">
+      <c r="E136" t="s">
         <v>388</v>
       </c>
-      <c r="E136" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="64">
         <v>19455</v>
       </c>
       <c r="B137" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C137" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="D137" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C137" s="64" t="s">
-        <v>402</v>
-      </c>
-      <c r="D137" s="65" t="s">
+      <c r="E137" t="s">
         <v>388</v>
       </c>
-      <c r="E137" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="64">
         <v>19473</v>
       </c>
       <c r="B138" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C138" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="D138" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C138" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="D138" s="65" t="s">
+      <c r="E138" t="s">
         <v>388</v>
       </c>
-      <c r="E138" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="64">
         <v>19532</v>
       </c>
       <c r="B139" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C139" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="D139" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C139" s="64" t="s">
-        <v>403</v>
-      </c>
-      <c r="D139" s="65" t="s">
+      <c r="E139" t="s">
         <v>388</v>
       </c>
-      <c r="E139" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="64">
         <v>19533</v>
       </c>
       <c r="B140" s="64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C140" s="64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D140" s="65"/>
       <c r="E140" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="64">
         <v>19548</v>
       </c>
       <c r="B141" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C141" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="D141" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C141" s="64" t="s">
-        <v>405</v>
-      </c>
-      <c r="D141" s="65" t="s">
+      <c r="E141" t="s">
         <v>388</v>
       </c>
-      <c r="E141" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="64">
         <v>19701</v>
       </c>
       <c r="B142" s="64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C142" s="64" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D142" s="65"/>
       <c r="E142" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="64">
         <v>19698</v>
       </c>
       <c r="B143" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C143" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="D143" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C143" s="64" t="s">
-        <v>407</v>
-      </c>
-      <c r="D143" s="65" t="s">
+      <c r="E143" t="s">
         <v>388</v>
       </c>
-      <c r="E143" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="64">
         <v>19780</v>
       </c>
       <c r="B144" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C144" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="D144" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C144" s="64" t="s">
-        <v>408</v>
-      </c>
-      <c r="D144" s="65" t="s">
+      <c r="E144" t="s">
         <v>388</v>
       </c>
-      <c r="E144" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="64">
         <v>19809</v>
       </c>
       <c r="B145" s="64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C145" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D145" s="65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E145" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="64">
         <v>19821</v>
       </c>
       <c r="B146" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C146" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="D146" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C146" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="D146" s="65" t="s">
+      <c r="E146" t="s">
         <v>388</v>
       </c>
-      <c r="E146" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="64">
         <v>20011</v>
       </c>
       <c r="B147" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="C147" s="64" t="s">
         <v>411</v>
-      </c>
-      <c r="C147" s="64" t="s">
-        <v>412</v>
       </c>
       <c r="D147" s="65"/>
       <c r="E147" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="64">
         <v>20013</v>
       </c>
       <c r="B148" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C148" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="D148" s="65" t="s">
         <v>413</v>
       </c>
-      <c r="D148" s="65" t="s">
-        <v>414</v>
-      </c>
       <c r="E148" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="64">
         <v>20045</v>
       </c>
       <c r="B149" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C149" s="64" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D149" s="65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E149" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="64">
         <v>20060</v>
       </c>
       <c r="B150" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C150" s="64" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D150" s="65"/>
       <c r="E150" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="64">
         <v>20178</v>
       </c>
       <c r="B151" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C151" s="64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D151" s="65"/>
       <c r="E151" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="64">
         <v>20228</v>
       </c>
       <c r="B152" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C152" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D152" s="65"/>
       <c r="E152" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="64">
         <v>20238</v>
       </c>
       <c r="B153" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C153" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D153" s="65"/>
       <c r="E153" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="64">
         <v>20383</v>
       </c>
       <c r="B154" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C154" s="64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D154" s="65"/>
       <c r="E154" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="64">
         <v>20400</v>
       </c>
       <c r="B155" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C155" s="64" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D155" s="65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E155" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="64">
         <v>20621</v>
       </c>
       <c r="B156" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C156" s="64" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D156" s="65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E156" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="64">
         <v>20443</v>
       </c>
       <c r="B157" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C157" s="64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D157" s="65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E157" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="64">
         <v>20517</v>
       </c>
       <c r="B158" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C158" s="64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D158" s="65"/>
       <c r="E158" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="64">
         <v>20550</v>
       </c>
       <c r="B159" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C159" s="64" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D159" s="65"/>
       <c r="E159" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="64">
         <v>20570</v>
       </c>
       <c r="B160" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C160" s="64" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D160" s="65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="64">
         <v>20750</v>
       </c>
       <c r="B161" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C161" s="64" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D161" s="65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" s="68" customFormat="1">
       <c r="A162" s="66">
         <v>27006</v>
       </c>
       <c r="B162" s="66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C162" s="66" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D162" s="67" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E162" s="68" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="64">
         <v>27073</v>
       </c>
       <c r="B163" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C163" s="64" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D163" s="65"/>
       <c r="E163" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="64">
         <v>27077</v>
       </c>
       <c r="B164" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C164" s="64" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D164" s="65"/>
       <c r="E164" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="64">
         <v>27099</v>
       </c>
       <c r="B165" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C165" s="64" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D165" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E165" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="64">
         <v>27150</v>
       </c>
       <c r="B166" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C166" s="64" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D166" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E166" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="71" customFormat="1">
       <c r="A167" s="69">
         <v>27205</v>
       </c>
       <c r="B167" s="69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C167" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D167" s="70" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E167" s="71" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="64">
         <v>27245</v>
       </c>
       <c r="B168" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C168" s="64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D168" s="65"/>
       <c r="E168" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="64">
         <v>27250</v>
       </c>
       <c r="B169" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C169" s="64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D169" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E169" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="64">
         <v>27361</v>
       </c>
       <c r="B170" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C170" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D170" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E170" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="64">
         <v>27425</v>
       </c>
       <c r="B171" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C171" s="64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D171" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E171" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="64">
         <v>27450</v>
       </c>
       <c r="B172" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C172" s="64" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D172" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E172" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="64">
         <v>27491</v>
       </c>
       <c r="B173" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C173" s="64" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D173" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E173" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="64">
         <v>27001</v>
       </c>
       <c r="B174" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C174" s="64" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D174" s="65"/>
       <c r="E174" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="64">
         <v>27615</v>
       </c>
       <c r="B175" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C175" s="64" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D175" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E175" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="64">
         <v>27660</v>
       </c>
       <c r="B176" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C176" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D176" s="65"/>
       <c r="E176" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="64">
         <v>27745</v>
       </c>
       <c r="B177" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C177" s="64" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D177" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E177" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="68" customFormat="1">
       <c r="A178" s="66">
         <v>27787</v>
       </c>
       <c r="B178" s="66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C178" s="66" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D178" s="67"/>
       <c r="E178" s="68" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="64">
         <v>27800</v>
       </c>
       <c r="B179" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C179" s="64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D179" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E179" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="64">
         <v>23466</v>
       </c>
       <c r="B180" s="64" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C180" s="66" t="s">
+        <v>444</v>
+      </c>
+      <c r="D180" s="65" t="s">
         <v>445</v>
       </c>
-      <c r="D180" s="65" t="s">
-        <v>446</v>
-      </c>
       <c r="E180" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="64">
         <v>23580</v>
       </c>
       <c r="B181" s="64" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C181" s="66" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D181" s="65" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E181" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="64">
         <v>23682</v>
       </c>
       <c r="B182" s="64" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C182" s="66" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D182" s="65" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E182" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="64">
         <v>23807</v>
       </c>
       <c r="B183" s="64" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C183" s="64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D183" s="65" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E183" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="64">
         <v>23855</v>
       </c>
       <c r="B184" s="64" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C184" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D184" s="65" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E184" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="64">
         <v>25120</v>
       </c>
       <c r="B185" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="C185" s="64" t="s">
         <v>451</v>
-      </c>
-      <c r="C185" s="64" t="s">
-        <v>452</v>
       </c>
       <c r="D185" s="65"/>
       <c r="E185" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="64">
         <v>25168</v>
       </c>
       <c r="B186" s="64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C186" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D186" s="65"/>
       <c r="E186" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="64">
         <v>25258</v>
       </c>
       <c r="B187" s="64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C187" s="64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D187" s="65"/>
       <c r="E187" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="64">
         <v>25328</v>
       </c>
       <c r="B188" s="64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C188" s="64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D188" s="65"/>
       <c r="E188" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="64">
         <v>25335</v>
       </c>
       <c r="B189" s="64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C189" s="64" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D189" s="65"/>
       <c r="E189" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="64">
         <v>25394</v>
       </c>
       <c r="B190" s="64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C190" s="64" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D190" s="65"/>
       <c r="E190" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" s="64">
         <v>25438</v>
       </c>
       <c r="B191" s="64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C191" s="64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D191" s="65"/>
       <c r="E191" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="64">
         <v>25530</v>
       </c>
       <c r="B192" s="64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C192" s="64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D192" s="65"/>
       <c r="E192" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" s="64">
         <v>25580</v>
       </c>
       <c r="B193" s="64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C193" s="64" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D193" s="65"/>
       <c r="E193" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="64">
         <v>25743</v>
       </c>
       <c r="B194" s="64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C194" s="64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D194" s="65"/>
       <c r="E194" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="64">
         <v>25823</v>
       </c>
       <c r="B195" s="64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C195" s="64" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D195" s="65"/>
       <c r="E195" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" s="68" customFormat="1">
       <c r="A196" s="66">
         <v>25878</v>
       </c>
       <c r="B196" s="66" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C196" s="66" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D196" s="67"/>
       <c r="E196" s="68" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="64">
         <v>95015</v>
       </c>
       <c r="B197" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="C197" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="C197" s="64" t="s">
+      <c r="D197" s="65" t="s">
         <v>465</v>
       </c>
-      <c r="D197" s="65" t="s">
-        <v>466</v>
-      </c>
       <c r="E197" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="64">
         <v>95025</v>
       </c>
       <c r="B198" s="64" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C198" s="64" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D198" s="65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E198" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="64">
         <v>95200</v>
       </c>
       <c r="B199" s="64" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C199" s="64" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D199" s="65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E199" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="64">
         <v>95001</v>
       </c>
       <c r="B200" s="64" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C200" s="64" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D200" s="65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E200" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="64">
         <v>41006</v>
       </c>
       <c r="B201" s="64" t="s">
+        <v>469</v>
+      </c>
+      <c r="C201" s="64" t="s">
         <v>470</v>
-      </c>
-      <c r="C201" s="64" t="s">
-        <v>471</v>
       </c>
       <c r="D201" s="65"/>
       <c r="E201" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" s="64">
         <v>41020</v>
       </c>
       <c r="B202" s="64" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C202" s="64" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D202" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E202" t="s">
         <v>355</v>
       </c>
-      <c r="E202" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:5" s="68" customFormat="1">
       <c r="A203" s="66">
         <v>41078</v>
       </c>
       <c r="B203" s="66" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C203" s="66" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D203" s="67"/>
       <c r="E203" s="68" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="64">
         <v>41206</v>
       </c>
       <c r="B204" s="64" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C204" s="64" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D204" s="65"/>
       <c r="E204" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="64">
         <v>41349</v>
       </c>
       <c r="B205" s="64" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C205" s="64" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D205" s="65"/>
       <c r="E205" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" s="64">
         <v>41359</v>
       </c>
       <c r="B206" s="64" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C206" s="64" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D206" s="65"/>
       <c r="E206" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" s="64">
         <v>41799</v>
       </c>
       <c r="B207" s="64" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C207" s="64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D207" s="65"/>
       <c r="E207" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="64">
         <v>44090</v>
       </c>
       <c r="B208" s="64" t="s">
+        <v>477</v>
+      </c>
+      <c r="C208" s="64" t="s">
         <v>478</v>
       </c>
-      <c r="C208" s="64" t="s">
-        <v>479</v>
-      </c>
       <c r="D208" s="65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E208" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="64">
         <v>44110</v>
       </c>
       <c r="B209" s="64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C209" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D209" s="65"/>
       <c r="E209" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" s="64">
         <v>44279</v>
       </c>
       <c r="B210" s="64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C210" s="64" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D210" s="65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E210" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" s="64">
         <v>44420</v>
       </c>
       <c r="B211" s="64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C211" s="64" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D211" s="65"/>
       <c r="E211" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" s="64">
         <v>44430</v>
       </c>
       <c r="B212" s="64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C212" s="64" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D212" s="65"/>
       <c r="E212" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" s="64">
         <v>44001</v>
       </c>
       <c r="B213" s="64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C213" s="64" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D213" s="65"/>
       <c r="E213" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" s="64">
         <v>44650</v>
       </c>
       <c r="B214" s="64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C214" s="64" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D214" s="65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E214" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" s="64">
         <v>44855</v>
       </c>
       <c r="B215" s="64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C215" s="64" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D215" s="65"/>
       <c r="E215" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="64">
         <v>44874</v>
       </c>
       <c r="B216" s="64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C216" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D216" s="65"/>
       <c r="E216" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="64">
         <v>47053</v>
       </c>
       <c r="B217" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="C217" s="64" t="s">
         <v>487</v>
       </c>
-      <c r="C217" s="64" t="s">
-        <v>488</v>
-      </c>
       <c r="D217" s="65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E217" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="64">
         <v>47288</v>
       </c>
       <c r="B218" s="64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C218" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D218" s="65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E218" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" s="64">
         <v>50110</v>
       </c>
       <c r="B219" s="64" t="s">
+        <v>489</v>
+      </c>
+      <c r="C219" s="64" t="s">
         <v>490</v>
-      </c>
-      <c r="C219" s="64" t="s">
-        <v>491</v>
       </c>
       <c r="D219" s="65"/>
       <c r="E219" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" s="64">
         <v>50223</v>
       </c>
       <c r="B220" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C220" s="64" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D220" s="65"/>
       <c r="E220" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" s="64">
         <v>50245</v>
       </c>
       <c r="B221" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C221" s="64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D221" s="65"/>
       <c r="E221" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" s="64">
         <v>50251</v>
       </c>
       <c r="B222" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C222" s="64" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D222" s="65"/>
       <c r="E222" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" s="64">
         <v>50270</v>
       </c>
       <c r="B223" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C223" s="64" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D223" s="65"/>
       <c r="E223" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" s="64">
         <v>50287</v>
       </c>
       <c r="B224" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C224" s="64" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D224" s="65"/>
       <c r="E224" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" s="68" customFormat="1">
       <c r="A225" s="66">
         <v>50313</v>
       </c>
       <c r="B225" s="66" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C225" s="66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D225" s="67"/>
       <c r="E225" s="68" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" s="64">
         <v>50350</v>
       </c>
       <c r="B226" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C226" s="64" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D226" s="65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E226" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" s="68" customFormat="1">
       <c r="A227" s="66">
         <v>50400</v>
       </c>
       <c r="B227" s="66" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C227" s="66" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D227" s="67"/>
       <c r="E227" s="68" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="64">
         <v>50325</v>
       </c>
       <c r="B228" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C228" s="64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D228" s="65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E228" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" s="64">
         <v>50330</v>
       </c>
       <c r="B229" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C229" s="64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D229" s="65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E229" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" s="64">
         <v>50450</v>
       </c>
       <c r="B230" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C230" s="64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D230" s="65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E230" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" s="64">
         <v>50568</v>
       </c>
       <c r="B231" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C231" s="64" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D231" s="65"/>
       <c r="E231" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="64">
         <v>50577</v>
       </c>
       <c r="B232" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C232" s="64" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D232" s="65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E232" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" s="64">
         <v>50590</v>
       </c>
       <c r="B233" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C233" s="64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D233" s="65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E233" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" s="64">
         <v>50683</v>
       </c>
       <c r="B234" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C234" s="64" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D234" s="65"/>
       <c r="E234" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" s="64">
         <v>50686</v>
       </c>
       <c r="B235" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C235" s="64" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D235" s="65"/>
       <c r="E235" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" s="64">
         <v>50689</v>
       </c>
       <c r="B236" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C236" s="64" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D236" s="65"/>
       <c r="E236" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="64">
         <v>50370</v>
       </c>
       <c r="B237" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C237" s="64" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D237" s="65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E237" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" s="64">
         <v>50711</v>
       </c>
       <c r="B238" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C238" s="64" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D238" s="65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E238" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" s="64">
         <v>52079</v>
       </c>
       <c r="B239" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C239" s="64" t="s">
+        <v>508</v>
+      </c>
+      <c r="D239" s="65" t="s">
         <v>509</v>
       </c>
-      <c r="D239" s="65" t="s">
-        <v>510</v>
-      </c>
       <c r="E239" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="64">
         <v>52233</v>
       </c>
       <c r="B240" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C240" s="64" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D240" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="E240" t="s">
         <v>388</v>
       </c>
-      <c r="E240" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" s="64">
         <v>52250</v>
       </c>
       <c r="B241" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C241" s="64" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D241" s="65" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E241" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" s="64">
         <v>52254</v>
       </c>
       <c r="B242" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C242" s="64" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D242" s="65"/>
       <c r="E242" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" s="64">
         <v>52256</v>
       </c>
       <c r="B243" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C243" s="64" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D243" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="E243" t="s">
         <v>388</v>
       </c>
-      <c r="E243" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244" s="64">
         <v>52520</v>
       </c>
       <c r="B244" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C244" s="64" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D244" s="65" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E244" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" s="64">
         <v>52356</v>
       </c>
       <c r="B245" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C245" s="64" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D245" s="65"/>
       <c r="E245" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246" s="64">
         <v>52385</v>
       </c>
       <c r="B246" s="72" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C246" s="72" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D246" s="65"/>
       <c r="E246" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" s="64">
         <v>52390</v>
       </c>
       <c r="B247" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C247" s="64" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D247" s="65" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E247" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248" s="64">
         <v>52405</v>
       </c>
       <c r="B248" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C248" s="64" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D248" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="E248" t="s">
         <v>388</v>
       </c>
-      <c r="E248" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" s="64">
         <v>52411</v>
       </c>
       <c r="B249" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C249" s="64" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D249" s="65"/>
       <c r="E249" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" s="64">
         <v>52418</v>
       </c>
       <c r="B250" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C250" s="64" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D250" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="E250" t="s">
         <v>388</v>
       </c>
-      <c r="E250" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251" s="64">
         <v>52427</v>
       </c>
       <c r="B251" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C251" s="64" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D251" s="65" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E251" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" s="64">
         <v>52435</v>
       </c>
       <c r="B252" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C252" s="64" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D252" s="65"/>
       <c r="E252" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" s="64">
         <v>52473</v>
       </c>
       <c r="B253" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C253" s="64" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D253" s="65" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E253" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254" s="64">
         <v>52490</v>
       </c>
       <c r="B254" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C254" s="64" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D254" s="65" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E254" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255" s="64">
         <v>52540</v>
       </c>
       <c r="B255" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C255" s="64" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D255" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="E255" t="s">
         <v>388</v>
       </c>
-      <c r="E255" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" s="64">
         <v>52573</v>
       </c>
       <c r="B256" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C256" s="64" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D256" s="65"/>
       <c r="E256" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" s="64">
         <v>52612</v>
       </c>
       <c r="B257" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C257" s="64" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D257" s="65" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E257" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" s="64">
         <v>52621</v>
       </c>
       <c r="B258" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C258" s="64" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D258" s="65" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E258" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" s="64">
         <v>52678</v>
       </c>
       <c r="B259" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C259" s="64" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D259" s="65"/>
       <c r="E259" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" s="64">
         <v>52835</v>
       </c>
       <c r="B260" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C260" s="64" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D260" s="65" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E260" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" s="64">
         <v>52696</v>
       </c>
       <c r="B261" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C261" s="64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D261" s="65" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E261" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
       <c r="A262" s="64">
         <v>54109</v>
       </c>
       <c r="B262" s="64" t="s">
+        <v>532</v>
+      </c>
+      <c r="C262" s="64" t="s">
         <v>533</v>
-      </c>
-      <c r="C262" s="64" t="s">
-        <v>534</v>
       </c>
       <c r="D262" s="65"/>
       <c r="E262" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263" s="64">
         <v>54206</v>
       </c>
       <c r="B263" s="64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C263" s="64" t="s">
+        <v>534</v>
+      </c>
+      <c r="D263" s="65" t="s">
         <v>535</v>
       </c>
-      <c r="D263" s="65" t="s">
-        <v>536</v>
-      </c>
       <c r="E263" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" s="64">
         <v>54245</v>
       </c>
       <c r="B264" s="64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C264" s="64" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D264" s="65" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E264" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265" s="64">
         <v>54250</v>
       </c>
       <c r="B265" s="64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C265" s="64" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D265" s="65" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E265" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266" s="64">
         <v>54261</v>
       </c>
       <c r="B266" s="64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C266" s="64" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D266" s="65"/>
       <c r="E266" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267" s="64">
         <v>54344</v>
       </c>
       <c r="B267" s="64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C267" s="64" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D267" s="65" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E267" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
       <c r="A268" s="64">
         <v>54398</v>
       </c>
       <c r="B268" s="64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C268" s="64" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D268" s="65"/>
       <c r="E268" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
       <c r="A269" s="64">
         <v>54670</v>
       </c>
       <c r="B269" s="64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C269" s="64" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D269" s="65" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E269" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
       <c r="A270" s="64">
         <v>54680</v>
       </c>
       <c r="B270" s="64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C270" s="64" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D270" s="65"/>
       <c r="E270" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" s="64">
         <v>54720</v>
       </c>
       <c r="B271" s="64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C271" s="64" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D271" s="65" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E271" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" s="64">
         <v>54800</v>
       </c>
       <c r="B272" s="64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C272" s="64" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D272" s="65" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E272" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
       <c r="A273" s="64">
         <v>54810</v>
       </c>
       <c r="B273" s="64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C273" s="64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D273" s="65" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E273" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" s="64">
         <v>86001</v>
       </c>
       <c r="B274" s="64" t="s">
+        <v>546</v>
+      </c>
+      <c r="C274" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="C274" s="64" t="s">
-        <v>548</v>
-      </c>
       <c r="D274" s="65" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E274" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" s="64">
         <v>86320</v>
       </c>
       <c r="B275" s="64" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C275" s="64" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D275" s="65" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E275" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" s="68" customFormat="1">
       <c r="A276" s="66">
         <v>86568</v>
       </c>
       <c r="B276" s="66" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C276" s="66" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D276" s="67" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E276" s="68" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
       <c r="A277" s="64">
         <v>86569</v>
       </c>
       <c r="B277" s="64" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C277" s="64" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D277" s="65" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E277" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278" s="64">
         <v>86571</v>
       </c>
       <c r="B278" s="64" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C278" s="64" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D278" s="65" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E278" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
       <c r="A279" s="64">
         <v>86573</v>
       </c>
       <c r="B279" s="64" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C279" s="64" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D279" s="65" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E279" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
       <c r="A280" s="64">
         <v>86757</v>
       </c>
       <c r="B280" s="64" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C280" s="64" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D280" s="65" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E280" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
       <c r="A281" s="64">
         <v>86865</v>
       </c>
       <c r="B281" s="64" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C281" s="64" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D281" s="65" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E281" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" s="64">
         <v>86885</v>
       </c>
       <c r="B282" s="64" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C282" s="64" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D282" s="65" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E282" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
       <c r="A283" s="64">
         <v>63302</v>
       </c>
       <c r="B283" s="64" t="s">
+        <v>556</v>
+      </c>
+      <c r="C283" s="64" t="s">
         <v>557</v>
-      </c>
-      <c r="C283" s="64" t="s">
-        <v>558</v>
       </c>
       <c r="D283" s="65"/>
       <c r="E283" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
       <c r="A284" s="64">
         <v>63548</v>
       </c>
       <c r="B284" s="64" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C284" s="64" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D284" s="65"/>
       <c r="E284" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
       <c r="A285" s="64">
         <v>63690</v>
       </c>
       <c r="B285" s="64" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C285" s="64" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D285" s="65"/>
       <c r="E285" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
       <c r="A286" s="64">
         <v>66075</v>
       </c>
       <c r="B286" s="64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C286" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D286" s="65"/>
       <c r="E286" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
       <c r="A287" s="64">
         <v>66456</v>
       </c>
       <c r="B287" s="64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C287" s="64" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D287" s="65"/>
       <c r="E287" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
       <c r="A288" s="64">
         <v>66572</v>
       </c>
       <c r="B288" s="64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C288" s="64" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D288" s="65"/>
       <c r="E288" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
       <c r="A289" s="64">
         <v>66594</v>
       </c>
       <c r="B289" s="64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C289" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D289" s="65"/>
       <c r="E289" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290" s="64">
         <v>68101</v>
       </c>
       <c r="B290" s="64" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C290" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D290" s="65"/>
       <c r="E290" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291" s="64">
         <v>68169</v>
       </c>
       <c r="B291" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="C291" s="64" t="s">
         <v>564</v>
-      </c>
-      <c r="C291" s="64" t="s">
-        <v>565</v>
       </c>
       <c r="D291" s="65"/>
       <c r="E291" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" s="64">
         <v>68255</v>
       </c>
       <c r="B292" s="64" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C292" s="64" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D292" s="65"/>
       <c r="E292" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" s="64">
         <v>68377</v>
       </c>
       <c r="B293" s="64" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C293" s="64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D293" s="65"/>
       <c r="E293" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" s="64">
         <v>68385</v>
       </c>
       <c r="B294" s="64" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C294" s="64" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D294" s="65"/>
       <c r="E294" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" s="64">
         <v>68444</v>
       </c>
       <c r="B295" s="64" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C295" s="64" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D295" s="65"/>
       <c r="E295" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" s="64">
         <v>68615</v>
       </c>
       <c r="B296" s="64" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C296" s="64" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D296" s="65"/>
       <c r="E296" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" s="64">
         <v>68655</v>
       </c>
       <c r="B297" s="64" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C297" s="64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D297" s="65"/>
       <c r="E297" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298" s="64">
         <v>68773</v>
       </c>
       <c r="B298" s="64" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C298" s="64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D298" s="65"/>
       <c r="E298" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299" s="64">
         <v>68780</v>
       </c>
       <c r="B299" s="64" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C299" s="64" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D299" s="65"/>
       <c r="E299" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" s="64">
         <v>70230</v>
       </c>
       <c r="B300" s="64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C300" s="64" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D300" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E300" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" s="64">
         <v>70204</v>
       </c>
       <c r="B301" s="64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C301" s="64" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D301" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E301" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302" s="64">
         <v>70418</v>
       </c>
       <c r="B302" s="64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C302" s="64" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D302" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E302" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303" s="64">
         <v>70473</v>
       </c>
       <c r="B303" s="64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C303" s="64" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D303" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E303" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" s="64">
         <v>70508</v>
       </c>
       <c r="B304" s="64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C304" s="64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D304" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E304" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305" s="64">
         <v>70523</v>
       </c>
       <c r="B305" s="64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C305" s="64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D305" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E305" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306" s="64">
         <v>70713</v>
       </c>
       <c r="B306" s="64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C306" s="64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D306" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E306" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" s="64">
         <v>70823</v>
       </c>
       <c r="B307" s="64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C307" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D307" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E307" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308" s="64">
         <v>73026</v>
       </c>
       <c r="B308" s="64" t="s">
+        <v>581</v>
+      </c>
+      <c r="C308" s="64" t="s">
         <v>582</v>
-      </c>
-      <c r="C308" s="64" t="s">
-        <v>583</v>
       </c>
       <c r="D308" s="65"/>
       <c r="E308" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309" s="64">
         <v>73043</v>
       </c>
       <c r="B309" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C309" s="64" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D309" s="65"/>
       <c r="E309" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
       <c r="A310" s="64">
         <v>73067</v>
       </c>
       <c r="B310" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C310" s="64" t="s">
+        <v>584</v>
+      </c>
+      <c r="D310" s="65" t="s">
         <v>585</v>
       </c>
-      <c r="D310" s="65" t="s">
-        <v>586</v>
-      </c>
       <c r="E310" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
       <c r="A311" s="64">
         <v>73124</v>
       </c>
       <c r="B311" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C311" s="64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D311" s="65"/>
       <c r="E311" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
       <c r="A312" s="64">
         <v>73152</v>
       </c>
       <c r="B312" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C312" s="64" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D312" s="65"/>
       <c r="E312" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
       <c r="A313" s="64">
         <v>73168</v>
       </c>
       <c r="B313" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C313" s="64" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D313" s="65" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E313" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
       <c r="A314" s="64">
         <v>73236</v>
       </c>
       <c r="B314" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C314" s="64" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D314" s="65"/>
       <c r="E314" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
       <c r="A315" s="64">
         <v>73347</v>
       </c>
       <c r="B315" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C315" s="64" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D315" s="65"/>
       <c r="E315" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
       <c r="A316" s="64">
         <v>73408</v>
       </c>
       <c r="B316" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C316" s="64" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D316" s="65"/>
       <c r="E316" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
       <c r="A317" s="64">
         <v>73461</v>
       </c>
       <c r="B317" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C317" s="64" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D317" s="65"/>
       <c r="E317" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
       <c r="A318" s="64">
         <v>73504</v>
       </c>
       <c r="B318" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C318" s="64" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D318" s="65"/>
       <c r="E318" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
       <c r="A319" s="64">
         <v>73555</v>
       </c>
       <c r="B319" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C319" s="64" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D319" s="65" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E319" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
       <c r="A320" s="64">
         <v>73563</v>
       </c>
       <c r="B320" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C320" s="64" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D320" s="65"/>
       <c r="E320" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
       <c r="A321" s="64">
         <v>73616</v>
       </c>
       <c r="B321" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C321" s="64" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D321" s="65" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E321" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
       <c r="A322" s="64">
         <v>73622</v>
       </c>
       <c r="B322" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C322" s="64" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D322" s="65"/>
       <c r="E322" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
       <c r="A323" s="64">
         <v>73624</v>
       </c>
       <c r="B323" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C323" s="64" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D323" s="65"/>
       <c r="E323" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
       <c r="A324" s="64">
         <v>73675</v>
       </c>
       <c r="B324" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C324" s="64" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D324" s="65"/>
       <c r="E324" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325" s="64">
         <v>73686</v>
       </c>
       <c r="B325" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C325" s="64" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D325" s="65"/>
       <c r="E325" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
       <c r="A326" s="64">
         <v>73861</v>
       </c>
       <c r="B326" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C326" s="64" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D326" s="65"/>
       <c r="E326" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
       <c r="A327" s="64">
         <v>73870</v>
       </c>
       <c r="B327" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C327" s="64" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D327" s="65"/>
       <c r="E327" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
       <c r="A328" s="64">
         <v>73873</v>
       </c>
       <c r="B328" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C328" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D328" s="65"/>
       <c r="E328" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
       <c r="A329" s="64">
         <v>76041</v>
       </c>
       <c r="B329" s="64" t="s">
+        <v>604</v>
+      </c>
+      <c r="C329" s="64" t="s">
         <v>605</v>
-      </c>
-      <c r="C329" s="64" t="s">
-        <v>606</v>
       </c>
       <c r="D329" s="65"/>
       <c r="E329" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
       <c r="A330" s="64">
         <v>76054</v>
       </c>
       <c r="B330" s="64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C330" s="64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D330" s="65"/>
       <c r="E330" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
       <c r="A331" s="64">
         <v>76100</v>
       </c>
       <c r="B331" s="64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C331" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D331" s="65"/>
       <c r="E331" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
       <c r="A332" s="64">
         <v>76109</v>
       </c>
       <c r="B332" s="64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C332" s="64" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D332" s="65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E332" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
       <c r="A333" s="64">
         <v>76122</v>
       </c>
       <c r="B333" s="64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C333" s="64" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D333" s="65"/>
       <c r="E333" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
       <c r="A334" s="64">
         <v>76126</v>
       </c>
       <c r="B334" s="64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C334" s="64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D334" s="65"/>
       <c r="E334" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
       <c r="A335" s="64">
         <v>76233</v>
       </c>
       <c r="B335" s="64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C335" s="64" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D335" s="65"/>
       <c r="E335" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
       <c r="A336" s="64">
         <v>76243</v>
       </c>
       <c r="B336" s="64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C336" s="64" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D336" s="65"/>
       <c r="E336" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" s="64">
         <v>76246</v>
       </c>
       <c r="B337" s="64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C337" s="64" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D337" s="65"/>
       <c r="E337" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" s="64">
         <v>76250</v>
       </c>
       <c r="B338" s="64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C338" s="64" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D338" s="65"/>
       <c r="E338" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
       <c r="A339" s="64">
         <v>76275</v>
       </c>
       <c r="B339" s="64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C339" s="64" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D339" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="E339" t="s">
         <v>388</v>
       </c>
-      <c r="E339" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:5">
       <c r="A340" s="64">
         <v>76563</v>
       </c>
       <c r="B340" s="64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C340" s="64" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D340" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="E340" t="s">
         <v>388</v>
       </c>
-      <c r="E340" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:5">
       <c r="A341" s="64">
         <v>76616</v>
       </c>
       <c r="B341" s="64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C341" s="64" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D341" s="65"/>
       <c r="E341" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342" s="64">
         <v>76622</v>
       </c>
       <c r="B342" s="64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C342" s="64" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D342" s="65"/>
       <c r="E342" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343" s="64">
         <v>76890</v>
       </c>
       <c r="B343" s="64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C343" s="64" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D343" s="65"/>
       <c r="E343" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344" s="64">
         <v>97161</v>
       </c>
       <c r="B344" s="64" t="s">
+        <v>618</v>
+      </c>
+      <c r="C344" s="64" t="s">
         <v>619</v>
-      </c>
-      <c r="C344" s="64" t="s">
-        <v>620</v>
       </c>
       <c r="D344" s="65"/>
       <c r="E344" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
       <c r="A345" s="64">
         <v>99773</v>
       </c>
       <c r="B345" s="64" t="s">
+        <v>620</v>
+      </c>
+      <c r="C345" s="64" t="s">
         <v>621</v>
-      </c>
-      <c r="C345" s="64" t="s">
-        <v>622</v>
       </c>
       <c r="D345" s="65"/>
       <c r="E345" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -10122,16 +10113,16 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10151,7 +10142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10172,7 +10163,7 @@
         <v>1301396</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -10193,7 +10184,7 @@
         <v>1758307</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -10214,7 +10205,7 @@
         <v>1640969</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10235,7 +10226,7 @@
         <v>1278102</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>

--- a/5.GestionDotaciones/ConsolidadoGestionDotaciones2019.xlsx
+++ b/5.GestionDotaciones/ConsolidadoGestionDotaciones2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/INFINITO/Documents/GitHub/Infraestructura-Dotaciones2019/5.GestionDotaciones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DFEFFE-1078-E84B-AF24-D71BB38EC5B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3738D544-CBC4-4515-9FD7-F646C843C890}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="2360" windowWidth="20500" windowHeight="7480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteGestionDotacionesOtros" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -577,30 +578,6 @@
   </si>
   <si>
     <t>Trazabilidad-GestionDotacionRegalias_BPIN 2015000020031Bolivar</t>
-  </si>
-  <si>
-    <t>1.    Altos del Rosario
-2.    Barranco de Loba
-3.    El Peñón
-4.    Hatillo de Loba
-5.    Arjona
-6.    Arroyo Hondo
-7.    Cantagallo
-8.    Morales
-9.    Norosí
-10.    Regidor
-11.    Rio Viejo
-12.    San Pablo
-13.    Santa Rosa del Sur
-14.    Simití
-15.    Córdoba
-16.    El Carmen de Bolívar
-17.    San Juan Nepomuceno
-18.    Zambrano
-19.    Magangué
-20.    San Estanislao de Kostka
-21.    Santa Rosa
-22.    Villanueva</t>
   </si>
   <si>
     <t>Oficio Concepto Técnico Favorable: 
@@ -2027,20 +2004,67 @@
   <si>
     <t>Mocoa</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.    Altos del Rosario
+2.    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Barranco de Loba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.    El Peñón
+4.    Hatillo de Loba
+5.    Arjona
+6.    Arroyo Hondo
+7.    Cantagallo
+8.    Morales
+9.    Norosí
+10.    Regidor
+11.    Rio Viejo
+12.    San Pablo
+13.    Santa Rosa del Sur
+14.    Simití
+15.    Córdoba
+16.    El Carmen de Bolívar
+17.    San Juan Nepomuceno
+18.    Zambrano
+19.    Magangué
+20.    San Estanislao de Kostka
+21.    Santa Rosa
+22.    Villanueva</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="[$$-240A]\ #,##0;\-[$$-240A]\ #,##0"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;\ * #,##0.0_-;\-&quot;$&quot;\ * #,##0.0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$$-240A]\ #,##0;\-[$$-240A]\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0.0_-;\-&quot;$&quot;\ * #,##0.0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2274,9 +2298,9 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2290,13 +2314,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2327,7 +2351,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2343,7 +2367,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2370,10 +2394,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2394,7 +2418,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2406,7 +2430,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2431,7 +2455,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2446,7 +2470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2456,16 +2480,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2802,30 +2826,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="C56" sqref="C3:C56"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="29" style="7" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="35.6640625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="41.1640625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="86.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="36.6640625" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="11.5" style="8"/>
+    <col min="7" max="7" width="25.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="86.42578125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1">
+    <row r="1" spans="1:12" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -2839,7 +2863,7 @@
       <c r="K1" s="53"/>
       <c r="L1" s="53"/>
     </row>
-    <row r="2" spans="1:12" s="73" customFormat="1" ht="42.75" customHeight="1">
+    <row r="2" spans="1:12" s="73" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2877,7 +2901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="87" customHeight="1">
+    <row r="3" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>13</v>
       </c>
@@ -2911,7 +2935,7 @@
       </c>
       <c r="L3" s="20"/>
     </row>
-    <row r="4" spans="1:12" ht="87" customHeight="1">
+    <row r="4" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>15</v>
       </c>
@@ -2922,7 +2946,7 @@
         <v>79</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>168</v>
@@ -2943,7 +2967,7 @@
       </c>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="1:12" ht="95.25" customHeight="1">
+    <row r="5" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>17</v>
       </c>
@@ -2979,7 +3003,7 @@
       </c>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="1:12" ht="48.75" customHeight="1">
+    <row r="6" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>19</v>
       </c>
@@ -3013,7 +3037,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:12" ht="48.75" customHeight="1">
+    <row r="7" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>20</v>
       </c>
@@ -3027,7 +3051,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>22</v>
@@ -3042,14 +3066,14 @@
         <v>123</v>
       </c>
       <c r="J7" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>198</v>
-      </c>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="1:12" ht="90" customHeight="1">
+    <row r="8" spans="1:12" ht="342" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>26</v>
       </c>
@@ -3060,7 +3084,7 @@
         <v>102</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>178</v>
+        <v>627</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="30"/>
@@ -3075,7 +3099,7 @@
       </c>
       <c r="L8" s="35"/>
     </row>
-    <row r="9" spans="1:12" ht="90" customHeight="1">
+    <row r="9" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>27</v>
       </c>
@@ -3107,7 +3131,7 @@
       </c>
       <c r="L9" s="35"/>
     </row>
-    <row r="10" spans="1:12" ht="90" customHeight="1">
+    <row r="10" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>28</v>
       </c>
@@ -3126,14 +3150,14 @@
       <c r="H10" s="33"/>
       <c r="I10" s="32"/>
       <c r="J10" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K10" s="34" t="s">
         <v>174</v>
       </c>
       <c r="L10" s="35"/>
     </row>
-    <row r="11" spans="1:12" ht="77.25" customHeight="1">
+    <row r="11" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>29</v>
       </c>
@@ -3167,7 +3191,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="129.75" customHeight="1">
+    <row r="12" spans="1:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>30</v>
       </c>
@@ -3197,7 +3221,7 @@
       </c>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" ht="48.75" customHeight="1">
+    <row r="13" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>31</v>
       </c>
@@ -3227,7 +3251,7 @@
       </c>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" ht="79.5" customHeight="1">
+    <row r="14" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>42</v>
       </c>
@@ -3261,7 +3285,7 @@
       </c>
       <c r="L14" s="43"/>
     </row>
-    <row r="15" spans="1:12" ht="79.5" customHeight="1">
+    <row r="15" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>43</v>
       </c>
@@ -3295,7 +3319,7 @@
       </c>
       <c r="L15" s="43"/>
     </row>
-    <row r="16" spans="1:12" ht="49.5" customHeight="1">
+    <row r="16" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44</v>
       </c>
@@ -3329,7 +3353,7 @@
       </c>
       <c r="L16" s="43"/>
     </row>
-    <row r="17" spans="1:12" ht="49.5" customHeight="1">
+    <row r="17" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>45</v>
       </c>
@@ -3363,7 +3387,7 @@
       </c>
       <c r="L17" s="43"/>
     </row>
-    <row r="18" spans="1:12" ht="60.75" customHeight="1">
+    <row r="18" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>46</v>
       </c>
@@ -3377,7 +3401,7 @@
         <v>80</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F18" s="37" t="s">
         <v>22</v>
@@ -3397,7 +3421,7 @@
       </c>
       <c r="L18" s="43"/>
     </row>
-    <row r="19" spans="1:12" ht="60.75" customHeight="1">
+    <row r="19" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>47</v>
       </c>
@@ -3431,7 +3455,7 @@
       </c>
       <c r="L19" s="43"/>
     </row>
-    <row r="20" spans="1:12" ht="71.25" customHeight="1">
+    <row r="20" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>48</v>
       </c>
@@ -3445,7 +3469,7 @@
         <v>92</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>22</v>
@@ -3465,7 +3489,7 @@
       </c>
       <c r="L20" s="43"/>
     </row>
-    <row r="21" spans="1:12" ht="102" customHeight="1">
+    <row r="21" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>49</v>
       </c>
@@ -3499,7 +3523,7 @@
       </c>
       <c r="L21" s="43"/>
     </row>
-    <row r="22" spans="1:12" ht="71.25" customHeight="1">
+    <row r="22" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>50</v>
       </c>
@@ -3533,7 +3557,7 @@
       </c>
       <c r="L22" s="43"/>
     </row>
-    <row r="23" spans="1:12" ht="79.5" customHeight="1">
+    <row r="23" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>51</v>
       </c>
@@ -3567,7 +3591,7 @@
       </c>
       <c r="L23" s="43"/>
     </row>
-    <row r="24" spans="1:12" ht="79.5" customHeight="1">
+    <row r="24" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>52</v>
       </c>
@@ -3601,7 +3625,7 @@
       </c>
       <c r="L24" s="43"/>
     </row>
-    <row r="25" spans="1:12" ht="84" customHeight="1">
+    <row r="25" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>53</v>
       </c>
@@ -3635,7 +3659,7 @@
       </c>
       <c r="L25" s="43"/>
     </row>
-    <row r="26" spans="1:12" ht="84" customHeight="1">
+    <row r="26" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>54</v>
       </c>
@@ -3669,7 +3693,7 @@
       </c>
       <c r="L26" s="43"/>
     </row>
-    <row r="27" spans="1:12" ht="84" customHeight="1">
+    <row r="27" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>55</v>
       </c>
@@ -3703,7 +3727,7 @@
       </c>
       <c r="L27" s="43"/>
     </row>
-    <row r="28" spans="1:12" ht="60" customHeight="1">
+    <row r="28" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>56</v>
       </c>
@@ -3737,7 +3761,7 @@
       </c>
       <c r="L28" s="43"/>
     </row>
-    <row r="29" spans="1:12" ht="60" customHeight="1">
+    <row r="29" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>57</v>
       </c>
@@ -3771,7 +3795,7 @@
       </c>
       <c r="L29" s="43"/>
     </row>
-    <row r="30" spans="1:12" ht="60" customHeight="1">
+    <row r="30" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>58</v>
       </c>
@@ -3805,7 +3829,7 @@
       </c>
       <c r="L30" s="43"/>
     </row>
-    <row r="31" spans="1:12" ht="82.5" customHeight="1">
+    <row r="31" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>59</v>
       </c>
@@ -3839,7 +3863,7 @@
       </c>
       <c r="L31" s="43"/>
     </row>
-    <row r="32" spans="1:12" ht="82.5" customHeight="1">
+    <row r="32" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>60</v>
       </c>
@@ -3873,7 +3897,7 @@
       </c>
       <c r="L32" s="43"/>
     </row>
-    <row r="33" spans="1:12" ht="79.5" customHeight="1">
+    <row r="33" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>61</v>
       </c>
@@ -3907,12 +3931,12 @@
       </c>
       <c r="L33" s="43"/>
     </row>
-    <row r="34" spans="1:12" ht="79.5" customHeight="1">
+    <row r="34" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>62</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" s="45" t="s">
         <v>41</v>
@@ -3921,7 +3945,7 @@
         <v>92</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F34" s="44" t="s">
         <v>22</v>
@@ -3936,28 +3960,28 @@
         <v>161</v>
       </c>
       <c r="J34" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K34" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L34" s="47"/>
     </row>
-    <row r="35" spans="1:12" ht="79.5" customHeight="1">
+    <row r="35" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>63</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C35" s="45" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F35" s="44" t="s">
         <v>71</v>
@@ -3966,34 +3990,34 @@
         <v>300</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I35" s="46" t="s">
         <v>161</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K35" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L35" s="47"/>
     </row>
-    <row r="36" spans="1:12" ht="79.5" customHeight="1">
+    <row r="36" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>64</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C36" s="45" t="s">
         <v>124</v>
       </c>
       <c r="D36" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="45" t="s">
         <v>183</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>184</v>
       </c>
       <c r="F36" s="48"/>
       <c r="G36" s="44">
@@ -4004,16 +4028,16 @@
         <v>47</v>
       </c>
       <c r="J36" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="K36" s="45" t="s">
-        <v>191</v>
-      </c>
       <c r="L36" s="47"/>
     </row>
-    <row r="37" spans="1:12" ht="112">
+    <row r="37" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B37" s="49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" s="50" t="s">
         <v>55</v>
@@ -4037,15 +4061,15 @@
         <v>123</v>
       </c>
       <c r="J37" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="K37" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="K37" s="50" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="256">
+    </row>
+    <row r="38" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="B38" s="49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C38" s="50" t="s">
         <v>53</v>
@@ -4069,24 +4093,24 @@
         <v>123</v>
       </c>
       <c r="J38" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="K38" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="K38" s="50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="176">
+    </row>
+    <row r="39" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="B39" s="49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C39" s="50" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="50" t="s">
         <v>193</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>194</v>
       </c>
       <c r="F39" s="52"/>
       <c r="G39" s="49">
@@ -4094,18 +4118,18 @@
       </c>
       <c r="H39" s="51"/>
       <c r="I39" s="51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J39" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="K39" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="K39" s="50" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="222">
+    </row>
+    <row r="40" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="B40" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C40" s="50" t="s">
         <v>18</v>
@@ -4126,18 +4150,18 @@
         <v>155</v>
       </c>
       <c r="I40" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="J40" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="J40" s="50" t="s">
-        <v>210</v>
-      </c>
       <c r="K40" s="50" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="143">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="B41" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" s="50" t="s">
         <v>66</v>
@@ -4159,18 +4183,18 @@
         <v>123</v>
       </c>
       <c r="J41" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K41" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="K41" s="50" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="32">
+    </row>
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>18</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C42" s="50" t="s">
         <v>57</v>
@@ -4198,12 +4222,12 @@
       </c>
       <c r="K42" s="50"/>
     </row>
-    <row r="43" spans="1:12" ht="32">
+    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>21</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C43" s="50" t="s">
         <v>68</v>
@@ -4231,7 +4255,7 @@
       </c>
       <c r="K43" s="50"/>
     </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1">
+    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="49"/>
       <c r="C44" s="50" t="s">
         <v>18</v>
@@ -4240,7 +4264,7 @@
         <v>63</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F44" s="52"/>
       <c r="G44" s="49"/>
@@ -4250,7 +4274,7 @@
       <c r="K44" s="50"/>
       <c r="L44" s="56"/>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
+    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="49"/>
       <c r="C45" s="50" t="s">
         <v>66</v>
@@ -4259,7 +4283,7 @@
         <v>154</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F45" s="52"/>
       <c r="G45" s="49"/>
@@ -4269,16 +4293,16 @@
       <c r="K45" s="50"/>
       <c r="L45" s="56"/>
     </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1">
+    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="49"/>
       <c r="C46" s="50" t="s">
         <v>127</v>
       </c>
       <c r="D46" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" s="50" t="s">
         <v>217</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>218</v>
       </c>
       <c r="F46" s="52"/>
       <c r="G46" s="49"/>
@@ -4288,16 +4312,16 @@
       <c r="K46" s="50"/>
       <c r="L46" s="56"/>
     </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1">
+    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="49"/>
       <c r="C47" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="E47" s="50" t="s">
         <v>220</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>221</v>
       </c>
       <c r="F47" s="52"/>
       <c r="G47" s="49"/>
@@ -4307,16 +4331,16 @@
       <c r="K47" s="50"/>
       <c r="L47" s="56"/>
     </row>
-    <row r="48" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1">
+    <row r="48" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C48" s="57" t="s">
         <v>124</v>
       </c>
       <c r="D48" s="57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -4327,20 +4351,20 @@
       <c r="I48" s="59"/>
       <c r="J48" s="57"/>
       <c r="K48" s="60" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L48" s="61"/>
     </row>
-    <row r="49" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1">
+    <row r="49" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C49" s="57" t="s">
         <v>79</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -4351,10 +4375,10 @@
       <c r="K49" s="60"/>
       <c r="L49" s="61"/>
     </row>
-    <row r="50" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1">
+    <row r="50" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C50" s="57" t="s">
         <v>17</v>
@@ -4363,7 +4387,7 @@
         <v>162</v>
       </c>
       <c r="E50" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F50" s="58" t="s">
         <v>37</v>
@@ -4377,22 +4401,22 @@
       <c r="K50" s="60"/>
       <c r="L50" s="61"/>
     </row>
-    <row r="51" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1">
+    <row r="51" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C51" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D51" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" s="57" t="s">
+        <v>622</v>
+      </c>
+      <c r="F51" s="58" t="s">
         <v>225</v>
-      </c>
-      <c r="E51" s="57" t="s">
-        <v>623</v>
-      </c>
-      <c r="F51" s="58" t="s">
-        <v>226</v>
       </c>
       <c r="G51" s="55">
         <v>60</v>
@@ -4402,29 +4426,29 @@
         <v>123</v>
       </c>
       <c r="J51" s="57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K51" s="60" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L51" s="61"/>
     </row>
-    <row r="52" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1">
+    <row r="52" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C52" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D52" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="E52" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="F52" s="58" t="s">
         <v>225</v>
-      </c>
-      <c r="E52" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="F52" s="58" t="s">
-        <v>226</v>
       </c>
       <c r="G52" s="55">
         <v>60</v>
@@ -4434,29 +4458,29 @@
         <v>123</v>
       </c>
       <c r="J52" s="57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K52" s="60" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L52" s="61"/>
     </row>
-    <row r="53" spans="1:12" s="62" customFormat="1" ht="93" customHeight="1">
+    <row r="53" spans="1:12" s="62" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C53" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D53" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53" s="58" t="s">
         <v>225</v>
-      </c>
-      <c r="E53" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="F53" s="58" t="s">
-        <v>226</v>
       </c>
       <c r="G53" s="55">
         <v>60</v>
@@ -4466,29 +4490,29 @@
         <v>123</v>
       </c>
       <c r="J53" s="57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K53" s="60" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L53" s="61"/>
     </row>
-    <row r="54" spans="1:12" s="62" customFormat="1" ht="123.75" customHeight="1">
+    <row r="54" spans="1:12" s="62" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E54" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="E54" s="57" t="s">
-        <v>231</v>
-      </c>
       <c r="F54" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G54" s="55">
         <v>60</v>
@@ -4498,26 +4522,26 @@
         <v>123</v>
       </c>
       <c r="J54" s="57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K54" s="57" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L54" s="61"/>
     </row>
-    <row r="55" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1">
+    <row r="55" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C55" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="D55" s="57" t="s">
+      <c r="E55" s="57" t="s">
         <v>234</v>
-      </c>
-      <c r="E55" s="57" t="s">
-        <v>235</v>
       </c>
       <c r="F55" s="58"/>
       <c r="G55" s="55">
@@ -4528,26 +4552,26 @@
         <v>123</v>
       </c>
       <c r="J55" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="K55" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="K55" s="57" t="s">
-        <v>237</v>
-      </c>
       <c r="L55" s="61"/>
     </row>
-    <row r="56" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1">
+    <row r="56" spans="1:12" s="62" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C56" s="57" t="s">
         <v>64</v>
       </c>
       <c r="D56" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56" s="57" t="s">
         <v>238</v>
-      </c>
-      <c r="E56" s="57" t="s">
-        <v>239</v>
       </c>
       <c r="F56" s="58"/>
       <c r="G56" s="55">
@@ -4558,10 +4582,10 @@
         <v>123</v>
       </c>
       <c r="J56" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="K56" s="57" t="s">
         <v>240</v>
-      </c>
-      <c r="K56" s="57" t="s">
-        <v>241</v>
       </c>
       <c r="L56" s="61"/>
     </row>
@@ -4580,5524 +4604,5524 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="C1" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="D1" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="E1" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="63" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="64">
         <v>5002</v>
       </c>
       <c r="B2" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="64" t="s">
         <v>247</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>248</v>
       </c>
       <c r="D2" s="65"/>
       <c r="E2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="64">
         <v>5004</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D3" s="65"/>
       <c r="E3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="64">
         <v>5021</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D4" s="65"/>
       <c r="E4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="64">
         <v>5031</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="D5" s="65" t="s">
-        <v>253</v>
-      </c>
       <c r="E5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="64">
         <v>5038</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D6" s="65"/>
       <c r="E6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="64">
         <v>5040</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="64">
         <v>5045</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="65" t="s">
-        <v>257</v>
-      </c>
       <c r="E8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="64">
         <v>5055</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D9" s="65"/>
       <c r="E9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="64">
         <v>5107</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="64">
         <v>5120</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="64">
         <v>5125</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D12" s="65"/>
       <c r="E12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="64">
         <v>5134</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D13" s="65"/>
       <c r="E13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="64">
         <v>5147</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="64">
         <v>5154</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="64">
         <v>5172</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="64">
         <v>5197</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="64">
         <v>5206</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D18" s="65"/>
       <c r="E18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="64">
         <v>5234</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="64">
         <v>5250</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="64">
         <v>5284</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D21" s="65"/>
       <c r="E21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="64">
         <v>5313</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D22" s="65"/>
       <c r="E22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="64">
         <v>5315</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D23" s="65"/>
       <c r="E23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="64">
         <v>5361</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E24" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="64">
         <v>5467</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D25" s="65"/>
       <c r="E25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="64">
         <v>5475</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="D26" s="65" t="s">
-        <v>276</v>
-      </c>
       <c r="E26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="64">
         <v>5480</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="64">
         <v>5483</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D28" s="65"/>
       <c r="E28" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="64">
         <v>5495</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="64">
         <v>5490</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E30" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="64">
         <v>5579</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D31" s="65"/>
       <c r="E31" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="64">
         <v>5604</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E32" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="64">
         <v>5642</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D33" s="65"/>
       <c r="E33" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="64">
         <v>5647</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D34" s="65"/>
       <c r="E34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="68" customFormat="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="66">
         <v>5649</v>
       </c>
       <c r="B35" s="66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D35" s="67"/>
       <c r="E35" s="68" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="64">
         <v>5652</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D36" s="65"/>
       <c r="E36" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="64">
         <v>5660</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D37" s="65"/>
       <c r="E37" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="64">
         <v>5665</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D38" s="65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E38" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="64">
         <v>5667</v>
       </c>
       <c r="B39" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D39" s="65"/>
       <c r="E39" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="64">
         <v>5042</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D40" s="65"/>
       <c r="E40" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="64">
         <v>5690</v>
       </c>
       <c r="B41" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D41" s="65"/>
       <c r="E41" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="64">
         <v>5736</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C42" s="64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D42" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E42" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="64">
         <v>5756</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C43" s="64" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D43" s="65"/>
       <c r="E43" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="64">
         <v>5790</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C44" s="64" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D44" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E44" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="64">
         <v>5819</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C45" s="64" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D45" s="65"/>
       <c r="E45" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="64">
         <v>5837</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C46" s="64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D46" s="65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E46" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="64">
         <v>5842</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C47" s="64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D47" s="65"/>
       <c r="E47" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="64">
         <v>5847</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C48" s="64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D48" s="65"/>
       <c r="E48" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="64">
         <v>5854</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C49" s="64" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D49" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E49" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="64">
         <v>5858</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C50" s="64" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D50" s="65"/>
       <c r="E50" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="64">
         <v>5873</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C51" s="64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D51" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E51" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="64">
         <v>5885</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C52" s="64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D52" s="65"/>
       <c r="E52" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="68" customFormat="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="66">
         <v>5887</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D53" s="67"/>
       <c r="E53" s="68" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="64">
         <v>5890</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D54" s="65"/>
       <c r="E54" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="64">
         <v>5893</v>
       </c>
       <c r="B55" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C55" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="D55" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="D55" s="65" t="s">
-        <v>306</v>
-      </c>
       <c r="E55" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="64">
         <v>5895</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C56" s="64" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D56" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E56" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="64">
         <v>81001</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C57" s="64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D57" s="65"/>
       <c r="E57" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="64">
         <v>81065</v>
       </c>
       <c r="B58" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="C58" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="D58" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="E58" t="s">
         <v>308</v>
       </c>
-      <c r="C58" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="D58" s="65" t="s">
-        <v>308</v>
-      </c>
-      <c r="E58" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="64">
         <v>81220</v>
       </c>
       <c r="B59" s="64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C59" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D59" s="65"/>
       <c r="E59" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="64">
         <v>81300</v>
       </c>
       <c r="B60" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="C60" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="D60" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="E60" t="s">
         <v>308</v>
       </c>
-      <c r="C60" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="D60" s="65" t="s">
-        <v>308</v>
-      </c>
-      <c r="E60" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="64">
         <v>81591</v>
       </c>
       <c r="B61" s="64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C61" s="64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D61" s="65"/>
       <c r="E61" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="64">
         <v>81736</v>
       </c>
       <c r="B62" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="D62" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="E62" t="s">
         <v>308</v>
       </c>
-      <c r="C62" s="64" t="s">
-        <v>314</v>
-      </c>
-      <c r="D62" s="65" t="s">
-        <v>308</v>
-      </c>
-      <c r="E62" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="64">
         <v>81794</v>
       </c>
       <c r="B63" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="C63" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63" t="s">
         <v>308</v>
       </c>
-      <c r="C63" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="D63" s="65" t="s">
-        <v>308</v>
-      </c>
-      <c r="E63" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="64">
         <v>13042</v>
       </c>
       <c r="B64" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="C64" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="C64" s="64" t="s">
+      <c r="D64" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="E64" t="s">
         <v>317</v>
       </c>
-      <c r="D64" s="65" t="s">
-        <v>306</v>
-      </c>
-      <c r="E64" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="64">
         <v>13160</v>
       </c>
       <c r="B65" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C65" s="64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D65" s="65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E65" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="64">
         <v>13212</v>
       </c>
       <c r="B66" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C66" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="D66" s="65" t="s">
         <v>320</v>
       </c>
-      <c r="D66" s="65" t="s">
-        <v>321</v>
-      </c>
       <c r="E66" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="64">
         <v>13244</v>
       </c>
       <c r="B67" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C67" s="64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D67" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E67" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="64">
         <v>13248</v>
       </c>
       <c r="B68" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C68" s="64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D68" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E68" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="64">
         <v>13442</v>
       </c>
       <c r="B69" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C69" s="64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D69" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E69" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="64">
         <v>13458</v>
       </c>
       <c r="B70" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C70" s="64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D70" s="65"/>
       <c r="E70" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="64">
         <v>13473</v>
       </c>
       <c r="B71" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C71" s="64" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D71" s="65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E71" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="64">
         <v>13600</v>
       </c>
       <c r="B72" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C72" s="64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D72" s="65"/>
       <c r="E72" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="64">
         <v>13654</v>
       </c>
       <c r="B73" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C73" s="64" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D73" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E73" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="64">
         <v>13657</v>
       </c>
       <c r="B74" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C74" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D74" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E74" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="64">
         <v>13670</v>
       </c>
       <c r="B75" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C75" s="64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D75" s="65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E75" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="64">
         <v>13688</v>
       </c>
       <c r="B76" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C76" s="64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D76" s="65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E76" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="64">
         <v>13744</v>
       </c>
       <c r="B77" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C77" s="64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D77" s="65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E77" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="64">
         <v>13810</v>
       </c>
       <c r="B78" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C78" s="64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D78" s="65"/>
       <c r="E78" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="64">
         <v>13894</v>
       </c>
       <c r="B79" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C79" s="64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D79" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E79" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="64">
         <v>15236</v>
       </c>
       <c r="B80" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="C80" s="64" t="s">
         <v>335</v>
-      </c>
-      <c r="C80" s="64" t="s">
-        <v>336</v>
       </c>
       <c r="D80" s="65"/>
       <c r="E80" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="64">
         <v>15377</v>
       </c>
       <c r="B81" s="64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C81" s="64" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D81" s="65"/>
       <c r="E81" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="64">
         <v>15518</v>
       </c>
       <c r="B82" s="64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C82" s="64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D82" s="65"/>
       <c r="E82" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="64">
         <v>15533</v>
       </c>
       <c r="B83" s="64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C83" s="64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D83" s="65"/>
       <c r="E83" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="64">
         <v>15550</v>
       </c>
       <c r="B84" s="64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C84" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D84" s="65"/>
       <c r="E84" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="64">
         <v>17042</v>
       </c>
       <c r="B85" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="C85" s="64" t="s">
         <v>342</v>
-      </c>
-      <c r="C85" s="64" t="s">
-        <v>343</v>
       </c>
       <c r="D85" s="65"/>
       <c r="E85" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="64">
         <v>17088</v>
       </c>
       <c r="B86" s="64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C86" s="64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D86" s="65"/>
       <c r="E86" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="64">
         <v>17446</v>
       </c>
       <c r="B87" s="64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C87" s="64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D87" s="65"/>
       <c r="E87" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="64">
         <v>17495</v>
       </c>
       <c r="B88" s="64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C88" s="64" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D88" s="65"/>
       <c r="E88" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="64">
         <v>17524</v>
       </c>
       <c r="B89" s="64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C89" s="64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D89" s="65"/>
       <c r="E89" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="64">
         <v>17541</v>
       </c>
       <c r="B90" s="64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C90" s="64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D90" s="65"/>
       <c r="E90" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="64">
         <v>17614</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C91" s="64" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D91" s="65"/>
       <c r="E91" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="64">
         <v>17616</v>
       </c>
       <c r="B92" s="64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C92" s="64" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D92" s="65"/>
       <c r="E92" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="64">
         <v>17662</v>
       </c>
       <c r="B93" s="64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C93" s="64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D93" s="65"/>
       <c r="E93" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="64">
         <v>18029</v>
       </c>
       <c r="B94" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="C94" s="64" t="s">
         <v>352</v>
       </c>
-      <c r="C94" s="64" t="s">
+      <c r="D94" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="D94" s="65" t="s">
+      <c r="E94" t="s">
         <v>354</v>
       </c>
-      <c r="E94" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="64">
         <v>18094</v>
       </c>
       <c r="B95" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C95" s="64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D95" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="E95" t="s">
         <v>354</v>
       </c>
-      <c r="E95" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="64">
         <v>18150</v>
       </c>
       <c r="B96" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C96" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D96" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="E96" t="s">
         <v>354</v>
       </c>
-      <c r="E96" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="71" customFormat="1">
+    </row>
+    <row r="97" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="69">
         <v>18205</v>
       </c>
       <c r="B97" s="69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C97" s="69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D97" s="70" t="s">
+        <v>353</v>
+      </c>
+      <c r="E97" s="71" t="s">
         <v>354</v>
       </c>
-      <c r="E97" s="71" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="64">
         <v>18247</v>
       </c>
       <c r="B98" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C98" s="64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D98" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="E98" t="s">
         <v>354</v>
       </c>
-      <c r="E98" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="64">
         <v>18256</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C99" s="64" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D99" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="E99" t="s">
         <v>354</v>
       </c>
-      <c r="E99" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="64">
         <v>18001</v>
       </c>
       <c r="B100" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C100" s="64" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D100" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="E100" t="s">
         <v>354</v>
       </c>
-      <c r="E100" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="64">
         <v>18410</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C101" s="64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D101" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="E101" t="s">
         <v>354</v>
       </c>
-      <c r="E101" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="64">
         <v>18460</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C102" s="64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D102" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="E102" t="s">
         <v>354</v>
       </c>
-      <c r="E102" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="64">
         <v>18479</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C103" s="64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D103" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="E103" t="s">
         <v>354</v>
       </c>
-      <c r="E103" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="64">
         <v>18592</v>
       </c>
       <c r="B104" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C104" s="64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D104" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="E104" t="s">
         <v>354</v>
       </c>
-      <c r="E104" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="68" customFormat="1">
+    </row>
+    <row r="105" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="66">
         <v>18610</v>
       </c>
       <c r="B105" s="66" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C105" s="66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D105" s="67" t="s">
+        <v>353</v>
+      </c>
+      <c r="E105" s="68" t="s">
         <v>354</v>
       </c>
-      <c r="E105" s="68" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="64">
         <v>18753</v>
       </c>
       <c r="B106" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C106" s="64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D106" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="E106" t="s">
         <v>354</v>
       </c>
-      <c r="E106" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="64">
         <v>18756</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C107" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D107" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="E107" t="s">
         <v>354</v>
       </c>
-      <c r="E107" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="64">
         <v>18785</v>
       </c>
       <c r="B108" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C108" s="64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D108" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="E108" t="s">
         <v>354</v>
       </c>
-      <c r="E108" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="64">
         <v>18860</v>
       </c>
       <c r="B109" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C109" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D109" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="E109" t="s">
         <v>354</v>
       </c>
-      <c r="E109" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="64">
         <v>85010</v>
       </c>
       <c r="B110" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="C110" s="64" t="s">
         <v>371</v>
-      </c>
-      <c r="C110" s="64" t="s">
-        <v>372</v>
       </c>
       <c r="D110" s="65"/>
       <c r="E110" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="64">
         <v>85015</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C111" s="64" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D111" s="65"/>
       <c r="E111" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="64">
         <v>85125</v>
       </c>
       <c r="B112" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C112" s="64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D112" s="65"/>
       <c r="E112" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="64">
         <v>85136</v>
       </c>
       <c r="B113" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C113" s="64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D113" s="65"/>
       <c r="E113" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="64">
         <v>85139</v>
       </c>
       <c r="B114" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C114" s="64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D114" s="65"/>
       <c r="E114" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="64">
         <v>85162</v>
       </c>
       <c r="B115" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C115" s="64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D115" s="65"/>
       <c r="E115" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="64">
         <v>85250</v>
       </c>
       <c r="B116" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C116" s="64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D116" s="65"/>
       <c r="E116" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="64">
         <v>85263</v>
       </c>
       <c r="B117" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C117" s="64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D117" s="65"/>
       <c r="E117" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="64">
         <v>85279</v>
       </c>
       <c r="B118" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C118" s="64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D118" s="65"/>
       <c r="E118" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="64">
         <v>85300</v>
       </c>
       <c r="B119" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C119" s="64" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D119" s="65"/>
       <c r="E119" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="64">
         <v>85315</v>
       </c>
       <c r="B120" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C120" s="64" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D120" s="65"/>
       <c r="E120" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="64">
         <v>85400</v>
       </c>
       <c r="B121" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C121" s="64" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D121" s="65"/>
       <c r="E121" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="64">
         <v>85410</v>
       </c>
       <c r="B122" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C122" s="64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D122" s="65"/>
       <c r="E122" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="64">
         <v>85440</v>
       </c>
       <c r="B123" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C123" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D123" s="65"/>
       <c r="E123" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="64">
         <v>19050</v>
       </c>
       <c r="B124" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C124" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="D124" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C124" s="64" t="s">
-        <v>258</v>
-      </c>
-      <c r="D124" s="65" t="s">
+      <c r="E124" t="s">
         <v>387</v>
       </c>
-      <c r="E124" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="64">
         <v>19075</v>
       </c>
       <c r="B125" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C125" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="D125" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C125" s="64" t="s">
-        <v>389</v>
-      </c>
-      <c r="D125" s="65" t="s">
+      <c r="E125" t="s">
         <v>387</v>
       </c>
-      <c r="E125" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="64">
         <v>19110</v>
       </c>
       <c r="B126" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C126" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="D126" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C126" s="64" t="s">
-        <v>390</v>
-      </c>
-      <c r="D126" s="65" t="s">
+      <c r="E126" t="s">
         <v>387</v>
       </c>
-      <c r="E126" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="64">
         <v>19130</v>
       </c>
       <c r="B127" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C127" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="D127" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C127" s="64" t="s">
-        <v>391</v>
-      </c>
-      <c r="D127" s="65" t="s">
+      <c r="E127" t="s">
         <v>387</v>
       </c>
-      <c r="E127" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="64">
         <v>19137</v>
       </c>
       <c r="B128" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C128" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="D128" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C128" s="64" t="s">
-        <v>392</v>
-      </c>
-      <c r="D128" s="65" t="s">
+      <c r="E128" t="s">
         <v>387</v>
       </c>
-      <c r="E128" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="64">
         <v>19142</v>
       </c>
       <c r="B129" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C129" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="D129" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C129" s="64" t="s">
-        <v>393</v>
-      </c>
-      <c r="D129" s="65" t="s">
+      <c r="E129" t="s">
         <v>387</v>
       </c>
-      <c r="E129" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="64">
         <v>19212</v>
       </c>
       <c r="B130" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C130" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="D130" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C130" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="D130" s="65" t="s">
+      <c r="E130" t="s">
         <v>387</v>
       </c>
-      <c r="E130" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="64">
         <v>19256</v>
       </c>
       <c r="B131" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C131" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="D131" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C131" s="64" t="s">
-        <v>395</v>
-      </c>
-      <c r="D131" s="65" t="s">
+      <c r="E131" t="s">
         <v>387</v>
       </c>
-      <c r="E131" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="64">
         <v>19290</v>
       </c>
       <c r="B132" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C132" s="64" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D132" s="65"/>
       <c r="E132" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="64">
         <v>19318</v>
       </c>
       <c r="B133" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C133" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="D133" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="D133" s="65" t="s">
-        <v>397</v>
-      </c>
       <c r="E133" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="64">
         <v>19364</v>
       </c>
       <c r="B134" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C134" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="D134" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C134" s="64" t="s">
-        <v>398</v>
-      </c>
-      <c r="D134" s="65" t="s">
+      <c r="E134" t="s">
         <v>387</v>
       </c>
-      <c r="E134" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="64">
         <v>19418</v>
       </c>
       <c r="B135" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C135" s="64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D135" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E135" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="64">
         <v>19450</v>
       </c>
       <c r="B136" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C136" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="D136" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C136" s="64" t="s">
-        <v>400</v>
-      </c>
-      <c r="D136" s="65" t="s">
+      <c r="E136" t="s">
         <v>387</v>
       </c>
-      <c r="E136" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="64">
         <v>19455</v>
       </c>
       <c r="B137" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C137" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="D137" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C137" s="64" t="s">
-        <v>401</v>
-      </c>
-      <c r="D137" s="65" t="s">
+      <c r="E137" t="s">
         <v>387</v>
       </c>
-      <c r="E137" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="64">
         <v>19473</v>
       </c>
       <c r="B138" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C138" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="D138" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C138" s="64" t="s">
-        <v>326</v>
-      </c>
-      <c r="D138" s="65" t="s">
+      <c r="E138" t="s">
         <v>387</v>
       </c>
-      <c r="E138" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="64">
         <v>19532</v>
       </c>
       <c r="B139" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C139" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="D139" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C139" s="64" t="s">
-        <v>402</v>
-      </c>
-      <c r="D139" s="65" t="s">
+      <c r="E139" t="s">
         <v>387</v>
       </c>
-      <c r="E139" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="64">
         <v>19533</v>
       </c>
       <c r="B140" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C140" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D140" s="65"/>
       <c r="E140" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="64">
         <v>19548</v>
       </c>
       <c r="B141" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C141" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="D141" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C141" s="64" t="s">
-        <v>404</v>
-      </c>
-      <c r="D141" s="65" t="s">
+      <c r="E141" t="s">
         <v>387</v>
       </c>
-      <c r="E141" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="64">
         <v>19701</v>
       </c>
       <c r="B142" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C142" s="64" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D142" s="65"/>
       <c r="E142" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="64">
         <v>19698</v>
       </c>
       <c r="B143" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C143" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="D143" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C143" s="64" t="s">
-        <v>406</v>
-      </c>
-      <c r="D143" s="65" t="s">
+      <c r="E143" t="s">
         <v>387</v>
       </c>
-      <c r="E143" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="64">
         <v>19780</v>
       </c>
       <c r="B144" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C144" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="D144" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C144" s="64" t="s">
-        <v>407</v>
-      </c>
-      <c r="D144" s="65" t="s">
+      <c r="E144" t="s">
         <v>387</v>
       </c>
-      <c r="E144" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="64">
         <v>19809</v>
       </c>
       <c r="B145" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C145" s="64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D145" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E145" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="64">
         <v>19821</v>
       </c>
       <c r="B146" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C146" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="D146" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C146" s="64" t="s">
-        <v>409</v>
-      </c>
-      <c r="D146" s="65" t="s">
+      <c r="E146" t="s">
         <v>387</v>
       </c>
-      <c r="E146" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="64">
         <v>20011</v>
       </c>
       <c r="B147" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="C147" s="64" t="s">
         <v>410</v>
-      </c>
-      <c r="C147" s="64" t="s">
-        <v>411</v>
       </c>
       <c r="D147" s="65"/>
       <c r="E147" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="64">
         <v>20013</v>
       </c>
       <c r="B148" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C148" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="D148" s="65" t="s">
         <v>412</v>
       </c>
-      <c r="D148" s="65" t="s">
-        <v>413</v>
-      </c>
       <c r="E148" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="64">
         <v>20045</v>
       </c>
       <c r="B149" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C149" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D149" s="65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E149" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="64">
         <v>20060</v>
       </c>
       <c r="B150" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C150" s="64" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D150" s="65"/>
       <c r="E150" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="64">
         <v>20178</v>
       </c>
       <c r="B151" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C151" s="64" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D151" s="65"/>
       <c r="E151" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="64">
         <v>20228</v>
       </c>
       <c r="B152" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C152" s="64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D152" s="65"/>
       <c r="E152" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="64">
         <v>20238</v>
       </c>
       <c r="B153" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C153" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D153" s="65"/>
       <c r="E153" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="64">
         <v>20383</v>
       </c>
       <c r="B154" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C154" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D154" s="65"/>
       <c r="E154" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="64">
         <v>20400</v>
       </c>
       <c r="B155" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C155" s="64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D155" s="65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E155" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="64">
         <v>20621</v>
       </c>
       <c r="B156" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C156" s="64" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D156" s="65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E156" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="64">
         <v>20443</v>
       </c>
       <c r="B157" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C157" s="64" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D157" s="65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E157" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="64">
         <v>20517</v>
       </c>
       <c r="B158" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C158" s="64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D158" s="65"/>
       <c r="E158" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="64">
         <v>20550</v>
       </c>
       <c r="B159" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C159" s="64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D159" s="65"/>
       <c r="E159" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="64">
         <v>20570</v>
       </c>
       <c r="B160" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C160" s="64" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D160" s="65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E160" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="64">
         <v>20750</v>
       </c>
       <c r="B161" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C161" s="64" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D161" s="65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E161" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" s="68" customFormat="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="66">
         <v>27006</v>
       </c>
       <c r="B162" s="66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C162" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D162" s="67" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E162" s="68" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="64">
         <v>27073</v>
       </c>
       <c r="B163" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C163" s="64" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D163" s="65"/>
       <c r="E163" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="64">
         <v>27077</v>
       </c>
       <c r="B164" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C164" s="64" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D164" s="65"/>
       <c r="E164" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="64">
         <v>27099</v>
       </c>
       <c r="B165" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C165" s="64" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D165" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E165" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="64">
         <v>27150</v>
       </c>
       <c r="B166" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C166" s="64" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D166" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E166" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="71" customFormat="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="69">
         <v>27205</v>
       </c>
       <c r="B167" s="69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C167" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D167" s="70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E167" s="71" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="64">
         <v>27245</v>
       </c>
       <c r="B168" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C168" s="64" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D168" s="65"/>
       <c r="E168" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="64">
         <v>27250</v>
       </c>
       <c r="B169" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C169" s="64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D169" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E169" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="64">
         <v>27361</v>
       </c>
       <c r="B170" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C170" s="64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D170" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E170" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="64">
         <v>27425</v>
       </c>
       <c r="B171" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C171" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D171" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E171" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="64">
         <v>27450</v>
       </c>
       <c r="B172" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C172" s="64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D172" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E172" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="64">
         <v>27491</v>
       </c>
       <c r="B173" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C173" s="64" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D173" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E173" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="64">
         <v>27001</v>
       </c>
       <c r="B174" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C174" s="64" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D174" s="65"/>
       <c r="E174" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="64">
         <v>27615</v>
       </c>
       <c r="B175" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C175" s="64" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D175" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E175" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="64">
         <v>27660</v>
       </c>
       <c r="B176" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C176" s="64" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D176" s="65"/>
       <c r="E176" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="64">
         <v>27745</v>
       </c>
       <c r="B177" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C177" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D177" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E177" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" s="68" customFormat="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="66">
         <v>27787</v>
       </c>
       <c r="B178" s="66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C178" s="66" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D178" s="67"/>
       <c r="E178" s="68" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="64">
         <v>27800</v>
       </c>
       <c r="B179" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C179" s="64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D179" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E179" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="64">
         <v>23466</v>
       </c>
       <c r="B180" s="64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C180" s="66" t="s">
+        <v>443</v>
+      </c>
+      <c r="D180" s="65" t="s">
         <v>444</v>
       </c>
-      <c r="D180" s="65" t="s">
-        <v>445</v>
-      </c>
       <c r="E180" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="64">
         <v>23580</v>
       </c>
       <c r="B181" s="64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C181" s="66" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D181" s="65" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E181" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="64">
         <v>23682</v>
       </c>
       <c r="B182" s="64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C182" s="66" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D182" s="65" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E182" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="64">
         <v>23807</v>
       </c>
       <c r="B183" s="64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C183" s="64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D183" s="65" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E183" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="64">
         <v>23855</v>
       </c>
       <c r="B184" s="64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C184" s="64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D184" s="65" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E184" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="64">
         <v>25120</v>
       </c>
       <c r="B185" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="C185" s="64" t="s">
         <v>450</v>
-      </c>
-      <c r="C185" s="64" t="s">
-        <v>451</v>
       </c>
       <c r="D185" s="65"/>
       <c r="E185" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="64">
         <v>25168</v>
       </c>
       <c r="B186" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C186" s="64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D186" s="65"/>
       <c r="E186" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="64">
         <v>25258</v>
       </c>
       <c r="B187" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C187" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D187" s="65"/>
       <c r="E187" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="64">
         <v>25328</v>
       </c>
       <c r="B188" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C188" s="64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D188" s="65"/>
       <c r="E188" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="64">
         <v>25335</v>
       </c>
       <c r="B189" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C189" s="64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D189" s="65"/>
       <c r="E189" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="64">
         <v>25394</v>
       </c>
       <c r="B190" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C190" s="64" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D190" s="65"/>
       <c r="E190" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="64">
         <v>25438</v>
       </c>
       <c r="B191" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C191" s="64" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D191" s="65"/>
       <c r="E191" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="64">
         <v>25530</v>
       </c>
       <c r="B192" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C192" s="64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D192" s="65"/>
       <c r="E192" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="64">
         <v>25580</v>
       </c>
       <c r="B193" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C193" s="64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D193" s="65"/>
       <c r="E193" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="64">
         <v>25743</v>
       </c>
       <c r="B194" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C194" s="64" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D194" s="65"/>
       <c r="E194" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="64">
         <v>25823</v>
       </c>
       <c r="B195" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C195" s="64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D195" s="65"/>
       <c r="E195" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" s="68" customFormat="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="66">
         <v>25878</v>
       </c>
       <c r="B196" s="66" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C196" s="66" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D196" s="67"/>
       <c r="E196" s="68" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="64">
         <v>95015</v>
       </c>
       <c r="B197" s="64" t="s">
+        <v>462</v>
+      </c>
+      <c r="C197" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="C197" s="64" t="s">
+      <c r="D197" s="65" t="s">
         <v>464</v>
       </c>
-      <c r="D197" s="65" t="s">
-        <v>465</v>
-      </c>
       <c r="E197" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="64">
         <v>95025</v>
       </c>
       <c r="B198" s="64" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C198" s="64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D198" s="65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E198" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="64">
         <v>95200</v>
       </c>
       <c r="B199" s="64" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C199" s="64" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D199" s="65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E199" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="64">
         <v>95001</v>
       </c>
       <c r="B200" s="64" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C200" s="64" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D200" s="65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E200" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="64">
         <v>41006</v>
       </c>
       <c r="B201" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="C201" s="64" t="s">
         <v>469</v>
-      </c>
-      <c r="C201" s="64" t="s">
-        <v>470</v>
       </c>
       <c r="D201" s="65"/>
       <c r="E201" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="64">
         <v>41020</v>
       </c>
       <c r="B202" s="64" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C202" s="64" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D202" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="E202" t="s">
         <v>354</v>
       </c>
-      <c r="E202" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" s="68" customFormat="1">
+    </row>
+    <row r="203" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="66">
         <v>41078</v>
       </c>
       <c r="B203" s="66" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C203" s="66" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D203" s="67"/>
       <c r="E203" s="68" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="64">
         <v>41206</v>
       </c>
       <c r="B204" s="64" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C204" s="64" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D204" s="65"/>
       <c r="E204" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="64">
         <v>41349</v>
       </c>
       <c r="B205" s="64" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C205" s="64" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D205" s="65"/>
       <c r="E205" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="64">
         <v>41359</v>
       </c>
       <c r="B206" s="64" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C206" s="64" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D206" s="65"/>
       <c r="E206" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="64">
         <v>41799</v>
       </c>
       <c r="B207" s="64" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C207" s="64" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D207" s="65"/>
       <c r="E207" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="64">
         <v>44090</v>
       </c>
       <c r="B208" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="C208" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="C208" s="64" t="s">
-        <v>478</v>
-      </c>
       <c r="D208" s="65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E208" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="64">
         <v>44110</v>
       </c>
       <c r="B209" s="64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C209" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D209" s="65"/>
       <c r="E209" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="64">
         <v>44279</v>
       </c>
       <c r="B210" s="64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C210" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D210" s="65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E210" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="64">
         <v>44420</v>
       </c>
       <c r="B211" s="64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C211" s="64" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D211" s="65"/>
       <c r="E211" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="64">
         <v>44430</v>
       </c>
       <c r="B212" s="64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C212" s="64" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D212" s="65"/>
       <c r="E212" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="64">
         <v>44001</v>
       </c>
       <c r="B213" s="64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C213" s="64" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D213" s="65"/>
       <c r="E213" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="64">
         <v>44650</v>
       </c>
       <c r="B214" s="64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C214" s="64" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D214" s="65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E214" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="64">
         <v>44855</v>
       </c>
       <c r="B215" s="64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C215" s="64" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D215" s="65"/>
       <c r="E215" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="64">
         <v>44874</v>
       </c>
       <c r="B216" s="64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C216" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D216" s="65"/>
       <c r="E216" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="64">
         <v>47053</v>
       </c>
       <c r="B217" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="C217" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="C217" s="64" t="s">
-        <v>487</v>
-      </c>
       <c r="D217" s="65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E217" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="64">
         <v>47288</v>
       </c>
       <c r="B218" s="64" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C218" s="64" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D218" s="65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E218" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="64">
         <v>50110</v>
       </c>
       <c r="B219" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="C219" s="64" t="s">
         <v>489</v>
-      </c>
-      <c r="C219" s="64" t="s">
-        <v>490</v>
       </c>
       <c r="D219" s="65"/>
       <c r="E219" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="64">
         <v>50223</v>
       </c>
       <c r="B220" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C220" s="64" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D220" s="65"/>
       <c r="E220" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="64">
         <v>50245</v>
       </c>
       <c r="B221" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C221" s="64" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D221" s="65"/>
       <c r="E221" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="64">
         <v>50251</v>
       </c>
       <c r="B222" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C222" s="64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D222" s="65"/>
       <c r="E222" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="64">
         <v>50270</v>
       </c>
       <c r="B223" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C223" s="64" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D223" s="65"/>
       <c r="E223" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="64">
         <v>50287</v>
       </c>
       <c r="B224" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C224" s="64" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D224" s="65"/>
       <c r="E224" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" s="68" customFormat="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="66">
         <v>50313</v>
       </c>
       <c r="B225" s="66" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C225" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D225" s="67"/>
       <c r="E225" s="68" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="64">
         <v>50350</v>
       </c>
       <c r="B226" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C226" s="64" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D226" s="65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E226" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" s="68" customFormat="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="66">
         <v>50400</v>
       </c>
       <c r="B227" s="66" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C227" s="66" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D227" s="67"/>
       <c r="E227" s="68" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="64">
         <v>50325</v>
       </c>
       <c r="B228" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C228" s="64" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D228" s="65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E228" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="64">
         <v>50330</v>
       </c>
       <c r="B229" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C229" s="64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D229" s="65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E229" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="64">
         <v>50450</v>
       </c>
       <c r="B230" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C230" s="64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D230" s="65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E230" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="64">
         <v>50568</v>
       </c>
       <c r="B231" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C231" s="64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D231" s="65"/>
       <c r="E231" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="64">
         <v>50577</v>
       </c>
       <c r="B232" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C232" s="64" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D232" s="65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E232" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="64">
         <v>50590</v>
       </c>
       <c r="B233" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C233" s="64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D233" s="65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E233" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="64">
         <v>50683</v>
       </c>
       <c r="B234" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C234" s="64" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D234" s="65"/>
       <c r="E234" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="64">
         <v>50686</v>
       </c>
       <c r="B235" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C235" s="64" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D235" s="65"/>
       <c r="E235" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="64">
         <v>50689</v>
       </c>
       <c r="B236" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C236" s="64" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D236" s="65"/>
       <c r="E236" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="64">
         <v>50370</v>
       </c>
       <c r="B237" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C237" s="64" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D237" s="65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E237" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="64">
         <v>50711</v>
       </c>
       <c r="B238" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C238" s="64" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D238" s="65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E238" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="64">
         <v>52079</v>
       </c>
       <c r="B239" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C239" s="64" t="s">
+        <v>507</v>
+      </c>
+      <c r="D239" s="65" t="s">
         <v>508</v>
       </c>
-      <c r="D239" s="65" t="s">
-        <v>509</v>
-      </c>
       <c r="E239" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="64">
         <v>52233</v>
       </c>
       <c r="B240" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C240" s="64" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D240" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="E240" t="s">
         <v>387</v>
       </c>
-      <c r="E240" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="64">
         <v>52250</v>
       </c>
       <c r="B241" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C241" s="64" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D241" s="65" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E241" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="64">
         <v>52254</v>
       </c>
       <c r="B242" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C242" s="64" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D242" s="65"/>
       <c r="E242" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="64">
         <v>52256</v>
       </c>
       <c r="B243" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C243" s="64" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D243" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="E243" t="s">
         <v>387</v>
       </c>
-      <c r="E243" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="64">
         <v>52520</v>
       </c>
       <c r="B244" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C244" s="64" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D244" s="65" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E244" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="64">
         <v>52356</v>
       </c>
       <c r="B245" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C245" s="64" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D245" s="65"/>
       <c r="E245" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="64">
         <v>52385</v>
       </c>
       <c r="B246" s="72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C246" s="72" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D246" s="65"/>
       <c r="E246" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="64">
         <v>52390</v>
       </c>
       <c r="B247" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C247" s="64" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D247" s="65" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E247" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="64">
         <v>52405</v>
       </c>
       <c r="B248" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C248" s="64" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D248" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="E248" t="s">
         <v>387</v>
       </c>
-      <c r="E248" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="64">
         <v>52411</v>
       </c>
       <c r="B249" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C249" s="64" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D249" s="65"/>
       <c r="E249" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="64">
         <v>52418</v>
       </c>
       <c r="B250" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C250" s="64" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D250" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="E250" t="s">
         <v>387</v>
       </c>
-      <c r="E250" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="64">
         <v>52427</v>
       </c>
       <c r="B251" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C251" s="64" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D251" s="65" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E251" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="64">
         <v>52435</v>
       </c>
       <c r="B252" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C252" s="64" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D252" s="65"/>
       <c r="E252" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="64">
         <v>52473</v>
       </c>
       <c r="B253" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C253" s="64" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D253" s="65" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E253" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="64">
         <v>52490</v>
       </c>
       <c r="B254" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C254" s="64" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D254" s="65" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E254" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="64">
         <v>52540</v>
       </c>
       <c r="B255" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C255" s="64" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D255" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="E255" t="s">
         <v>387</v>
       </c>
-      <c r="E255" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="64">
         <v>52573</v>
       </c>
       <c r="B256" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C256" s="64" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D256" s="65"/>
       <c r="E256" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="64">
         <v>52612</v>
       </c>
       <c r="B257" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C257" s="64" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D257" s="65" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E257" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="64">
         <v>52621</v>
       </c>
       <c r="B258" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C258" s="64" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D258" s="65" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E258" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="64">
         <v>52678</v>
       </c>
       <c r="B259" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C259" s="64" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D259" s="65"/>
       <c r="E259" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="64">
         <v>52835</v>
       </c>
       <c r="B260" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C260" s="64" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D260" s="65" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E260" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="64">
         <v>52696</v>
       </c>
       <c r="B261" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C261" s="64" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D261" s="65" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E261" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="64">
         <v>54109</v>
       </c>
       <c r="B262" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="C262" s="64" t="s">
         <v>532</v>
-      </c>
-      <c r="C262" s="64" t="s">
-        <v>533</v>
       </c>
       <c r="D262" s="65"/>
       <c r="E262" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="64">
         <v>54206</v>
       </c>
       <c r="B263" s="64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C263" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="D263" s="65" t="s">
         <v>534</v>
       </c>
-      <c r="D263" s="65" t="s">
-        <v>535</v>
-      </c>
       <c r="E263" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="64">
         <v>54245</v>
       </c>
       <c r="B264" s="64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C264" s="64" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D264" s="65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E264" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="64">
         <v>54250</v>
       </c>
       <c r="B265" s="64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C265" s="64" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D265" s="65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E265" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="64">
         <v>54261</v>
       </c>
       <c r="B266" s="64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C266" s="64" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D266" s="65"/>
       <c r="E266" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="64">
         <v>54344</v>
       </c>
       <c r="B267" s="64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C267" s="64" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D267" s="65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E267" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="64">
         <v>54398</v>
       </c>
       <c r="B268" s="64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C268" s="64" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D268" s="65"/>
       <c r="E268" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="64">
         <v>54670</v>
       </c>
       <c r="B269" s="64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C269" s="64" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D269" s="65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E269" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="64">
         <v>54680</v>
       </c>
       <c r="B270" s="64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C270" s="64" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D270" s="65"/>
       <c r="E270" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="64">
         <v>54720</v>
       </c>
       <c r="B271" s="64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C271" s="64" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D271" s="65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E271" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="64">
         <v>54800</v>
       </c>
       <c r="B272" s="64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C272" s="64" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D272" s="65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E272" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="64">
         <v>54810</v>
       </c>
       <c r="B273" s="64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C273" s="64" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D273" s="65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E273" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="64">
         <v>86001</v>
       </c>
       <c r="B274" s="64" t="s">
+        <v>545</v>
+      </c>
+      <c r="C274" s="64" t="s">
         <v>546</v>
       </c>
-      <c r="C274" s="64" t="s">
-        <v>547</v>
-      </c>
       <c r="D274" s="65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E274" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="64">
         <v>86320</v>
       </c>
       <c r="B275" s="64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C275" s="64" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D275" s="65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E275" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" s="68" customFormat="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="66">
         <v>86568</v>
       </c>
       <c r="B276" s="66" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C276" s="66" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D276" s="67" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E276" s="68" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="64">
         <v>86569</v>
       </c>
       <c r="B277" s="64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C277" s="64" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D277" s="65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E277" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="64">
         <v>86571</v>
       </c>
       <c r="B278" s="64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C278" s="64" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D278" s="65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E278" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="64">
         <v>86573</v>
       </c>
       <c r="B279" s="64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C279" s="64" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D279" s="65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E279" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="64">
         <v>86757</v>
       </c>
       <c r="B280" s="64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C280" s="64" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D280" s="65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E280" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="64">
         <v>86865</v>
       </c>
       <c r="B281" s="64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C281" s="64" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D281" s="65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E281" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="64">
         <v>86885</v>
       </c>
       <c r="B282" s="64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C282" s="64" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D282" s="65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E282" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="64">
         <v>63302</v>
       </c>
       <c r="B283" s="64" t="s">
+        <v>555</v>
+      </c>
+      <c r="C283" s="64" t="s">
         <v>556</v>
-      </c>
-      <c r="C283" s="64" t="s">
-        <v>557</v>
       </c>
       <c r="D283" s="65"/>
       <c r="E283" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="64">
         <v>63548</v>
       </c>
       <c r="B284" s="64" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C284" s="64" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D284" s="65"/>
       <c r="E284" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="64">
         <v>63690</v>
       </c>
       <c r="B285" s="64" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C285" s="64" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D285" s="65"/>
       <c r="E285" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="64">
         <v>66075</v>
       </c>
       <c r="B286" s="64" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C286" s="64" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D286" s="65"/>
       <c r="E286" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="64">
         <v>66456</v>
       </c>
       <c r="B287" s="64" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C287" s="64" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D287" s="65"/>
       <c r="E287" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="64">
         <v>66572</v>
       </c>
       <c r="B288" s="64" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C288" s="64" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D288" s="65"/>
       <c r="E288" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="64">
         <v>66594</v>
       </c>
       <c r="B289" s="64" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C289" s="64" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D289" s="65"/>
       <c r="E289" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="64">
         <v>68101</v>
       </c>
       <c r="B290" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C290" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D290" s="65"/>
       <c r="E290" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="64">
         <v>68169</v>
       </c>
       <c r="B291" s="64" t="s">
+        <v>562</v>
+      </c>
+      <c r="C291" s="64" t="s">
         <v>563</v>
-      </c>
-      <c r="C291" s="64" t="s">
-        <v>564</v>
       </c>
       <c r="D291" s="65"/>
       <c r="E291" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="64">
         <v>68255</v>
       </c>
       <c r="B292" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C292" s="64" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D292" s="65"/>
       <c r="E292" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="64">
         <v>68377</v>
       </c>
       <c r="B293" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C293" s="64" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D293" s="65"/>
       <c r="E293" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="64">
         <v>68385</v>
       </c>
       <c r="B294" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C294" s="64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D294" s="65"/>
       <c r="E294" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="64">
         <v>68444</v>
       </c>
       <c r="B295" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C295" s="64" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D295" s="65"/>
       <c r="E295" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="64">
         <v>68615</v>
       </c>
       <c r="B296" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C296" s="64" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D296" s="65"/>
       <c r="E296" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="64">
         <v>68655</v>
       </c>
       <c r="B297" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C297" s="64" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D297" s="65"/>
       <c r="E297" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="64">
         <v>68773</v>
       </c>
       <c r="B298" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C298" s="64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D298" s="65"/>
       <c r="E298" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="64">
         <v>68780</v>
       </c>
       <c r="B299" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C299" s="64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D299" s="65"/>
       <c r="E299" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="64">
         <v>70230</v>
       </c>
       <c r="B300" s="64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C300" s="64" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D300" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E300" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="64">
         <v>70204</v>
       </c>
       <c r="B301" s="64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C301" s="64" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D301" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E301" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="64">
         <v>70418</v>
       </c>
       <c r="B302" s="64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C302" s="64" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D302" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E302" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="64">
         <v>70473</v>
       </c>
       <c r="B303" s="64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C303" s="64" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D303" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E303" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="64">
         <v>70508</v>
       </c>
       <c r="B304" s="64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C304" s="64" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D304" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E304" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="64">
         <v>70523</v>
       </c>
       <c r="B305" s="64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C305" s="64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D305" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E305" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="64">
         <v>70713</v>
       </c>
       <c r="B306" s="64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C306" s="64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D306" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E306" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="64">
         <v>70823</v>
       </c>
       <c r="B307" s="64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C307" s="64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D307" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E307" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="64">
         <v>73026</v>
       </c>
       <c r="B308" s="64" t="s">
+        <v>580</v>
+      </c>
+      <c r="C308" s="64" t="s">
         <v>581</v>
-      </c>
-      <c r="C308" s="64" t="s">
-        <v>582</v>
       </c>
       <c r="D308" s="65"/>
       <c r="E308" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="64">
         <v>73043</v>
       </c>
       <c r="B309" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C309" s="64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D309" s="65"/>
       <c r="E309" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="64">
         <v>73067</v>
       </c>
       <c r="B310" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C310" s="64" t="s">
+        <v>583</v>
+      </c>
+      <c r="D310" s="65" t="s">
         <v>584</v>
       </c>
-      <c r="D310" s="65" t="s">
-        <v>585</v>
-      </c>
       <c r="E310" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="64">
         <v>73124</v>
       </c>
       <c r="B311" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C311" s="64" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D311" s="65"/>
       <c r="E311" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="64">
         <v>73152</v>
       </c>
       <c r="B312" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C312" s="64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D312" s="65"/>
       <c r="E312" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="64">
         <v>73168</v>
       </c>
       <c r="B313" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C313" s="64" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D313" s="65" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E313" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="64">
         <v>73236</v>
       </c>
       <c r="B314" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C314" s="64" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D314" s="65"/>
       <c r="E314" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="64">
         <v>73347</v>
       </c>
       <c r="B315" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C315" s="64" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D315" s="65"/>
       <c r="E315" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="64">
         <v>73408</v>
       </c>
       <c r="B316" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C316" s="64" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D316" s="65"/>
       <c r="E316" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="64">
         <v>73461</v>
       </c>
       <c r="B317" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C317" s="64" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D317" s="65"/>
       <c r="E317" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="64">
         <v>73504</v>
       </c>
       <c r="B318" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C318" s="64" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D318" s="65"/>
       <c r="E318" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="64">
         <v>73555</v>
       </c>
       <c r="B319" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C319" s="64" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D319" s="65" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E319" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="64">
         <v>73563</v>
       </c>
       <c r="B320" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C320" s="64" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D320" s="65"/>
       <c r="E320" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="64">
         <v>73616</v>
       </c>
       <c r="B321" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C321" s="64" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D321" s="65" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E321" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="64">
         <v>73622</v>
       </c>
       <c r="B322" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C322" s="64" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D322" s="65"/>
       <c r="E322" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="64">
         <v>73624</v>
       </c>
       <c r="B323" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C323" s="64" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D323" s="65"/>
       <c r="E323" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="64">
         <v>73675</v>
       </c>
       <c r="B324" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C324" s="64" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D324" s="65"/>
       <c r="E324" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="64">
         <v>73686</v>
       </c>
       <c r="B325" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C325" s="64" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D325" s="65"/>
       <c r="E325" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="64">
         <v>73861</v>
       </c>
       <c r="B326" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C326" s="64" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D326" s="65"/>
       <c r="E326" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="64">
         <v>73870</v>
       </c>
       <c r="B327" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C327" s="64" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D327" s="65"/>
       <c r="E327" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="64">
         <v>73873</v>
       </c>
       <c r="B328" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C328" s="64" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D328" s="65"/>
       <c r="E328" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="64">
         <v>76041</v>
       </c>
       <c r="B329" s="64" t="s">
+        <v>603</v>
+      </c>
+      <c r="C329" s="64" t="s">
         <v>604</v>
-      </c>
-      <c r="C329" s="64" t="s">
-        <v>605</v>
       </c>
       <c r="D329" s="65"/>
       <c r="E329" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="64">
         <v>76054</v>
       </c>
       <c r="B330" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C330" s="64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D330" s="65"/>
       <c r="E330" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="64">
         <v>76100</v>
       </c>
       <c r="B331" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C331" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D331" s="65"/>
       <c r="E331" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="64">
         <v>76109</v>
       </c>
       <c r="B332" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C332" s="64" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D332" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E332" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="64">
         <v>76122</v>
       </c>
       <c r="B333" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C333" s="64" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D333" s="65"/>
       <c r="E333" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="64">
         <v>76126</v>
       </c>
       <c r="B334" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C334" s="64" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D334" s="65"/>
       <c r="E334" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="64">
         <v>76233</v>
       </c>
       <c r="B335" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C335" s="64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D335" s="65"/>
       <c r="E335" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="64">
         <v>76243</v>
       </c>
       <c r="B336" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C336" s="64" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D336" s="65"/>
       <c r="E336" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="64">
         <v>76246</v>
       </c>
       <c r="B337" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C337" s="64" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D337" s="65"/>
       <c r="E337" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="64">
         <v>76250</v>
       </c>
       <c r="B338" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C338" s="64" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D338" s="65"/>
       <c r="E338" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="64">
         <v>76275</v>
       </c>
       <c r="B339" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C339" s="64" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D339" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="E339" t="s">
         <v>387</v>
       </c>
-      <c r="E339" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="64">
         <v>76563</v>
       </c>
       <c r="B340" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C340" s="64" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D340" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="E340" t="s">
         <v>387</v>
       </c>
-      <c r="E340" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="64">
         <v>76616</v>
       </c>
       <c r="B341" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C341" s="64" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D341" s="65"/>
       <c r="E341" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="64">
         <v>76622</v>
       </c>
       <c r="B342" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C342" s="64" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D342" s="65"/>
       <c r="E342" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="64">
         <v>76890</v>
       </c>
       <c r="B343" s="64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C343" s="64" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D343" s="65"/>
       <c r="E343" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="64">
         <v>97161</v>
       </c>
       <c r="B344" s="64" t="s">
+        <v>617</v>
+      </c>
+      <c r="C344" s="64" t="s">
         <v>618</v>
-      </c>
-      <c r="C344" s="64" t="s">
-        <v>619</v>
       </c>
       <c r="D344" s="65"/>
       <c r="E344" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="64">
         <v>99773</v>
       </c>
       <c r="B345" s="64" t="s">
+        <v>619</v>
+      </c>
+      <c r="C345" s="64" t="s">
         <v>620</v>
-      </c>
-      <c r="C345" s="64" t="s">
-        <v>621</v>
       </c>
       <c r="D345" s="65"/>
       <c r="E345" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -10113,16 +10137,16 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10142,7 +10166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10163,7 +10187,7 @@
         <v>1301396</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -10184,7 +10208,7 @@
         <v>1758307</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -10205,7 +10229,7 @@
         <v>1640969</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10226,7 +10250,7 @@
         <v>1278102</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
